--- a/data4.xlsx
+++ b/data4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Константин\Desktop\Ассистент\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Константин\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74C95C6-8546-40F1-A33D-C825306D6E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF292004-F1E1-4F8B-B18D-60826F671E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="666">
   <si>
     <t xml:space="preserve">Тематика </t>
   </si>
@@ -64,9 +64,6 @@
     <t>Не знаю номер карты/счета для входа в приложение</t>
   </si>
   <si>
-    <t>Мне звонили, оформили кредит (действие совершено)</t>
-  </si>
-  <si>
     <t>Партнерская программа</t>
   </si>
   <si>
@@ -157,9 +154,6 @@
     <t>Карту перевыпустить размагнитилась</t>
   </si>
   <si>
-    <t>Снять деньги в офисе, кассе, у операциониста</t>
-  </si>
-  <si>
     <t xml:space="preserve">Курьер не отдает карту </t>
   </si>
   <si>
@@ -178,10 +172,6 @@
     <t>Внесение платежа</t>
   </si>
   <si>
-    <t>Хочу связь с оператором уточнить информацию по поводу того что пополнила кредитную карту деньги получается / 
-Хотела бы узнать поступил ли у меня платеж на кредитную карту последние семьсот рублей</t>
-  </si>
-  <si>
     <t xml:space="preserve">Не  могу получить выписку </t>
   </si>
   <si>
@@ -212,9 +202,6 @@
     <t>Не типовая справка</t>
   </si>
   <si>
-    <t>Мне не могут перевести из другого банка / мне не могут перевести</t>
-  </si>
-  <si>
     <t>Кэшбэк заправка</t>
   </si>
   <si>
@@ -224,18 +211,6 @@
     <t>Как мне заказать карту через ссылку по пригласи друга</t>
   </si>
   <si>
-    <t>Сервис заправки / Заправки / Не прошла оплата на заправке</t>
-  </si>
-  <si>
-    <t>Нужно кредит / Не нужен кредит / Не нужнО кредит / Мне не надо кредит / Хочу кредит / Нужен кредит</t>
-  </si>
-  <si>
-    <t>Проблема с получением карты / Не могу получить карту</t>
-  </si>
-  <si>
-    <t>Не получиЛ карту / Не получилИ карту</t>
-  </si>
-  <si>
     <t xml:space="preserve">Заказал стикер </t>
   </si>
   <si>
@@ -257,15 +232,9 @@
     <t xml:space="preserve">Онлайн платеж не проходит </t>
   </si>
   <si>
-    <t xml:space="preserve">Мне не отвечают в чате / Долго отвечают в чате </t>
-  </si>
-  <si>
     <t>Украли / Потерял телефон</t>
   </si>
   <si>
-    <t>Подвердить платеж, по движению средств, по истории</t>
-  </si>
-  <si>
     <t>По списанию</t>
   </si>
   <si>
@@ -374,33 +343,15 @@
     <t>Начислили проценты почему</t>
   </si>
   <si>
-    <t>Не нужна мне комиссия мне нужны наличные деньги у меня Оформлен кредит в вашем банке пятьсот три/здравствуйте я вот Сегодня заказала кредит наличными мне одобрили мне нужно Снять наличные как это сделать</t>
-  </si>
-  <si>
-    <t>Где деньги / где мои деньги</t>
-  </si>
-  <si>
-    <t>Связаться по добавочному номеру/ ввести добавочный номер/ добавочный номер</t>
-  </si>
-  <si>
-    <t>Позвонить, дозвониться</t>
-  </si>
-  <si>
     <t>Премиальный клиент я или нет</t>
   </si>
   <si>
-    <t>Потерял симку/номер</t>
-  </si>
-  <si>
     <t>График платежей по кредиту</t>
   </si>
   <si>
     <t>Представитель</t>
   </si>
   <si>
-    <t>Получить доступ в приложение/доступ к личному кабинету</t>
-  </si>
-  <si>
     <t>Мой вопрос по акции рекомендуется инвестиции</t>
   </si>
   <si>
@@ -419,24 +370,15 @@
     <t>Cменить контактный номер на карте ребенка</t>
   </si>
   <si>
-    <t>отменить комиссию/вернуть комиссию</t>
-  </si>
-  <si>
     <t>кредитование</t>
   </si>
   <si>
     <t>Меня просили перезвонить</t>
   </si>
   <si>
-    <t xml:space="preserve"> перезвоните мне/заказать обратный звонок/пусть он мне перезвонит</t>
-  </si>
-  <si>
     <t>Мошенники взломали госуслуги</t>
   </si>
   <si>
-    <t>Войти в карту/войти в счет</t>
-  </si>
-  <si>
     <t>банкомат взял купюры и положил ее на карту</t>
   </si>
   <si>
@@ -455,19 +397,12 @@
     <t>не могу зайти в приложение пишет номер телефона не зарегистрирован</t>
   </si>
   <si>
-    <t>можно ли с кредитной карты оплатить обучение в университете /садик</t>
-  </si>
-  <si>
     <t>можно связаться с верой</t>
   </si>
   <si>
     <t>на горячую линию домклик</t>
   </si>
   <si>
-    <t>как узнать зашел ли транш второй от банка/
-получить транш</t>
-  </si>
-  <si>
     <t>персональный менеджер</t>
   </si>
   <si>
@@ -486,21 +421,12 @@
     <t>вопрос по изготовлению карты</t>
   </si>
   <si>
-    <t>Не проходит оплата по карте / не проходит операция по карте / карта не проходит</t>
-  </si>
-  <si>
-    <t>Восстановить доступ к приложению/восстановить вход в приложение</t>
-  </si>
-  <si>
     <t>подключить карту</t>
   </si>
   <si>
     <t>Претензия/Заявление</t>
   </si>
   <si>
-    <t xml:space="preserve">Нет доступа к карте/счету;Восстановить доступ к карте/счету  </t>
-  </si>
-  <si>
     <t>Восстановить доступ</t>
   </si>
   <si>
@@ -513,9 +439,6 @@
     <t xml:space="preserve">Поменять выбранные категории кэшбэка </t>
   </si>
   <si>
-    <t>Ограничения на снятие наличных/денежных средств</t>
-  </si>
-  <si>
     <t>Номер не совпадает с карточкой</t>
   </si>
   <si>
@@ -537,9 +460,6 @@
     <t>два раза оплачен штраф</t>
   </si>
   <si>
-    <t>Не работает терминал / не проходит оплата по терминалу / не проходит оплата по эквайрингу</t>
-  </si>
-  <si>
     <t>Партнеры</t>
   </si>
   <si>
@@ -558,9 +478,6 @@
     <t>снять наличные</t>
   </si>
   <si>
-    <t>Несанкционированное списание\снятие</t>
-  </si>
-  <si>
     <t>Связаться с кредитным отделом</t>
   </si>
   <si>
@@ -573,9 +490,6 @@
     <t xml:space="preserve">Состояние счета </t>
   </si>
   <si>
-    <t>Получить зп карту\где зп карта</t>
-  </si>
-  <si>
     <t>Снятие с карты в банкомате стороннего банка</t>
   </si>
   <si>
@@ -585,9 +499,6 @@
     <t>Мне нужнО карту</t>
   </si>
   <si>
-    <t>приложение пишет что я сменил номер семь/не могу сделать перевод пишет что из-за смена номера</t>
-  </si>
-  <si>
     <t>справки и выписки</t>
   </si>
   <si>
@@ -630,9 +541,6 @@
     <t>зайти по номеру карты</t>
   </si>
   <si>
-    <t>вопрос по оформлению кредита/получить кредит</t>
-  </si>
-  <si>
     <t>В приложении</t>
   </si>
   <si>
@@ -651,9 +559,6 @@
     <t>УВ Кредитная карта (UV_CreditCard)</t>
   </si>
   <si>
-    <t>Отказаться\ вопрос по закрытию</t>
-  </si>
-  <si>
     <t>Вопрос по зарплатной карте</t>
   </si>
   <si>
@@ -669,9 +574,6 @@
     <t>Не знаю</t>
   </si>
   <si>
-    <t>Войти в приложение / получить доступ к приложению / зарегистрироваться в приложении</t>
-  </si>
-  <si>
     <t>Оплатить коммунальный платеж</t>
   </si>
   <si>
@@ -699,9 +601,6 @@
     <t>случайно перевела не в тот банк</t>
   </si>
   <si>
-    <t>списывают деньги с другого счета\ пытаетесь долги списали с другого счета</t>
-  </si>
-  <si>
     <t>Вернуть деньги</t>
   </si>
   <si>
@@ -714,12 +613,6 @@
     <t>Цифры (Numbers)</t>
   </si>
   <si>
-    <t>Меня обманули мошенники/ у меня мошеннические действия происходят</t>
-  </si>
-  <si>
-    <t>проверил деньги не пришли/срок зачисления/когда придут деньги</t>
-  </si>
-  <si>
     <t>Проблема</t>
   </si>
   <si>
@@ -747,9 +640,6 @@
     <t>Кредитная и дебетовая карта</t>
   </si>
   <si>
-    <t>заблокирован перевод/Перевела деньги заблокировали/ разблокировать перевод</t>
-  </si>
-  <si>
     <t>Частичное погашение</t>
   </si>
   <si>
@@ -783,9 +673,6 @@
     <t>Несанкционированные звонки</t>
   </si>
   <si>
-    <t>Пароль\нужен пароль\ войти по пароль</t>
-  </si>
-  <si>
     <t>С банкомата не могу снять по карте наличные</t>
   </si>
   <si>
@@ -798,18 +685,12 @@
     <t>Не могу войти в личный кабинет не приходит ли код доступа</t>
   </si>
   <si>
-    <t>Страховка по кредитной карте / страховка по кредиту</t>
-  </si>
-  <si>
     <t xml:space="preserve">узнать статус карты </t>
   </si>
   <si>
     <t>если с матами,тогда на Невозможно</t>
   </si>
   <si>
-    <t>Добавить карту в приложение/ привязать карту в приложение</t>
-  </si>
-  <si>
     <t>Незаконно снимают комиссию</t>
   </si>
   <si>
@@ -849,18 +730,9 @@
     <t>Хочу получить кредитную карту</t>
   </si>
   <si>
-    <t>Мне перевели / я переводил себе на альфу</t>
-  </si>
-  <si>
-    <t>Переводил/ был перевод / сделал перевод / я переводил себе</t>
-  </si>
-  <si>
     <t>Я переводил</t>
   </si>
   <si>
-    <t>Перевод / сделать перевод</t>
-  </si>
-  <si>
     <t>Заблокировали номер телефона</t>
   </si>
   <si>
@@ -909,15 +781,6 @@
     <t>Лимит</t>
   </si>
   <si>
-    <t>Кредит/кредит на карту</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вопрос по моему кредиту/оформил кредит </t>
-  </si>
-  <si>
-    <t>Возврат денег / возврат за покупку</t>
-  </si>
-  <si>
     <t>Сколько я могу потратить денег</t>
   </si>
   <si>
@@ -945,24 +808,9 @@
     <t>статус претензии</t>
   </si>
   <si>
-    <t>Добрый день позовите оператора/алло оператора</t>
-  </si>
-  <si>
-    <t>сервис банка/банковские услуги/продукты банка</t>
-  </si>
-  <si>
-    <t>неправильная сумма/неверный процент</t>
-  </si>
-  <si>
     <t>мне нужен оператор для физ лиц</t>
   </si>
   <si>
-    <t>Перенести номер/перейти со своим номеров</t>
-  </si>
-  <si>
-    <t>Экстренный звонок/экстренно соедините с оператором/вопрос жизни и смерти</t>
-  </si>
-  <si>
     <t>он не выдал деньги</t>
   </si>
   <si>
@@ -1002,21 +850,12 @@
     <t>Связь</t>
   </si>
   <si>
-    <t>свяжи/связаться</t>
-  </si>
-  <si>
     <t>я бы хотела поменять в личном кабинете номер телефона</t>
   </si>
   <si>
-    <t>по задолженности/не гасится задолженность/ условия дату суммы платежа</t>
-  </si>
-  <si>
     <t>восстановить логин и пароль банк клиенту</t>
   </si>
   <si>
-    <t>Отключить все платные услуги/ Отключить все услуги</t>
-  </si>
-  <si>
     <t>Какие у меня подключены услуги</t>
   </si>
   <si>
@@ -1029,9 +868,6 @@
     <t>возврат переплаты по субсидии ижс ладно слать по договору солодиловой кристиной сергеевной</t>
   </si>
   <si>
-    <t>я вайлдберрис переслала первый раз в две тысячи и второй раз две тысячи зачислено было три тысячи/сумма получателю пришла меньше чем перевел</t>
-  </si>
-  <si>
     <t>как погасить досрочно</t>
   </si>
   <si>
@@ -1041,27 +877,15 @@
     <t>через телефон</t>
   </si>
   <si>
-    <t>оплатить сотовую связь/мобильную</t>
-  </si>
-  <si>
-    <t>подписка кинопоиск/яндекс плюс</t>
-  </si>
-  <si>
     <t xml:space="preserve">что за подписка </t>
   </si>
   <si>
     <t>УВ Подписки (UV_Podpiski)</t>
   </si>
   <si>
-    <t>объясните программу долгосрочных сбережений/ПДС</t>
-  </si>
-  <si>
     <t>Связаться с оператором отделения</t>
   </si>
   <si>
-    <t>Оплатить карту/Cколько я буду платить за свою карту в месяц</t>
-  </si>
-  <si>
     <t>заявка</t>
   </si>
   <si>
@@ -1077,12 +901,6 @@
     <t>все операторы заняты</t>
   </si>
   <si>
-    <t>Сколько денег на ипотечном счете/баланс ипотечного счета</t>
-  </si>
-  <si>
-    <t>Позовите\ Позовите кожанного мешка\ Соедините с кожанным</t>
-  </si>
-  <si>
     <t>Задолженность по кредитной карте</t>
   </si>
   <si>
@@ -1095,12 +913,6 @@
     <t>Тарифы банка</t>
   </si>
   <si>
-    <t>Ограничение/приостановление по счетам , по карте</t>
-  </si>
-  <si>
-    <t>Ограничения/снять ограничения</t>
-  </si>
-  <si>
     <t>Активировать приложение</t>
   </si>
   <si>
@@ -1116,9 +928,6 @@
     <t>закрыть брокерский счет</t>
   </si>
   <si>
-    <t>Связаться с отделением банка/мне нужен номер филиала в городе сосновый бор</t>
-  </si>
-  <si>
     <t>мне нужен оператор</t>
   </si>
   <si>
@@ -1149,9 +958,6 @@
     <t>Открыть счет и закрыть карту (когда 2 вопроса в одном)</t>
   </si>
   <si>
-    <t>Я хочу с кредитной карты/дебетовой отказаться от страховки/ отказаться от страховки по карте</t>
-  </si>
-  <si>
     <t>Когда поступят деньги с момента возврата от ТСП прошло 15 дней</t>
   </si>
   <si>
@@ -1176,18 +982,9 @@
     <t xml:space="preserve">Я не Василий +  вопрос </t>
   </si>
   <si>
-    <t>кредитный договор/договор</t>
-  </si>
-  <si>
     <t>договор по страховке</t>
   </si>
   <si>
-    <t>Привязать карту к телефону\в телефон</t>
-  </si>
-  <si>
-    <t>Зарегистрировать карту/авторизовать</t>
-  </si>
-  <si>
     <t>статус дебетовой карты</t>
   </si>
   <si>
@@ -1215,15 +1012,9 @@
     <t>Досудебная претензия</t>
   </si>
   <si>
-    <t>Пришлите реквизиты в смс/номер счета в смс</t>
-  </si>
-  <si>
     <t>который оформлен</t>
   </si>
   <si>
-    <t>нужен сотрудник по ипотеке/ипотечный менеджер</t>
-  </si>
-  <si>
     <t>не надо блокировать карту а у меня карта есть блин</t>
   </si>
   <si>
@@ -1275,9 +1066,6 @@
     <t>Счет ипотеки</t>
   </si>
   <si>
-    <t>Проблема с приложением/ Не работает приложение</t>
-  </si>
-  <si>
     <t>вопрос блокировки карты и всех операций по счетам</t>
   </si>
   <si>
@@ -1299,15 +1087,6 @@
     <t>Заказать  стикер, Заказать стикер</t>
   </si>
   <si>
-    <t xml:space="preserve"> тревел</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Афиша / купить билет в кино / купить билет в театр</t>
-  </si>
-  <si>
-    <t>Сервис  Тревел / купить авиабилет / купить жд билет / оплатить отель</t>
-  </si>
-  <si>
     <t>Вопросы по  форексу</t>
   </si>
   <si>
@@ -1327,9 +1106,6 @@
   </si>
   <si>
     <t>Переводила я с другого банка себе на  банк</t>
-  </si>
-  <si>
-    <t>Кредитная  карта/  кредитная карта</t>
   </si>
   <si>
     <t xml:space="preserve"> Онлайн</t>
@@ -1873,177 +1649,415 @@
     <t xml:space="preserve">Отменить платеж (_Local_Cancel_Payment) </t>
   </si>
   <si>
-    <t>входил/заходил</t>
-  </si>
-  <si>
-    <t>зайти/войти
-захожу/вхожу</t>
-  </si>
-  <si>
-    <t>спасибо да/нет
+    <t>Да/Нет</t>
+  </si>
+  <si>
+    <t>🞄31.03.2023</t>
+  </si>
+  <si>
+    <t>🞄28.01.2025</t>
+  </si>
+  <si>
+    <t>🞄23.05.2025</t>
+  </si>
+  <si>
+    <t>🞄04.02.2025</t>
+  </si>
+  <si>
+    <t>🞄11.02.2025</t>
+  </si>
+  <si>
+    <t>🞄12.02.2025</t>
+  </si>
+  <si>
+    <t>🞄17.02.2025</t>
+  </si>
+  <si>
+    <t>🞄18.02.2025</t>
+  </si>
+  <si>
+    <t>🞄25.02.2025</t>
+  </si>
+  <si>
+    <t>🞄04.03.2025</t>
+  </si>
+  <si>
+    <t>🞄05.03.2025</t>
+  </si>
+  <si>
+    <t>🞄28.05.2025</t>
+  </si>
+  <si>
+    <t>🞄06.03.2025</t>
+  </si>
+  <si>
+    <t>🞄26.06.2025</t>
+  </si>
+  <si>
+    <t>🞄11.03.2025</t>
+  </si>
+  <si>
+    <t>🞄12.03.2025</t>
+  </si>
+  <si>
+    <t>🞄13.03.2025</t>
+  </si>
+  <si>
+    <t>🞄26.03.2025</t>
+  </si>
+  <si>
+    <t>🞄01.04.2025</t>
+  </si>
+  <si>
+    <t>🞄02.04.2025</t>
+  </si>
+  <si>
+    <t>🞄03.04.2025</t>
+  </si>
+  <si>
+    <t>🞄09.04.2025</t>
+  </si>
+  <si>
+    <t>🞄10.04.2025</t>
+  </si>
+  <si>
+    <t>🞄11.04.2025</t>
+  </si>
+  <si>
+    <t>🞄17.04.2025</t>
+  </si>
+  <si>
+    <t>🞄18.04.2025</t>
+  </si>
+  <si>
+    <t>🞄23.04.2025</t>
+  </si>
+  <si>
+    <t>🞄24.04.2025</t>
+  </si>
+  <si>
+    <t>🞄28.04.2025</t>
+  </si>
+  <si>
+    <t>🞄30.04.2025</t>
+  </si>
+  <si>
+    <t>🞄05.05.2025</t>
+  </si>
+  <si>
+    <t>🞄06.05.2025</t>
+  </si>
+  <si>
+    <t>🞄07.05.2025</t>
+  </si>
+  <si>
+    <t>🞄13.05.2025</t>
+  </si>
+  <si>
+    <t>🞄14.05.2025</t>
+  </si>
+  <si>
+    <t>🞄15.05.2025</t>
+  </si>
+  <si>
+    <t>🞄20.05.2025</t>
+  </si>
+  <si>
+    <t>🞄21.05.2025</t>
+  </si>
+  <si>
+    <t>🞄22.05.2025</t>
+  </si>
+  <si>
+    <t>🞄26.05.2025</t>
+  </si>
+  <si>
+    <t>🞄29.05.2025</t>
+  </si>
+  <si>
+    <t>🞄04.06.2025</t>
+  </si>
+  <si>
+    <t>🞄11.06.2025</t>
+  </si>
+  <si>
+    <t>🞄16.06.2025</t>
+  </si>
+  <si>
+    <t>🞄18.06.2025</t>
+  </si>
+  <si>
+    <t>🞄19.06.2025</t>
+  </si>
+  <si>
+    <t>🞄25.06.2025</t>
+  </si>
+  <si>
+    <t>🞄30.06.2025</t>
+  </si>
+  <si>
+    <t>🞄03.07.2025</t>
+  </si>
+  <si>
+    <t>не надо менять надо просто привязать</t>
+  </si>
+  <si>
+    <t>🞄14.07.2025</t>
+  </si>
+  <si>
+    <t>Не проходит оплата по карте | не проходит операция по карте | карта не проходит</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мне не отвечают в чате | Долго отвечают в чате </t>
+  </si>
+  <si>
+    <t>Добавить карту в приложение| привязать карту в приложение</t>
+  </si>
+  <si>
+    <t>Зарегистрировать карту|авторизовать</t>
+  </si>
+  <si>
+    <t>Хочу связь с оператором уточнить информацию по поводу того что пополнила кредитную карту деньги получается | 
+Хотела бы узнать поступил ли у меня платеж на кредитную карту последние семьсот рублей</t>
+  </si>
+  <si>
+    <t>Не получиЛ карту | Не получилИ карту</t>
+  </si>
+  <si>
+    <t>Проблема с получением карты | Не могу получить карту</t>
+  </si>
+  <si>
+    <t>Нужно кредит | Не нужен кредит | Не нужнО кредит | Мне не надо кредит | Хочу кредит | Нужен кредит</t>
+  </si>
+  <si>
+    <t>Сервис заправки | Заправки | Не прошла оплата на заправке</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Афиша | купить билет в кино | купить билет в театр</t>
+  </si>
+  <si>
+    <t>Сервис  Тревел | купить авиабилет | купить жд билет | оплатить отель</t>
+  </si>
+  <si>
+    <t>Мне не могут перевести из другого банка | мне не могут перевести</t>
+  </si>
+  <si>
+    <t>Восстановить доступ к приложению|восстановить вход в приложение</t>
+  </si>
+  <si>
+    <t>Где деньги | где мои деньги</t>
+  </si>
+  <si>
+    <t>Связаться по добавочному номеру| ввести добавочный номер| добавочный номер</t>
+  </si>
+  <si>
+    <t>Не нужна мне комиссия мне нужны наличные деньги у меня Оформлен кредит в вашем банке пятьсот три|здравствуйте я вот Сегодня заказала кредит наличными мне одобрили мне нужно Снять наличные как это сделать</t>
+  </si>
+  <si>
+    <t>Получить доступ в приложение|доступ к личному кабинету</t>
+  </si>
+  <si>
+    <t>отменить комиссию|вернуть комиссию</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> перезвоните мне|заказать обратный звонок|пусть он мне перезвонит</t>
+  </si>
+  <si>
+    <t>Войти в карту|войти в счет</t>
+  </si>
+  <si>
+    <t>приложение пишет что я сменил номер семь|не могу сделать перевод пишет что из-за смена номера</t>
+  </si>
+  <si>
+    <t>можно ли с кредитной карты оплатить обучение в университете |садик</t>
+  </si>
+  <si>
+    <t>заблокирован перевод|Перевела деньги заблокировали| разблокировать перевод</t>
+  </si>
+  <si>
+    <t>Потерял симку|номер</t>
+  </si>
+  <si>
+    <t>Ограничения на снятие наличных|денежных средств</t>
+  </si>
+  <si>
+    <t>Добрый день позовите оператора|алло оператора</t>
+  </si>
+  <si>
+    <t>проверил деньги не пришли|срок зачисления|когда придут деньги</t>
+  </si>
+  <si>
+    <t>вопрос по оформлению кредита|получить кредит</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вопрос по моему кредиту|оформил кредит </t>
+  </si>
+  <si>
+    <t>Кредит|кредит на карту</t>
+  </si>
+  <si>
+    <t>Я хочу с кредитной карты|дебетовой отказаться от страховки| отказаться от страховки по карте</t>
+  </si>
+  <si>
+    <t>Войти в приложение | получить доступ к приложению | зарегистрироваться в приложении</t>
+  </si>
+  <si>
+    <t>Страховка по кредитной карте | страховка по кредиту</t>
+  </si>
+  <si>
+    <t>Кредитная  карта|  кредитная карта</t>
+  </si>
+  <si>
+    <t>Перевод | сделать перевод</t>
+  </si>
+  <si>
+    <t>Мне перевели | я переводил себе на альфу</t>
+  </si>
+  <si>
+    <t>Переводил| был перевод | сделал перевод | я переводил себе</t>
+  </si>
+  <si>
+    <t>неправильная сумма|неверный процент</t>
+  </si>
+  <si>
+    <t>Меня обманули мошенники| у меня мошеннические действия происходят</t>
+  </si>
+  <si>
+    <t>как узнать зашел ли транш второй от банка|
+получить транш</t>
+  </si>
+  <si>
+    <t>Не работает терминал | не проходит оплата по терминалу | не проходит оплата по эквайрингу</t>
+  </si>
+  <si>
+    <t>по задолженности|не гасится задолженность| условия дату суммы платежа</t>
+  </si>
+  <si>
+    <t>Оплатить карту|Cколько я буду платить за свою карту в месяц</t>
+  </si>
+  <si>
+    <t>Возврат денег | возврат за покупку</t>
+  </si>
+  <si>
+    <t>сервис банка|банковские услуги|продукты банка</t>
+  </si>
+  <si>
+    <t>Перенести номер|перейти со своим номеров</t>
+  </si>
+  <si>
+    <t>Экстренный звонок|экстренно соедините с оператором|вопрос жизни и смерти</t>
+  </si>
+  <si>
+    <t>Связаться с отделением банка|мне нужен номер филиала в городе сосновый бор</t>
+  </si>
+  <si>
+    <t>свяжи|связаться</t>
+  </si>
+  <si>
+    <t>Отключить все платные услуги| Отключить все услуги</t>
+  </si>
+  <si>
+    <t>я вайлдберрис переслала первый раз в две тысячи и второй раз две тысячи зачислено было три тысячи|сумма получателю пришла меньше чем перевел</t>
+  </si>
+  <si>
+    <t>оплатить сотовую связь|мобильную</t>
+  </si>
+  <si>
+    <t>подписка кинопоиск|яндекс плюс</t>
+  </si>
+  <si>
+    <t>объясните программу долгосрочных сбережений|ПДС</t>
+  </si>
+  <si>
+    <t>Сколько денег на ипотечном счете|баланс ипотечного счета</t>
+  </si>
+  <si>
+    <t>Ограничения|снять ограничения</t>
+  </si>
+  <si>
+    <t>кредитный договор|договор</t>
+  </si>
+  <si>
+    <t>Пришлите реквизиты в смс|номер счета в смс</t>
+  </si>
+  <si>
+    <t>нужен сотрудник по ипотеке|ипотечный менеджер</t>
+  </si>
+  <si>
+    <t>Проблема с приложением| Не работает приложение</t>
+  </si>
+  <si>
+    <t>входил|заходил</t>
+  </si>
+  <si>
+    <t>Несанкционированное списание/снятие</t>
+  </si>
+  <si>
+    <t>Получить зп карту|где зп карта</t>
+  </si>
+  <si>
+    <t>Привязать карту к телефону/в телефон</t>
+  </si>
+  <si>
+    <t>Снять деньги в офисе/ кассе/ у операциониста</t>
+  </si>
+  <si>
+    <t>Подвердить платеж| по движению средств| по истории</t>
+  </si>
+  <si>
+    <t>Ограничение / приостановление по счетам / по карте</t>
+  </si>
+  <si>
+    <t>Позвонить/дозвониться</t>
+  </si>
+  <si>
+    <t>списывают деньги с другого счета| пытаетесь долги списали с другого счета</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нет доступа к карте/счету | Восстановить доступ к карте/счету  </t>
+  </si>
+  <si>
+    <t>Позовите| Позовите кожанного мешка| Соедините с кожанным</t>
+  </si>
+  <si>
+    <t>Отказаться|вопрос по закрытию</t>
+  </si>
+  <si>
+    <t>Пароль|нужен пароль|войти по пароль</t>
+  </si>
+  <si>
+    <t>зайти|войти|
+захожу|вхожу</t>
+  </si>
+  <si>
+    <t>спасибо да/нет|
 здравствуйте да/нет</t>
   </si>
   <si>
-    <t>Да/Нет</t>
-  </si>
-  <si>
-    <t>🞄31.03.2023</t>
-  </si>
-  <si>
-    <t>🞄28.01.2025</t>
-  </si>
-  <si>
-    <t>🞄23.05.2025</t>
-  </si>
-  <si>
-    <t>🞄04.02.2025</t>
-  </si>
-  <si>
-    <t>🞄11.02.2025</t>
-  </si>
-  <si>
-    <t>🞄12.02.2025</t>
-  </si>
-  <si>
-    <t>🞄17.02.2025</t>
-  </si>
-  <si>
-    <t>🞄18.02.2025</t>
-  </si>
-  <si>
-    <t>🞄25.02.2025</t>
-  </si>
-  <si>
-    <t>🞄04.03.2025</t>
-  </si>
-  <si>
-    <t>🞄05.03.2025</t>
-  </si>
-  <si>
-    <t>🞄28.05.2025</t>
-  </si>
-  <si>
-    <t>🞄06.03.2025</t>
-  </si>
-  <si>
-    <t>🞄26.06.2025</t>
-  </si>
-  <si>
-    <t>🞄11.03.2025</t>
-  </si>
-  <si>
-    <t>🞄12.03.2025</t>
-  </si>
-  <si>
-    <t>🞄13.03.2025</t>
-  </si>
-  <si>
-    <t>🞄26.03.2025</t>
-  </si>
-  <si>
-    <t>🞄01.04.2025</t>
-  </si>
-  <si>
-    <t>🞄02.04.2025</t>
-  </si>
-  <si>
-    <t>🞄03.04.2025</t>
-  </si>
-  <si>
-    <t>🞄09.04.2025</t>
-  </si>
-  <si>
-    <t>🞄10.04.2025</t>
-  </si>
-  <si>
-    <t>🞄11.04.2025</t>
-  </si>
-  <si>
-    <t>🞄17.04.2025</t>
-  </si>
-  <si>
-    <t>🞄18.04.2025</t>
-  </si>
-  <si>
-    <t>🞄23.04.2025</t>
-  </si>
-  <si>
-    <t>🞄24.04.2025</t>
-  </si>
-  <si>
-    <t>🞄28.04.2025</t>
-  </si>
-  <si>
-    <t>🞄30.04.2025</t>
-  </si>
-  <si>
-    <t>🞄05.05.2025</t>
-  </si>
-  <si>
-    <t>🞄06.05.2025</t>
-  </si>
-  <si>
-    <t>🞄07.05.2025</t>
-  </si>
-  <si>
-    <t>🞄13.05.2025</t>
-  </si>
-  <si>
-    <t>🞄14.05.2025</t>
-  </si>
-  <si>
-    <t>🞄15.05.2025</t>
-  </si>
-  <si>
-    <t>🞄20.05.2025</t>
-  </si>
-  <si>
-    <t>🞄21.05.2025</t>
-  </si>
-  <si>
-    <t>🞄22.05.2025</t>
-  </si>
-  <si>
-    <t>🞄26.05.2025</t>
-  </si>
-  <si>
-    <t>🞄29.05.2025</t>
-  </si>
-  <si>
-    <t>🞄04.06.2025</t>
-  </si>
-  <si>
-    <t>🞄11.06.2025</t>
-  </si>
-  <si>
-    <t>🞄16.06.2025</t>
-  </si>
-  <si>
-    <t>🞄18.06.2025</t>
-  </si>
-  <si>
-    <t>🞄19.06.2025</t>
-  </si>
-  <si>
-    <t>🞄25.06.2025</t>
-  </si>
-  <si>
-    <t>🞄30.06.2025</t>
-  </si>
-  <si>
-    <t>🞄03.07.2025</t>
+    <t>Мне звонили оформили кредит (действие совершено)</t>
+  </si>
+  <si>
+    <t>Тревел</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2132,62 +2146,65 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2563,7 +2580,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>222</xdr:row>
-      <xdr:rowOff>126150</xdr:rowOff>
+      <xdr:rowOff>126151</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3225,8 +3242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H429"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3243,74 +3260,74 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>584</v>
+        <v>510</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>585</v>
+        <v>511</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>586</v>
+        <v>512</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>587</v>
+        <v>513</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>588</v>
+        <v>514</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>589</v>
+        <v>515</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>606</v>
+        <v>532</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>308</v>
+        <v>258</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>537</v>
+        <v>463</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="8" t="s">
-        <v>615</v>
+        <v>538</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>438</v>
+        <v>364</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>537</v>
+        <v>463</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="8" t="s">
-        <v>615</v>
+        <v>538</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>439</v>
+        <v>365</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>538</v>
+        <v>464</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="8" t="s">
-        <v>615</v>
+        <v>538</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -3318,61 +3335,61 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>544</v>
+        <v>470</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>544</v>
+        <v>470</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>440</v>
+        <v>366</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>539</v>
+        <v>465</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -3380,14 +3397,14 @@
         <v>2</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>441</v>
+        <v>367</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -3395,29 +3412,29 @@
         <v>3</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>441</v>
+        <v>367</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>540</v>
+        <v>466</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -3425,337 +3442,337 @@
         <v>4</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>149</v>
+        <v>589</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>442</v>
+        <v>368</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>173</v>
+        <v>650</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>556</v>
+        <v>482</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>73</v>
+        <v>590</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>443</v>
+        <v>369</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>416</v>
+        <v>346</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>444</v>
+        <v>370</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>417</v>
+        <v>347</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>445</v>
+        <v>371</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>446</v>
+        <v>372</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>447</v>
+        <v>373</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>541</v>
+        <v>467</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>448</v>
+        <v>374</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>449</v>
+        <v>375</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>256</v>
+        <v>591</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>450</v>
+        <v>376</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>542</v>
+        <v>468</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>443</v>
+        <v>369</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>382</v>
+        <v>592</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="8" t="s">
-        <v>617</v>
+        <v>540</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>451</v>
+        <v>377</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>399</v>
+        <v>330</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>452</v>
+        <v>378</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -3763,206 +3780,206 @@
         <v>6</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>453</v>
+        <v>379</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>543</v>
+        <v>469</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>454</v>
+        <v>380</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>596</v>
+        <v>522</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>544</v>
+        <v>470</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>566</v>
+        <v>492</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>418</v>
+        <v>348</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>447</v>
+        <v>373</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>178</v>
+        <v>651</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>566</v>
+        <v>492</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>381</v>
+        <v>652</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>450</v>
+        <v>376</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>455</v>
+        <v>381</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>456</v>
+        <v>382</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>442</v>
+        <v>368</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>40</v>
+        <v>653</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>457</v>
+        <v>383</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>458</v>
+        <v>384</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -3970,14 +3987,14 @@
         <v>7</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>459</v>
+        <v>385</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -3985,3631 +4002,3631 @@
         <v>8</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>460</v>
+        <v>386</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
       <c r="G48" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>9</v>
+        <v>664</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>556</v>
+        <v>482</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>452</v>
+        <v>378</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>461</v>
+        <v>387</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>462</v>
+        <v>388</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>419</v>
+        <v>349</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>463</v>
+        <v>389</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>451</v>
+        <v>377</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
       <c r="G56" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
       <c r="G57" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>444</v>
+        <v>370</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
       <c r="G58" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
       <c r="G59" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>420</v>
+        <v>665</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>443</v>
+        <v>369</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>47</v>
+        <v>593</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>464</v>
+        <v>390</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
       <c r="G61" s="8" t="s">
-        <v>617</v>
+        <v>540</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>465</v>
+        <v>391</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>466</v>
+        <v>392</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
       <c r="G62" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
       <c r="G63" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>465</v>
+        <v>391</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>466</v>
+        <v>392</v>
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
       <c r="G64" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>467</v>
+        <v>393</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
       <c r="G65" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>468</v>
+        <v>394</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>440</v>
+        <v>366</v>
       </c>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
       <c r="G66" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>469</v>
+        <v>395</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
       <c r="G67" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>455</v>
+        <v>381</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>456</v>
+        <v>382</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
       <c r="G68" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
       <c r="G69" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>470</v>
+        <v>396</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>471</v>
+        <v>397</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
       <c r="G70" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>470</v>
+        <v>396</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>471</v>
+        <v>397</v>
       </c>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
       <c r="G71" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>472</v>
+        <v>398</v>
       </c>
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
       <c r="G72" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
       <c r="G73" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>451</v>
+        <v>377</v>
       </c>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
       <c r="G74" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
-        <v>65</v>
+        <v>594</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>566</v>
+        <v>492</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
       <c r="G75" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
-        <v>64</v>
+        <v>595</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
       <c r="G76" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>452</v>
+        <v>378</v>
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
       <c r="G77" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>451</v>
+        <v>377</v>
       </c>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
       <c r="G78" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
-        <v>63</v>
+        <v>596</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>473</v>
+        <v>399</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>474</v>
+        <v>400</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>461</v>
+        <v>387</v>
       </c>
       <c r="F79" s="6"/>
       <c r="G79" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
-        <v>62</v>
+        <v>597</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
       <c r="G80" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>448</v>
+        <v>374</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
       <c r="G81" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
-        <v>421</v>
+        <v>598</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
       <c r="G82" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
-        <v>422</v>
+        <v>599</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
       <c r="G83" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>58</v>
+        <v>600</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>475</v>
+        <v>401</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
       <c r="G84" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>456</v>
+        <v>382</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
       <c r="G85" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>423</v>
+        <v>350</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
       <c r="G86" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
-        <v>424</v>
+        <v>351</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
       <c r="G87" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
       <c r="G88" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
       <c r="G89" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>538</v>
+        <v>464</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
       <c r="G90" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
       <c r="G91" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>476</v>
+        <v>402</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
       <c r="G92" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>445</v>
+        <v>371</v>
       </c>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
       <c r="G93" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>453</v>
+        <v>379</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
       <c r="G94" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>452</v>
+        <v>378</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
       <c r="G95" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>445</v>
+        <v>371</v>
       </c>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
       <c r="G96" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
       <c r="G97" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
       <c r="G98" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
       <c r="G99" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>470</v>
+        <v>396</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>471</v>
+        <v>397</v>
       </c>
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
       <c r="G100" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
       <c r="G101" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
       <c r="G102" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
       <c r="G103" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
       <c r="G104" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>460</v>
+        <v>386</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
       <c r="G105" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>470</v>
+        <v>396</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>471</v>
+        <v>397</v>
       </c>
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
       <c r="G106" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
-        <v>75</v>
+        <v>654</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>465</v>
+        <v>391</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>466</v>
+        <v>392</v>
       </c>
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
       <c r="G107" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>601</v>
+        <v>527</v>
       </c>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
       <c r="G108" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>545</v>
+        <v>471</v>
       </c>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
       <c r="G109" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
       <c r="E110" s="6"/>
       <c r="F110" s="6"/>
       <c r="G110" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>475</v>
+        <v>401</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
       <c r="E111" s="6"/>
       <c r="F111" s="6"/>
       <c r="G111" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
       <c r="E112" s="6"/>
       <c r="F112" s="6"/>
       <c r="G112" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>477</v>
+        <v>403</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>478</v>
+        <v>404</v>
       </c>
       <c r="D113" s="6"/>
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
       <c r="G113" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>601</v>
+        <v>527</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
       <c r="G114" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>444</v>
+        <v>370</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
       <c r="F115" s="6"/>
       <c r="G115" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>460</v>
+        <v>386</v>
       </c>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
       <c r="G116" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>462</v>
+        <v>388</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="D117" s="6"/>
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
       <c r="G117" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>443</v>
+        <v>369</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="D118" s="6"/>
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
       <c r="G118" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
-        <v>352</v>
+        <v>655</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
       <c r="G119" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>546</v>
+        <v>472</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>478</v>
+        <v>404</v>
       </c>
       <c r="D120" s="6"/>
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
       <c r="G120" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>479</v>
+        <v>405</v>
       </c>
       <c r="D121" s="6"/>
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
       <c r="G121" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
-        <v>150</v>
+        <v>601</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>547</v>
+        <v>473</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>480</v>
+        <v>406</v>
       </c>
       <c r="D122" s="6"/>
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
       <c r="G122" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>481</v>
+        <v>407</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
       <c r="E123" s="6"/>
       <c r="F123" s="6"/>
       <c r="G123" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>548</v>
+        <v>474</v>
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
       <c r="E124" s="6"/>
       <c r="F124" s="6"/>
       <c r="G124" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
-        <v>603</v>
+        <v>529</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
       <c r="E125" s="6"/>
       <c r="F125" s="6"/>
       <c r="G125" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
-        <v>602</v>
+        <v>528</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>443</v>
+        <v>369</v>
       </c>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
       <c r="E126" s="6"/>
       <c r="F126" s="6"/>
       <c r="G126" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
-        <v>115</v>
+        <v>656</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>549</v>
+        <v>475</v>
       </c>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
       <c r="E127" s="6"/>
       <c r="F127" s="6"/>
       <c r="G127" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
-        <v>113</v>
+        <v>602</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>482</v>
+        <v>408</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>483</v>
+        <v>409</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>545</v>
+        <v>471</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>484</v>
+        <v>410</v>
       </c>
       <c r="F128" s="6"/>
       <c r="G128" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
-        <v>114</v>
+        <v>603</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
       <c r="E129" s="6"/>
       <c r="F129" s="6"/>
       <c r="G129" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
-        <v>112</v>
+        <v>604</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>472</v>
+        <v>398</v>
       </c>
       <c r="D130" s="6"/>
       <c r="E130" s="6"/>
       <c r="F130" s="6"/>
       <c r="G130" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>547</v>
+        <v>473</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>480</v>
+        <v>406</v>
       </c>
       <c r="D131" s="6"/>
       <c r="E131" s="6"/>
       <c r="F131" s="6"/>
       <c r="G131" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
       <c r="E132" s="6"/>
       <c r="F132" s="6"/>
       <c r="G132" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
       <c r="E133" s="6"/>
       <c r="F133" s="6"/>
       <c r="G133" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
-        <v>425</v>
+        <v>352</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>443</v>
+        <v>369</v>
       </c>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
       <c r="E134" s="6"/>
       <c r="F134" s="6"/>
       <c r="G134" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
       <c r="E135" s="6"/>
       <c r="F135" s="6"/>
       <c r="G135" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>462</v>
+        <v>388</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="D136" s="6"/>
       <c r="E136" s="6"/>
       <c r="F136" s="6"/>
       <c r="G136" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
-        <v>120</v>
+        <v>605</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>480</v>
+        <v>406</v>
       </c>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
       <c r="E137" s="6"/>
       <c r="F137" s="6"/>
       <c r="G137" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>485</v>
+        <v>411</v>
       </c>
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
       <c r="E138" s="6"/>
       <c r="F138" s="6"/>
       <c r="G138" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>452</v>
+        <v>378</v>
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
       <c r="E139" s="6"/>
       <c r="F139" s="6"/>
       <c r="G139" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>480</v>
+        <v>406</v>
       </c>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
       <c r="E140" s="6"/>
       <c r="F140" s="6"/>
       <c r="G140" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>547</v>
+        <v>473</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>480</v>
+        <v>406</v>
       </c>
       <c r="D141" s="6"/>
       <c r="E141" s="6"/>
       <c r="F141" s="6"/>
       <c r="G141" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
-        <v>594</v>
+        <v>520</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>451</v>
+        <v>377</v>
       </c>
       <c r="D142" s="6"/>
       <c r="E142" s="6"/>
       <c r="F142" s="6"/>
       <c r="G142" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
-        <v>593</v>
+        <v>519</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>399</v>
+        <v>330</v>
       </c>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
       <c r="E143" s="6"/>
       <c r="F143" s="6"/>
       <c r="G143" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
-        <v>220</v>
+        <v>657</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>601</v>
+        <v>527</v>
       </c>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
       <c r="E144" s="6"/>
       <c r="F144" s="6"/>
       <c r="G144" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
       <c r="E145" s="6"/>
       <c r="F145" s="6"/>
       <c r="G145" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
-        <v>595</v>
+        <v>521</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>546</v>
+        <v>472</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>478</v>
+        <v>404</v>
       </c>
       <c r="D146" s="6"/>
       <c r="E146" s="6"/>
       <c r="F146" s="6"/>
       <c r="G146" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
-        <v>127</v>
+        <v>606</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>449</v>
+        <v>375</v>
       </c>
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
       <c r="E147" s="6"/>
       <c r="F147" s="6"/>
       <c r="G147" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>443</v>
+        <v>369</v>
       </c>
       <c r="C148" s="6"/>
       <c r="D148" s="6"/>
       <c r="E148" s="6"/>
       <c r="F148" s="6"/>
       <c r="G148" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
-        <v>130</v>
+        <v>607</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>443</v>
+        <v>369</v>
       </c>
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
       <c r="E149" s="6"/>
       <c r="F149" s="6"/>
       <c r="G149" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
       <c r="E150" s="6"/>
       <c r="F150" s="6"/>
       <c r="G150" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>486</v>
+        <v>412</v>
       </c>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
       <c r="E151" s="6"/>
       <c r="F151" s="6"/>
       <c r="G151" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
       <c r="E152" s="6"/>
       <c r="F152" s="6"/>
       <c r="G152" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
-        <v>132</v>
+        <v>608</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>480</v>
+        <v>406</v>
       </c>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
       <c r="E153" s="6"/>
       <c r="F153" s="6"/>
       <c r="G153" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A154" s="6" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>550</v>
+        <v>476</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>487</v>
+        <v>413</v>
       </c>
       <c r="D154" s="6"/>
       <c r="E154" s="6"/>
       <c r="F154" s="6"/>
       <c r="G154" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A155" s="6" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>470</v>
+        <v>396</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>471</v>
+        <v>397</v>
       </c>
       <c r="D155" s="6"/>
       <c r="E155" s="6"/>
       <c r="F155" s="6"/>
       <c r="G155" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A156" s="6" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>470</v>
+        <v>396</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>471</v>
+        <v>397</v>
       </c>
       <c r="D156" s="6"/>
       <c r="E156" s="6"/>
       <c r="F156" s="6"/>
       <c r="G156" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A157" s="6" t="s">
-        <v>426</v>
+        <v>353</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>601</v>
+        <v>527</v>
       </c>
       <c r="C157" s="6"/>
       <c r="D157" s="6"/>
       <c r="E157" s="6"/>
       <c r="F157" s="6"/>
       <c r="G157" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A158" s="6" t="s">
-        <v>182</v>
+        <v>609</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>550</v>
+        <v>476</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>487</v>
+        <v>413</v>
       </c>
       <c r="D158" s="6"/>
       <c r="E158" s="6"/>
       <c r="F158" s="6"/>
       <c r="G158" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>465</v>
+        <v>391</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>466</v>
+        <v>392</v>
       </c>
       <c r="D159" s="6"/>
       <c r="E159" s="6"/>
       <c r="F159" s="6"/>
       <c r="G159" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="6" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>443</v>
+        <v>369</v>
       </c>
       <c r="C160" s="6"/>
       <c r="D160" s="6"/>
       <c r="E160" s="6"/>
       <c r="F160" s="6"/>
       <c r="G160" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A161" s="6" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>475</v>
+        <v>401</v>
       </c>
       <c r="C161" s="6"/>
       <c r="D161" s="6"/>
       <c r="E161" s="6"/>
       <c r="F161" s="6"/>
       <c r="G161" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="6" t="s">
-        <v>427</v>
+        <v>354</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>443</v>
+        <v>369</v>
       </c>
       <c r="C162" s="6"/>
       <c r="D162" s="6"/>
       <c r="E162" s="6"/>
       <c r="F162" s="6"/>
       <c r="G162" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A163" s="6" t="s">
-        <v>139</v>
+        <v>610</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C163" s="6"/>
       <c r="D163" s="6"/>
       <c r="E163" s="6"/>
       <c r="F163" s="6"/>
       <c r="G163" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="6" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>542</v>
+        <v>468</v>
       </c>
       <c r="D164" s="6"/>
       <c r="E164" s="6"/>
       <c r="F164" s="6"/>
       <c r="G164" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>551</v>
+        <v>477</v>
       </c>
       <c r="C165" s="6"/>
       <c r="D165" s="6"/>
       <c r="E165" s="6"/>
       <c r="F165" s="6"/>
       <c r="G165" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
-        <v>236</v>
+        <v>611</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>475</v>
+        <v>401</v>
       </c>
       <c r="C166" s="6"/>
       <c r="D166" s="6"/>
       <c r="E166" s="6"/>
       <c r="F166" s="6"/>
       <c r="G166" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>542</v>
+        <v>468</v>
       </c>
       <c r="D167" s="6"/>
       <c r="E167" s="6"/>
       <c r="F167" s="6"/>
       <c r="G167" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>552</v>
+        <v>478</v>
       </c>
       <c r="C168" s="6"/>
       <c r="D168" s="6"/>
       <c r="E168" s="6"/>
       <c r="F168" s="6"/>
       <c r="G168" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A169" s="6" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>475</v>
+        <v>401</v>
       </c>
       <c r="C169" s="6"/>
       <c r="D169" s="6"/>
       <c r="E169" s="6"/>
       <c r="F169" s="6"/>
       <c r="G169" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>553</v>
+        <v>479</v>
       </c>
       <c r="C170" s="6"/>
       <c r="D170" s="6"/>
       <c r="E170" s="6"/>
       <c r="F170" s="6"/>
       <c r="G170" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C171" s="6"/>
       <c r="D171" s="6"/>
       <c r="E171" s="6"/>
       <c r="F171" s="6"/>
       <c r="G171" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
-        <v>117</v>
+        <v>612</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>544</v>
+        <v>470</v>
       </c>
       <c r="C172" s="6"/>
       <c r="D172" s="6"/>
       <c r="E172" s="6"/>
       <c r="F172" s="6"/>
       <c r="G172" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>451</v>
+        <v>377</v>
       </c>
       <c r="D173" s="6"/>
       <c r="E173" s="6"/>
       <c r="F173" s="6"/>
       <c r="G173" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A174" s="6" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>465</v>
+        <v>391</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>466</v>
+        <v>392</v>
       </c>
       <c r="D174" s="6"/>
       <c r="E174" s="6"/>
       <c r="F174" s="6"/>
       <c r="G174" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
-        <v>153</v>
+        <v>658</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C175" s="6"/>
       <c r="D175" s="6"/>
       <c r="E175" s="6"/>
       <c r="F175" s="6"/>
       <c r="G175" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>443</v>
+        <v>369</v>
       </c>
       <c r="C176" s="6"/>
       <c r="D176" s="6"/>
       <c r="E176" s="6"/>
       <c r="F176" s="6"/>
       <c r="G176" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>554</v>
+        <v>480</v>
       </c>
       <c r="C177" s="6"/>
       <c r="D177" s="6"/>
       <c r="E177" s="6"/>
       <c r="F177" s="6"/>
       <c r="G177" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>443</v>
+        <v>369</v>
       </c>
       <c r="C178" s="6"/>
       <c r="D178" s="6"/>
       <c r="E178" s="6"/>
       <c r="F178" s="6"/>
       <c r="G178" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="6" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C179" s="6"/>
       <c r="D179" s="6"/>
       <c r="E179" s="6"/>
       <c r="F179" s="6"/>
       <c r="G179" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="6" t="s">
-        <v>158</v>
+        <v>613</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>472</v>
+        <v>398</v>
       </c>
       <c r="D180" s="6"/>
       <c r="E180" s="6"/>
       <c r="F180" s="6"/>
       <c r="G180" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C181" s="6"/>
       <c r="D181" s="6"/>
       <c r="E181" s="6"/>
       <c r="F181" s="6"/>
       <c r="G181" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>549</v>
+        <v>475</v>
       </c>
       <c r="C182" s="6"/>
       <c r="D182" s="6"/>
       <c r="E182" s="6"/>
       <c r="F182" s="6"/>
       <c r="G182" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>555</v>
+        <v>481</v>
       </c>
       <c r="C183" s="6"/>
       <c r="D183" s="6"/>
       <c r="E183" s="6"/>
       <c r="F183" s="6"/>
       <c r="G183" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>547</v>
+        <v>473</v>
       </c>
       <c r="C184" s="11" t="s">
-        <v>480</v>
+        <v>406</v>
       </c>
       <c r="D184" s="6"/>
       <c r="E184" s="6"/>
       <c r="F184" s="6"/>
       <c r="G184" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C185" s="6"/>
       <c r="D185" s="6"/>
       <c r="E185" s="6"/>
       <c r="F185" s="6"/>
       <c r="G185" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A186" s="6" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>556</v>
+        <v>482</v>
       </c>
       <c r="C186" s="6"/>
       <c r="D186" s="6"/>
       <c r="E186" s="6"/>
       <c r="F186" s="6"/>
       <c r="G186" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="6" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>488</v>
+        <v>414</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>489</v>
+        <v>415</v>
       </c>
       <c r="D187" s="6"/>
       <c r="E187" s="6"/>
       <c r="F187" s="6"/>
       <c r="G187" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A188" s="6" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>490</v>
+        <v>416</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>491</v>
+        <v>417</v>
       </c>
       <c r="D188" s="6"/>
       <c r="E188" s="6"/>
       <c r="F188" s="6"/>
       <c r="G188" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A189" s="6" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="B189" s="12" t="s">
-        <v>557</v>
+        <v>483</v>
       </c>
       <c r="C189" s="6"/>
       <c r="D189" s="6"/>
       <c r="E189" s="6"/>
       <c r="F189" s="6"/>
       <c r="G189" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="6" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C190" s="6"/>
       <c r="D190" s="6"/>
       <c r="E190" s="6"/>
       <c r="F190" s="6"/>
       <c r="G190" s="8" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A191" s="6" t="s">
-        <v>347</v>
+        <v>659</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>542</v>
+        <v>468</v>
       </c>
       <c r="D191" s="6"/>
       <c r="E191" s="6"/>
       <c r="F191" s="6"/>
       <c r="G191" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A192" s="6" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>477</v>
+        <v>403</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>478</v>
+        <v>404</v>
       </c>
       <c r="D192" s="6"/>
       <c r="E192" s="6"/>
       <c r="F192" s="6"/>
       <c r="G192" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A193" s="6" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>541</v>
+        <v>467</v>
       </c>
       <c r="C193" s="6"/>
       <c r="D193" s="6"/>
       <c r="E193" s="6"/>
       <c r="F193" s="6"/>
       <c r="G193" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A194" s="6" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>558</v>
+        <v>484</v>
       </c>
       <c r="C194" s="6"/>
       <c r="D194" s="6"/>
       <c r="E194" s="6"/>
       <c r="F194" s="6"/>
       <c r="G194" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="6" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>472</v>
+        <v>398</v>
       </c>
       <c r="D195" s="6"/>
       <c r="E195" s="6"/>
       <c r="F195" s="6"/>
       <c r="G195" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="6" t="s">
-        <v>344</v>
+        <v>286</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>443</v>
+        <v>369</v>
       </c>
       <c r="C196" s="6"/>
       <c r="D196" s="6"/>
       <c r="E196" s="6"/>
       <c r="F196" s="6"/>
       <c r="G196" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="6" t="s">
-        <v>302</v>
+        <v>614</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>549</v>
+        <v>475</v>
       </c>
       <c r="C197" s="6"/>
       <c r="D197" s="6"/>
       <c r="E197" s="6"/>
       <c r="F197" s="6"/>
       <c r="G197" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>476</v>
+        <v>402</v>
       </c>
       <c r="C198" s="6"/>
       <c r="D198" s="6"/>
       <c r="E198" s="6"/>
       <c r="F198" s="6"/>
       <c r="G198" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="6" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>447</v>
+        <v>373</v>
       </c>
       <c r="C199" s="6"/>
       <c r="D199" s="6"/>
       <c r="E199" s="6"/>
       <c r="F199" s="6"/>
       <c r="G199" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="6" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>485</v>
+        <v>411</v>
       </c>
       <c r="C200" s="6"/>
       <c r="D200" s="6"/>
       <c r="E200" s="6"/>
       <c r="F200" s="6"/>
       <c r="G200" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="6" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>492</v>
+        <v>418</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>448</v>
+        <v>374</v>
       </c>
       <c r="D201" s="6"/>
       <c r="E201" s="6"/>
       <c r="F201" s="6"/>
       <c r="G201" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="202" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>443</v>
+        <v>369</v>
       </c>
       <c r="C202" s="6"/>
       <c r="D202" s="6"/>
       <c r="E202" s="6"/>
       <c r="F202" s="6"/>
       <c r="G202" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
-        <v>226</v>
+        <v>615</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>482</v>
+        <v>408</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>483</v>
+        <v>409</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>545</v>
+        <v>471</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>484</v>
+        <v>410</v>
       </c>
       <c r="F203" s="9" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="G203" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>493</v>
+        <v>419</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>438</v>
+        <v>364</v>
       </c>
       <c r="E204" s="6"/>
       <c r="F204" s="6"/>
       <c r="G204" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>460</v>
+        <v>386</v>
       </c>
       <c r="C205" s="6"/>
       <c r="D205" s="6"/>
       <c r="E205" s="6"/>
       <c r="F205" s="6"/>
       <c r="G205" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>494</v>
+        <v>420</v>
       </c>
       <c r="C206" s="6"/>
       <c r="D206" s="6"/>
       <c r="E206" s="6"/>
       <c r="F206" s="6"/>
       <c r="G206" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="207" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
-        <v>197</v>
+        <v>616</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>559</v>
+        <v>485</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>495</v>
+        <v>421</v>
       </c>
       <c r="D207" s="6"/>
       <c r="E207" s="6"/>
       <c r="F207" s="6"/>
       <c r="G207" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="208" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
-        <v>291</v>
+        <v>617</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>496</v>
+        <v>422</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>474</v>
+        <v>400</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>461</v>
+        <v>387</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>473</v>
+        <v>399</v>
       </c>
       <c r="F208" s="6"/>
       <c r="G208" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
-        <v>290</v>
+        <v>618</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>473</v>
+        <v>399</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>474</v>
+        <v>400</v>
       </c>
       <c r="E209" s="6" t="s">
-        <v>461</v>
+        <v>387</v>
       </c>
       <c r="F209" s="6"/>
       <c r="G209" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="6" t="s">
-        <v>289</v>
+        <v>247</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>445</v>
+        <v>371</v>
       </c>
       <c r="D210" s="6"/>
       <c r="E210" s="6"/>
       <c r="F210" s="6"/>
       <c r="G210" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="6" t="s">
-        <v>288</v>
+        <v>246</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>479</v>
+        <v>405</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>495</v>
+        <v>421</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>497</v>
+        <v>423</v>
       </c>
       <c r="E211" s="6"/>
       <c r="F211" s="6"/>
       <c r="G211" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B212" s="6" t="s">
         <v>369</v>
-      </c>
-      <c r="B212" s="6" t="s">
-        <v>443</v>
       </c>
       <c r="C212" s="6"/>
       <c r="D212" s="6"/>
       <c r="E212" s="6"/>
       <c r="F212" s="6"/>
       <c r="G212" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A213" s="6" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>560</v>
+        <v>486</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>597</v>
+        <v>523</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>498</v>
+        <v>424</v>
       </c>
       <c r="E213" s="6"/>
       <c r="F213" s="6"/>
       <c r="G213" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="6" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>479</v>
+        <v>405</v>
       </c>
       <c r="D214" s="6"/>
       <c r="E214" s="6"/>
       <c r="F214" s="6"/>
       <c r="G214" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="6" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="C215" s="6"/>
       <c r="D215" s="6"/>
       <c r="E215" s="6"/>
       <c r="F215" s="6"/>
       <c r="G215" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
-        <v>428</v>
+        <v>355</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>484</v>
+        <v>410</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>483</v>
+        <v>409</v>
       </c>
       <c r="D216" s="6"/>
       <c r="E216" s="6"/>
       <c r="F216" s="6"/>
       <c r="G216" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="6" t="s">
-        <v>287</v>
+        <v>245</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>486</v>
+        <v>412</v>
       </c>
       <c r="C217" s="6"/>
       <c r="D217" s="6"/>
       <c r="E217" s="6"/>
       <c r="F217" s="6"/>
       <c r="G217" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="6" t="s">
-        <v>286</v>
+        <v>244</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>472</v>
+        <v>398</v>
       </c>
       <c r="D218" s="6"/>
       <c r="E218" s="6"/>
       <c r="F218" s="6"/>
       <c r="G218" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A219" s="6" t="s">
-        <v>285</v>
+        <v>243</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>601</v>
+        <v>527</v>
       </c>
       <c r="D219" s="6"/>
       <c r="E219" s="6"/>
       <c r="F219" s="6"/>
       <c r="G219" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="6" t="s">
-        <v>204</v>
+        <v>660</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>454</v>
+        <v>380</v>
       </c>
       <c r="C220" s="6"/>
       <c r="D220" s="6"/>
       <c r="E220" s="6"/>
       <c r="F220" s="6"/>
       <c r="G220" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="221" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A221" s="6" t="s">
-        <v>284</v>
+        <v>242</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>499</v>
+        <v>425</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>449</v>
+        <v>375</v>
       </c>
       <c r="D221" s="6"/>
       <c r="E221" s="6"/>
       <c r="F221" s="6"/>
       <c r="G221" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A222" s="6" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>461</v>
+        <v>387</v>
       </c>
       <c r="C222" s="6"/>
       <c r="D222" s="6"/>
       <c r="E222" s="6"/>
       <c r="F222" s="6"/>
       <c r="G222" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A223" s="6" t="s">
-        <v>370</v>
+        <v>619</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>449</v>
+        <v>375</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>500</v>
+        <v>426</v>
       </c>
       <c r="D223" s="6"/>
       <c r="E223" s="6"/>
       <c r="F223" s="6"/>
       <c r="G223" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A224" s="6" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>561</v>
+        <v>487</v>
       </c>
       <c r="C224" s="6"/>
       <c r="D224" s="6"/>
       <c r="E224" s="6"/>
       <c r="F224" s="6"/>
       <c r="G224" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A225" s="6" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>475</v>
+        <v>401</v>
       </c>
       <c r="C225" s="6"/>
       <c r="D225" s="6"/>
       <c r="E225" s="6"/>
       <c r="F225" s="6"/>
       <c r="G225" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="6" t="s">
-        <v>600</v>
+        <v>526</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>452</v>
+        <v>378</v>
       </c>
       <c r="C226" s="6"/>
       <c r="D226" s="6"/>
       <c r="E226" s="6"/>
       <c r="F226" s="6"/>
       <c r="G226" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="6" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>501</v>
+        <v>427</v>
       </c>
       <c r="C227" s="6"/>
       <c r="D227" s="6"/>
       <c r="E227" s="6"/>
       <c r="F227" s="6"/>
       <c r="G227" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>443</v>
+        <v>369</v>
       </c>
       <c r="C228" s="6"/>
       <c r="D228" s="6"/>
       <c r="E228" s="6"/>
       <c r="F228" s="6"/>
       <c r="G228" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A229" s="6" t="s">
-        <v>210</v>
+        <v>620</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>480</v>
+        <v>406</v>
       </c>
       <c r="C229" s="6"/>
       <c r="D229" s="6"/>
       <c r="E229" s="6"/>
       <c r="F229" s="6"/>
       <c r="G229" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="230" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A230" s="6" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>562</v>
+        <v>488</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>501</v>
+        <v>427</v>
       </c>
       <c r="D230" s="6"/>
       <c r="E230" s="6"/>
       <c r="F230" s="6"/>
       <c r="G230" s="8" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="6" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>502</v>
+        <v>428</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>501</v>
+        <v>427</v>
       </c>
       <c r="D231" s="6"/>
       <c r="E231" s="6"/>
       <c r="F231" s="6"/>
       <c r="G231" s="8" t="s">
-        <v>618</v>
+        <v>541</v>
       </c>
     </row>
     <row r="232" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A232" s="6" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>474</v>
+        <v>400</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>473</v>
+        <v>399</v>
       </c>
       <c r="E232" s="6" t="s">
-        <v>461</v>
+        <v>387</v>
       </c>
       <c r="F232" s="6"/>
       <c r="G232" s="8" t="s">
-        <v>619</v>
+        <v>542</v>
       </c>
     </row>
     <row r="233" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A233" s="6" t="s">
-        <v>282</v>
+        <v>240</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>475</v>
+        <v>401</v>
       </c>
       <c r="C233" s="6"/>
       <c r="D233" s="6"/>
       <c r="E233" s="6"/>
       <c r="F233" s="6"/>
       <c r="G233" s="8" t="s">
-        <v>620</v>
+        <v>543</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="6" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>499</v>
+        <v>425</v>
       </c>
       <c r="D234" s="6"/>
       <c r="E234" s="6"/>
       <c r="F234" s="6"/>
       <c r="G234" s="8" t="s">
-        <v>620</v>
+        <v>543</v>
       </c>
     </row>
     <row r="235" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A235" s="6" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>494</v>
+        <v>420</v>
       </c>
       <c r="C235" s="6"/>
       <c r="D235" s="6"/>
       <c r="E235" s="6"/>
       <c r="F235" s="6"/>
       <c r="G235" s="8" t="s">
-        <v>620</v>
+        <v>543</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="6" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>452</v>
+        <v>378</v>
       </c>
       <c r="C236" s="6"/>
       <c r="D236" s="6"/>
       <c r="E236" s="6"/>
       <c r="F236" s="6"/>
       <c r="G236" s="8" t="s">
-        <v>620</v>
+        <v>543</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="6" t="s">
-        <v>372</v>
+        <v>308</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>545</v>
+        <v>471</v>
       </c>
       <c r="C237" s="6"/>
       <c r="D237" s="6"/>
       <c r="E237" s="6"/>
       <c r="F237" s="6"/>
       <c r="G237" s="8" t="s">
-        <v>620</v>
+        <v>543</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="6" t="s">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>489</v>
+        <v>415</v>
       </c>
       <c r="C238" s="6"/>
       <c r="D238" s="6"/>
       <c r="E238" s="6"/>
       <c r="F238" s="6"/>
       <c r="G238" s="8" t="s">
-        <v>621</v>
+        <v>544</v>
       </c>
     </row>
     <row r="239" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A239" s="6" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>482</v>
+        <v>408</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>438</v>
+        <v>364</v>
       </c>
       <c r="D239" s="6"/>
       <c r="E239" s="6"/>
       <c r="F239" s="6"/>
       <c r="G239" s="8" t="s">
-        <v>621</v>
+        <v>544</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="6" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>488</v>
+        <v>414</v>
       </c>
       <c r="C240" s="6"/>
       <c r="D240" s="6"/>
       <c r="E240" s="6"/>
       <c r="F240" s="6"/>
       <c r="G240" s="8" t="s">
-        <v>621</v>
+        <v>544</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="6" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>460</v>
+        <v>386</v>
       </c>
       <c r="C241" s="6"/>
       <c r="D241" s="6"/>
       <c r="E241" s="6"/>
       <c r="F241" s="6"/>
       <c r="G241" s="8" t="s">
-        <v>622</v>
+        <v>545</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="6" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>460</v>
+        <v>386</v>
       </c>
       <c r="C242" s="6"/>
       <c r="D242" s="6"/>
       <c r="E242" s="6"/>
       <c r="F242" s="6"/>
       <c r="G242" s="8" t="s">
-        <v>622</v>
+        <v>545</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="6" t="s">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>503</v>
+        <v>429</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>460</v>
+        <v>386</v>
       </c>
       <c r="D243" s="6"/>
       <c r="E243" s="6"/>
       <c r="F243" s="6"/>
       <c r="G243" s="8" t="s">
-        <v>622</v>
+        <v>545</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="6" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>537</v>
+        <v>463</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>438</v>
+        <v>364</v>
       </c>
       <c r="D244" s="6"/>
       <c r="E244" s="6"/>
       <c r="F244" s="6"/>
       <c r="G244" s="8" t="s">
-        <v>622</v>
+        <v>545</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="6" t="s">
-        <v>248</v>
+        <v>661</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>460</v>
+        <v>386</v>
       </c>
       <c r="C245" s="6"/>
       <c r="D245" s="6"/>
       <c r="E245" s="6"/>
       <c r="F245" s="6"/>
       <c r="G245" s="8" t="s">
-        <v>623</v>
+        <v>546</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="6" t="s">
-        <v>429</v>
+        <v>356</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>484</v>
+        <v>410</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>504</v>
+        <v>430</v>
       </c>
       <c r="D246" s="6"/>
       <c r="E246" s="6"/>
       <c r="F246" s="6"/>
       <c r="G246" s="8" t="s">
-        <v>624</v>
+        <v>547</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="10" t="s">
-        <v>246</v>
+        <v>210</v>
       </c>
       <c r="B247" s="10" t="s">
-        <v>488</v>
+        <v>414</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>489</v>
+        <v>415</v>
       </c>
       <c r="D247" s="6"/>
       <c r="E247" s="6"/>
       <c r="F247" s="6"/>
       <c r="G247" s="8" t="s">
-        <v>624</v>
+        <v>547</v>
       </c>
     </row>
     <row r="248" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A248" s="6" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>482</v>
+        <v>408</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>483</v>
+        <v>409</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>545</v>
+        <v>471</v>
       </c>
       <c r="E248" s="6" t="s">
-        <v>492</v>
+        <v>418</v>
       </c>
       <c r="F248" s="6"/>
       <c r="G248" s="8" t="s">
-        <v>624</v>
+        <v>547</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A249" s="6" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>492</v>
+        <v>418</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>493</v>
+        <v>419</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>475</v>
+        <v>401</v>
       </c>
       <c r="E249" s="6"/>
       <c r="F249" s="6"/>
       <c r="G249" s="8" t="s">
-        <v>624</v>
+        <v>547</v>
       </c>
     </row>
     <row r="250" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A250" s="6" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>563</v>
+        <v>489</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>505</v>
+        <v>431</v>
       </c>
       <c r="D250" s="6"/>
       <c r="E250" s="6"/>
       <c r="F250" s="6"/>
       <c r="G250" s="8" t="s">
-        <v>624</v>
+        <v>547</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="6" t="s">
-        <v>343</v>
+        <v>285</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="C251" s="6"/>
       <c r="D251" s="6"/>
       <c r="E251" s="6"/>
       <c r="F251" s="6"/>
       <c r="G251" s="8" t="s">
-        <v>624</v>
+        <v>547</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="6" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>506</v>
+        <v>432</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>507</v>
+        <v>433</v>
       </c>
       <c r="D252" s="6"/>
       <c r="E252" s="6"/>
       <c r="F252" s="6"/>
       <c r="G252" s="8" t="s">
-        <v>624</v>
+        <v>547</v>
       </c>
     </row>
     <row r="253" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A253" s="6" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>461</v>
+        <v>387</v>
       </c>
       <c r="C253" s="6"/>
       <c r="D253" s="6"/>
       <c r="E253" s="6"/>
       <c r="F253" s="6"/>
       <c r="G253" s="8" t="s">
-        <v>624</v>
+        <v>547</v>
       </c>
     </row>
     <row r="254" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A254" s="6" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>601</v>
+        <v>527</v>
       </c>
       <c r="C254" s="6"/>
       <c r="D254" s="6"/>
       <c r="E254" s="6"/>
       <c r="F254" s="6"/>
       <c r="G254" s="8" t="s">
-        <v>625</v>
+        <v>548</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="6" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>492</v>
+        <v>418</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>448</v>
+        <v>374</v>
       </c>
       <c r="D255" s="6"/>
       <c r="E255" s="6"/>
       <c r="F255" s="6"/>
       <c r="G255" s="8" t="s">
-        <v>625</v>
+        <v>548</v>
       </c>
       <c r="H255" s="1"/>
     </row>
     <row r="256" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A256" s="6" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>564</v>
+        <v>490</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>466</v>
+        <v>392</v>
       </c>
       <c r="D256" s="6"/>
       <c r="E256" s="6"/>
       <c r="F256" s="6"/>
       <c r="G256" s="8" t="s">
-        <v>625</v>
+        <v>548</v>
       </c>
     </row>
     <row r="257" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A257" s="6" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>565</v>
+        <v>491</v>
       </c>
       <c r="C257" s="6"/>
       <c r="D257" s="6"/>
       <c r="E257" s="6"/>
       <c r="F257" s="6"/>
       <c r="G257" s="8" t="s">
-        <v>625</v>
+        <v>548</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="6" t="s">
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>508</v>
+        <v>434</v>
       </c>
       <c r="C258" s="6"/>
       <c r="D258" s="6"/>
       <c r="E258" s="6"/>
       <c r="F258" s="6"/>
       <c r="G258" s="8" t="s">
-        <v>625</v>
+        <v>548</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="6" t="s">
-        <v>253</v>
+        <v>621</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>509</v>
+        <v>435</v>
       </c>
       <c r="D259" s="6"/>
       <c r="E259" s="6"/>
       <c r="F259" s="6"/>
       <c r="G259" s="8" t="s">
-        <v>625</v>
+        <v>548</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="6" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>496</v>
+        <v>422</v>
       </c>
       <c r="D260" s="6" t="s">
-        <v>510</v>
+        <v>436</v>
       </c>
       <c r="E260" s="6"/>
       <c r="F260" s="6"/>
       <c r="G260" s="8" t="s">
-        <v>625</v>
+        <v>548</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" s="6" t="s">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>454</v>
+        <v>380</v>
       </c>
       <c r="C261" s="6"/>
       <c r="D261" s="6"/>
       <c r="E261" s="6"/>
       <c r="F261" s="6"/>
       <c r="G261" s="8" t="s">
-        <v>625</v>
+        <v>548</v>
       </c>
     </row>
     <row r="262" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A262" s="6" t="s">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>454</v>
+        <v>380</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>444</v>
+        <v>370</v>
       </c>
       <c r="D262" s="6" t="s">
-        <v>488</v>
+        <v>414</v>
       </c>
       <c r="E262" s="6"/>
       <c r="F262" s="6"/>
       <c r="G262" s="8" t="s">
-        <v>625</v>
+        <v>548</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="6" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C263" s="6"/>
       <c r="D263" s="6"/>
       <c r="E263" s="6"/>
       <c r="F263" s="6"/>
       <c r="G263" s="8" t="s">
-        <v>625</v>
+        <v>548</v>
       </c>
     </row>
     <row r="264" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A264" s="6" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>484</v>
+        <v>410</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>566</v>
+        <v>492</v>
       </c>
       <c r="D264" s="6" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="E264" s="6"/>
       <c r="F264" s="6"/>
       <c r="G264" s="8" t="s">
-        <v>626</v>
+        <v>549</v>
       </c>
     </row>
     <row r="265" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A265" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>550</v>
+        <v>476</v>
       </c>
       <c r="C265" s="11" t="s">
-        <v>487</v>
+        <v>413</v>
       </c>
       <c r="D265" s="6"/>
       <c r="E265" s="6"/>
       <c r="F265" s="6"/>
       <c r="G265" s="8" t="s">
-        <v>625</v>
+        <v>548</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>451</v>
+        <v>377</v>
       </c>
       <c r="D266" s="6"/>
       <c r="E266" s="6"/>
       <c r="F266" s="6"/>
       <c r="G266" s="8" t="s">
-        <v>625</v>
+        <v>548</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="6" t="s">
-        <v>375</v>
+        <v>311</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>447</v>
+        <v>373</v>
       </c>
       <c r="D267" s="6" t="s">
-        <v>526</v>
+        <v>452</v>
       </c>
       <c r="E267" s="6" t="s">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="F267" s="6"/>
       <c r="G267" s="8" t="s">
-        <v>625</v>
+        <v>548</v>
       </c>
     </row>
     <row r="268" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A268" s="6" t="s">
-        <v>430</v>
+        <v>622</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>464</v>
+        <v>390</v>
       </c>
       <c r="D268" s="6" t="s">
-        <v>500</v>
+        <v>426</v>
       </c>
       <c r="E268" s="6"/>
       <c r="F268" s="6"/>
       <c r="G268" s="8" t="s">
-        <v>627</v>
+        <v>550</v>
       </c>
     </row>
     <row r="269" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A269" s="6" t="s">
-        <v>276</v>
+        <v>234</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>470</v>
+        <v>396</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>471</v>
+        <v>397</v>
       </c>
       <c r="D269" s="6"/>
       <c r="E269" s="6"/>
       <c r="F269" s="6"/>
       <c r="G269" s="8" t="s">
-        <v>627</v>
+        <v>550</v>
       </c>
     </row>
     <row r="270" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A270" s="6" t="s">
-        <v>431</v>
+        <v>357</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>511</v>
+        <v>437</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>597</v>
+        <v>523</v>
       </c>
       <c r="D270" s="6" t="s">
-        <v>592</v>
+        <v>518</v>
       </c>
       <c r="E270" s="6"/>
       <c r="F270" s="6"/>
       <c r="G270" s="8" t="s">
-        <v>628</v>
+        <v>551</v>
       </c>
     </row>
     <row r="271" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A271" s="6" t="s">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>511</v>
+        <v>437</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>597</v>
+        <v>523</v>
       </c>
       <c r="D271" s="6" t="s">
-        <v>498</v>
+        <v>424</v>
       </c>
       <c r="E271" s="6" t="s">
-        <v>592</v>
+        <v>518</v>
       </c>
       <c r="F271" s="6"/>
       <c r="G271" s="8" t="s">
-        <v>627</v>
+        <v>550</v>
       </c>
     </row>
     <row r="272" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A272" s="6" t="s">
-        <v>274</v>
+        <v>232</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>550</v>
+        <v>476</v>
       </c>
       <c r="C272" s="11" t="s">
-        <v>487</v>
+        <v>413</v>
       </c>
       <c r="D272" s="6"/>
       <c r="E272" s="6"/>
       <c r="F272" s="6"/>
       <c r="G272" s="8" t="s">
-        <v>627</v>
+        <v>550</v>
       </c>
     </row>
     <row r="273" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A273" s="6" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>482</v>
+        <v>408</v>
       </c>
       <c r="C273" s="6"/>
       <c r="D273" s="6"/>
       <c r="E273" s="6"/>
       <c r="F273" s="6"/>
       <c r="G273" s="8" t="s">
-        <v>627</v>
+        <v>550</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="6" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="B274" s="6" t="s">
         <v>0</v>
@@ -7619,1588 +7636,1588 @@
       <c r="E274" s="6"/>
       <c r="F274" s="6"/>
       <c r="G274" s="8" t="s">
-        <v>627</v>
+        <v>550</v>
       </c>
     </row>
     <row r="275" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A275" s="6" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>601</v>
+        <v>527</v>
       </c>
       <c r="C275" s="6"/>
       <c r="D275" s="6"/>
       <c r="E275" s="6"/>
       <c r="F275" s="6"/>
       <c r="G275" s="8" t="s">
-        <v>629</v>
+        <v>552</v>
       </c>
     </row>
     <row r="276" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A276" s="6" t="s">
-        <v>312</v>
+        <v>262</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>464</v>
+        <v>390</v>
       </c>
       <c r="C276" s="6" t="s">
-        <v>512</v>
+        <v>438</v>
       </c>
       <c r="D276" s="6"/>
       <c r="E276" s="6"/>
       <c r="F276" s="6"/>
       <c r="G276" s="8" t="s">
-        <v>629</v>
+        <v>552</v>
       </c>
     </row>
     <row r="277" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A277" s="6" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>490</v>
+        <v>416</v>
       </c>
       <c r="C277" s="6"/>
       <c r="D277" s="6"/>
       <c r="E277" s="6"/>
       <c r="F277" s="6"/>
       <c r="G277" s="8" t="s">
-        <v>629</v>
+        <v>552</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="6" t="s">
-        <v>273</v>
+        <v>623</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="C278" s="6" t="s">
-        <v>499</v>
+        <v>425</v>
       </c>
       <c r="D278" s="6"/>
       <c r="E278" s="6"/>
       <c r="F278" s="6"/>
       <c r="G278" s="8" t="s">
-        <v>629</v>
+        <v>552</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="6" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>513</v>
+        <v>439</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>484</v>
+        <v>410</v>
       </c>
       <c r="D279" s="6"/>
       <c r="E279" s="6"/>
       <c r="F279" s="6"/>
       <c r="G279" s="8" t="s">
-        <v>629</v>
+        <v>552</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="6" t="s">
-        <v>432</v>
+        <v>358</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>590</v>
+        <v>516</v>
       </c>
       <c r="C280" s="6"/>
       <c r="D280" s="6"/>
       <c r="E280" s="6"/>
       <c r="F280" s="6"/>
       <c r="G280" s="8" t="s">
-        <v>629</v>
+        <v>552</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="6" t="s">
-        <v>270</v>
+        <v>624</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>504</v>
+        <v>430</v>
       </c>
       <c r="C281" s="6" t="s">
-        <v>484</v>
+        <v>410</v>
       </c>
       <c r="D281" s="6"/>
       <c r="E281" s="6"/>
       <c r="F281" s="6"/>
       <c r="G281" s="8" t="s">
-        <v>630</v>
+        <v>553</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="6" t="s">
-        <v>271</v>
+        <v>625</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>484</v>
+        <v>410</v>
       </c>
       <c r="C282" s="6"/>
       <c r="D282" s="6"/>
       <c r="E282" s="6"/>
       <c r="F282" s="6"/>
       <c r="G282" s="8" t="s">
-        <v>630</v>
+        <v>553</v>
       </c>
     </row>
     <row r="283" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A283" s="6" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="C283" s="6" t="s">
-        <v>464</v>
+        <v>390</v>
       </c>
       <c r="D283" s="6"/>
       <c r="E283" s="6"/>
       <c r="F283" s="6"/>
       <c r="G283" s="8" t="s">
-        <v>630</v>
+        <v>553</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" s="6" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>443</v>
+        <v>369</v>
       </c>
       <c r="C284" s="6"/>
       <c r="D284" s="6"/>
       <c r="E284" s="6"/>
       <c r="F284" s="6"/>
       <c r="G284" s="8" t="s">
-        <v>630</v>
+        <v>553</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" s="6" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>452</v>
+        <v>378</v>
       </c>
       <c r="C285" s="6"/>
       <c r="D285" s="6"/>
       <c r="E285" s="6"/>
       <c r="F285" s="6"/>
       <c r="G285" s="8" t="s">
-        <v>630</v>
+        <v>553</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" s="6" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="C286" s="6"/>
       <c r="D286" s="6"/>
       <c r="E286" s="6"/>
       <c r="F286" s="6"/>
       <c r="G286" s="8" t="s">
-        <v>631</v>
+        <v>554</v>
       </c>
     </row>
     <row r="287" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A287" s="6" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>482</v>
+        <v>408</v>
       </c>
       <c r="C287" s="6" t="s">
-        <v>483</v>
+        <v>409</v>
       </c>
       <c r="D287" s="6" t="s">
-        <v>484</v>
+        <v>410</v>
       </c>
       <c r="E287" s="6"/>
       <c r="F287" s="6"/>
       <c r="G287" s="8" t="s">
-        <v>631</v>
+        <v>554</v>
       </c>
     </row>
     <row r="288" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A288" s="6" t="s">
-        <v>304</v>
+        <v>626</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>514</v>
+        <v>440</v>
       </c>
       <c r="C288" s="6"/>
       <c r="D288" s="6"/>
       <c r="E288" s="6"/>
       <c r="F288" s="6"/>
       <c r="G288" s="8" t="s">
-        <v>631</v>
+        <v>554</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" s="6" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>483</v>
+        <v>409</v>
       </c>
       <c r="C289" s="6"/>
       <c r="D289" s="6"/>
       <c r="E289" s="6"/>
       <c r="F289" s="6"/>
       <c r="G289" s="8" t="s">
-        <v>631</v>
+        <v>554</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>570</v>
+        <v>496</v>
       </c>
       <c r="C290" s="6" t="s">
-        <v>515</v>
+        <v>441</v>
       </c>
       <c r="D290" s="6"/>
       <c r="E290" s="6"/>
       <c r="F290" s="6"/>
       <c r="G290" s="8" t="s">
-        <v>632</v>
+        <v>555</v>
       </c>
     </row>
     <row r="291" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A291" s="6" t="s">
-        <v>225</v>
+        <v>627</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>570</v>
+        <v>496</v>
       </c>
       <c r="C291" s="6" t="s">
-        <v>515</v>
+        <v>441</v>
       </c>
       <c r="D291" s="6"/>
       <c r="E291" s="6"/>
       <c r="F291" s="6"/>
       <c r="G291" s="8" t="s">
-        <v>632</v>
+        <v>555</v>
       </c>
     </row>
     <row r="292" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A292" s="6" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>516</v>
+        <v>442</v>
       </c>
       <c r="C292" s="6"/>
       <c r="D292" s="6"/>
       <c r="E292" s="6"/>
       <c r="F292" s="6"/>
       <c r="G292" s="8" t="s">
-        <v>632</v>
+        <v>555</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" s="6" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>568</v>
+        <v>494</v>
       </c>
       <c r="C293" s="6" t="s">
-        <v>517</v>
+        <v>443</v>
       </c>
       <c r="D293" s="6"/>
       <c r="E293" s="6"/>
       <c r="F293" s="6"/>
       <c r="G293" s="8" t="s">
-        <v>632</v>
+        <v>555</v>
       </c>
     </row>
     <row r="294" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A294" s="6" t="s">
-        <v>142</v>
+        <v>628</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>568</v>
+        <v>494</v>
       </c>
       <c r="C294" s="6" t="s">
-        <v>517</v>
+        <v>443</v>
       </c>
       <c r="D294" s="6"/>
       <c r="E294" s="6"/>
       <c r="F294" s="6"/>
       <c r="G294" s="8" t="s">
-        <v>632</v>
+        <v>555</v>
       </c>
     </row>
     <row r="295" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A295" s="6" t="s">
-        <v>166</v>
+        <v>629</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>568</v>
+        <v>494</v>
       </c>
       <c r="C295" s="6" t="s">
-        <v>517</v>
+        <v>443</v>
       </c>
       <c r="D295" s="6"/>
       <c r="E295" s="6"/>
       <c r="F295" s="6"/>
       <c r="G295" s="8" t="s">
-        <v>632</v>
+        <v>555</v>
       </c>
     </row>
     <row r="296" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A296" s="6" t="s">
-        <v>323</v>
+        <v>630</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>569</v>
+        <v>495</v>
       </c>
       <c r="C296" s="6" t="s">
-        <v>473</v>
+        <v>399</v>
       </c>
       <c r="D296" s="6" t="s">
-        <v>518</v>
+        <v>444</v>
       </c>
       <c r="E296" s="6"/>
       <c r="F296" s="6"/>
       <c r="G296" s="8" t="s">
-        <v>632</v>
+        <v>555</v>
       </c>
     </row>
     <row r="297" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A297" s="6" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>519</v>
+        <v>445</v>
       </c>
       <c r="C297" s="6" t="s">
-        <v>494</v>
+        <v>420</v>
       </c>
       <c r="D297" s="6"/>
       <c r="E297" s="6"/>
       <c r="F297" s="6"/>
       <c r="G297" s="8" t="s">
-        <v>632</v>
+        <v>555</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" s="6" t="s">
-        <v>340</v>
+        <v>631</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>452</v>
+        <v>378</v>
       </c>
       <c r="C298" s="6" t="s">
-        <v>473</v>
+        <v>399</v>
       </c>
       <c r="D298" s="6" t="s">
-        <v>569</v>
+        <v>495</v>
       </c>
       <c r="E298" s="6" t="s">
-        <v>518</v>
+        <v>444</v>
       </c>
       <c r="F298" s="6"/>
       <c r="G298" s="8" t="s">
-        <v>632</v>
+        <v>555</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" s="6" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>570</v>
+        <v>496</v>
       </c>
       <c r="C299" s="6" t="s">
-        <v>459</v>
+        <v>385</v>
       </c>
       <c r="D299" s="6" t="s">
-        <v>515</v>
+        <v>441</v>
       </c>
       <c r="E299" s="6"/>
       <c r="F299" s="6"/>
       <c r="G299" s="8" t="s">
-        <v>632</v>
+        <v>555</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" s="6" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C300" s="6" t="s">
-        <v>451</v>
+        <v>377</v>
       </c>
       <c r="D300" s="6"/>
       <c r="E300" s="6"/>
       <c r="F300" s="6"/>
       <c r="G300" s="8" t="s">
-        <v>632</v>
+        <v>555</v>
       </c>
     </row>
     <row r="301" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A301" s="6" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C301" s="6" t="s">
-        <v>597</v>
+        <v>523</v>
       </c>
       <c r="D301" s="6"/>
       <c r="E301" s="6"/>
       <c r="F301" s="6"/>
       <c r="G301" s="8" t="s">
-        <v>632</v>
+        <v>555</v>
       </c>
     </row>
     <row r="302" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A302" s="6" t="s">
-        <v>292</v>
+        <v>632</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>557</v>
+        <v>483</v>
       </c>
       <c r="C302" s="6"/>
       <c r="D302" s="6"/>
       <c r="E302" s="6"/>
       <c r="F302" s="6"/>
       <c r="G302" s="8" t="s">
-        <v>632</v>
+        <v>555</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" s="10" t="s">
-        <v>293</v>
+        <v>248</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C303" s="6" t="s">
-        <v>445</v>
+        <v>371</v>
       </c>
       <c r="D303" s="6"/>
       <c r="E303" s="6"/>
       <c r="F303" s="6"/>
       <c r="G303" s="8" t="s">
-        <v>632</v>
+        <v>555</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" s="6" t="s">
-        <v>294</v>
+        <v>249</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>484</v>
+        <v>410</v>
       </c>
       <c r="C304" s="6" t="s">
-        <v>483</v>
+        <v>409</v>
       </c>
       <c r="D304" s="6"/>
       <c r="E304" s="6"/>
       <c r="F304" s="6"/>
       <c r="G304" s="8" t="s">
-        <v>632</v>
+        <v>555</v>
       </c>
     </row>
     <row r="305" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A305" s="6" t="s">
-        <v>295</v>
+        <v>250</v>
       </c>
       <c r="B305" s="11" t="s">
-        <v>547</v>
+        <v>473</v>
       </c>
       <c r="C305" s="11" t="s">
-        <v>480</v>
+        <v>406</v>
       </c>
       <c r="D305" s="6"/>
       <c r="E305" s="6"/>
       <c r="F305" s="6"/>
       <c r="G305" s="8" t="s">
-        <v>632</v>
+        <v>555</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" s="13" t="s">
-        <v>296</v>
+        <v>251</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>458</v>
+        <v>384</v>
       </c>
       <c r="C306" s="6"/>
       <c r="D306" s="6"/>
       <c r="E306" s="6"/>
       <c r="F306" s="6"/>
       <c r="G306" s="8" t="s">
-        <v>632</v>
+        <v>555</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" s="10" t="s">
-        <v>297</v>
+        <v>252</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>481</v>
+        <v>407</v>
       </c>
       <c r="C307" s="6"/>
       <c r="D307" s="6"/>
       <c r="E307" s="6"/>
       <c r="F307" s="6"/>
       <c r="G307" s="8" t="s">
-        <v>632</v>
+        <v>555</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" s="10" t="s">
-        <v>298</v>
+        <v>253</v>
       </c>
       <c r="B308" s="10" t="s">
-        <v>571</v>
+        <v>497</v>
       </c>
       <c r="C308" s="10" t="s">
-        <v>510</v>
+        <v>436</v>
       </c>
       <c r="D308" s="10"/>
       <c r="E308" s="6"/>
       <c r="F308" s="6"/>
       <c r="G308" s="8" t="s">
-        <v>632</v>
+        <v>555</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" s="6" t="s">
-        <v>299</v>
+        <v>254</v>
       </c>
       <c r="B309" s="10" t="s">
-        <v>510</v>
+        <v>436</v>
       </c>
       <c r="C309" s="10"/>
       <c r="D309" s="6"/>
       <c r="E309" s="6"/>
       <c r="F309" s="6"/>
       <c r="G309" s="8" t="s">
-        <v>632</v>
+        <v>555</v>
       </c>
     </row>
     <row r="310" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A310" s="10" t="s">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>556</v>
+        <v>482</v>
       </c>
       <c r="C310" s="6"/>
       <c r="D310" s="6"/>
       <c r="E310" s="6"/>
       <c r="F310" s="6"/>
       <c r="G310" s="8" t="s">
-        <v>632</v>
+        <v>555</v>
       </c>
     </row>
     <row r="311" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A311" s="6" t="s">
-        <v>301</v>
+        <v>256</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>540</v>
+        <v>466</v>
       </c>
       <c r="C311" s="6" t="s">
-        <v>520</v>
+        <v>446</v>
       </c>
       <c r="D311" s="6"/>
       <c r="E311" s="6"/>
       <c r="F311" s="6"/>
       <c r="G311" s="8" t="s">
-        <v>632</v>
+        <v>555</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" s="6" t="s">
-        <v>303</v>
+        <v>633</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>521</v>
+        <v>447</v>
       </c>
       <c r="C312" s="6"/>
       <c r="D312" s="6"/>
       <c r="E312" s="6"/>
       <c r="F312" s="6"/>
       <c r="G312" s="8" t="s">
-        <v>632</v>
+        <v>555</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" s="6" t="s">
-        <v>305</v>
+        <v>257</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>522</v>
+        <v>448</v>
       </c>
       <c r="C313" s="6"/>
       <c r="D313" s="6"/>
       <c r="E313" s="6"/>
       <c r="F313" s="6"/>
       <c r="G313" s="8" t="s">
-        <v>632</v>
+        <v>555</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" s="6" t="s">
-        <v>306</v>
+        <v>634</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>523</v>
+        <v>449</v>
       </c>
       <c r="C314" s="6"/>
       <c r="D314" s="6"/>
       <c r="E314" s="6"/>
       <c r="F314" s="6"/>
       <c r="G314" s="8" t="s">
-        <v>632</v>
+        <v>555</v>
       </c>
     </row>
     <row r="315" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A315" s="6" t="s">
-        <v>307</v>
+        <v>635</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>524</v>
+        <v>450</v>
       </c>
       <c r="C315" s="6"/>
       <c r="D315" s="6"/>
       <c r="E315" s="6"/>
       <c r="F315" s="6"/>
       <c r="G315" s="8" t="s">
-        <v>632</v>
+        <v>555</v>
       </c>
     </row>
     <row r="316" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A316" s="6" t="s">
-        <v>311</v>
+        <v>261</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>313</v>
+        <v>263</v>
       </c>
       <c r="C316" s="6" t="s">
-        <v>475</v>
+        <v>401</v>
       </c>
       <c r="D316" s="6"/>
       <c r="E316" s="6"/>
       <c r="F316" s="6"/>
       <c r="G316" s="8" t="s">
-        <v>633</v>
+        <v>556</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" s="6" t="s">
-        <v>339</v>
+        <v>282</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>542</v>
+        <v>468</v>
       </c>
       <c r="C317" s="6" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="D317" s="6"/>
       <c r="E317" s="6"/>
       <c r="F317" s="6"/>
       <c r="G317" s="8" t="s">
-        <v>634</v>
+        <v>557</v>
       </c>
     </row>
     <row r="318" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A318" s="6" t="s">
-        <v>359</v>
+        <v>636</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>549</v>
+        <v>475</v>
       </c>
       <c r="C318" s="6"/>
       <c r="D318" s="6"/>
       <c r="E318" s="6"/>
       <c r="F318" s="6"/>
       <c r="G318" s="8" t="s">
-        <v>634</v>
+        <v>557</v>
       </c>
     </row>
     <row r="319" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A319" s="6" t="s">
-        <v>314</v>
+        <v>264</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>550</v>
+        <v>476</v>
       </c>
       <c r="C319" s="11" t="s">
-        <v>487</v>
+        <v>413</v>
       </c>
       <c r="D319" s="6"/>
       <c r="E319" s="6"/>
       <c r="F319" s="6"/>
       <c r="G319" s="8" t="s">
-        <v>634</v>
+        <v>557</v>
       </c>
     </row>
     <row r="320" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A320" s="6" t="s">
-        <v>315</v>
+        <v>265</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C320" s="6"/>
       <c r="D320" s="6"/>
       <c r="E320" s="6"/>
       <c r="F320" s="6"/>
       <c r="G320" s="8" t="s">
-        <v>634</v>
+        <v>557</v>
       </c>
     </row>
     <row r="321" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A321" s="6" t="s">
-        <v>316</v>
+        <v>266</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>484</v>
+        <v>410</v>
       </c>
       <c r="C321" s="6" t="s">
-        <v>566</v>
+        <v>492</v>
       </c>
       <c r="D321" s="6" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="E321" s="6"/>
       <c r="F321" s="6"/>
       <c r="G321" s="8" t="s">
-        <v>626</v>
+        <v>549</v>
       </c>
     </row>
     <row r="322" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A322" s="6" t="s">
-        <v>433</v>
+        <v>359</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>475</v>
+        <v>401</v>
       </c>
       <c r="C322" s="6"/>
       <c r="D322" s="6"/>
       <c r="E322" s="6"/>
       <c r="F322" s="6"/>
       <c r="G322" s="8" t="s">
-        <v>635</v>
+        <v>558</v>
       </c>
     </row>
     <row r="323" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A323" s="6" t="s">
-        <v>317</v>
+        <v>267</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="C323" s="6" t="s">
-        <v>493</v>
+        <v>419</v>
       </c>
       <c r="D323" s="6" t="s">
-        <v>438</v>
+        <v>364</v>
       </c>
       <c r="E323" s="6"/>
       <c r="F323" s="6"/>
       <c r="G323" s="8" t="s">
-        <v>636</v>
+        <v>559</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324" s="6" t="s">
-        <v>318</v>
+        <v>268</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>452</v>
+        <v>378</v>
       </c>
       <c r="C324" s="6"/>
       <c r="D324" s="6"/>
       <c r="E324" s="6"/>
       <c r="F324" s="6"/>
       <c r="G324" s="8" t="s">
-        <v>636</v>
+        <v>559</v>
       </c>
     </row>
     <row r="325" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A325" s="6" t="s">
-        <v>319</v>
+        <v>269</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>572</v>
+        <v>498</v>
       </c>
       <c r="C325" s="6"/>
       <c r="D325" s="6"/>
       <c r="E325" s="6"/>
       <c r="F325" s="6"/>
       <c r="G325" s="8" t="s">
-        <v>636</v>
+        <v>559</v>
       </c>
     </row>
     <row r="326" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A326" s="6" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>598</v>
+        <v>524</v>
       </c>
       <c r="C326" s="6"/>
       <c r="D326" s="6"/>
       <c r="E326" s="6"/>
       <c r="F326" s="6"/>
       <c r="G326" s="8" t="s">
-        <v>636</v>
+        <v>559</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" s="6" t="s">
-        <v>321</v>
+        <v>637</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>542</v>
+        <v>468</v>
       </c>
       <c r="C327" s="6" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="D327" s="6"/>
       <c r="E327" s="6"/>
       <c r="F327" s="6"/>
       <c r="G327" s="8" t="s">
-        <v>636</v>
+        <v>559</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" s="6" t="s">
-        <v>322</v>
+        <v>271</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>592</v>
+        <v>518</v>
       </c>
       <c r="C328" s="6" t="s">
-        <v>498</v>
+        <v>424</v>
       </c>
       <c r="D328" s="6"/>
       <c r="E328" s="6"/>
       <c r="F328" s="6"/>
       <c r="G328" s="8" t="s">
-        <v>636</v>
+        <v>559</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329" s="6" t="s">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>460</v>
+        <v>386</v>
       </c>
       <c r="C329" s="6"/>
       <c r="D329" s="6"/>
       <c r="E329" s="6"/>
       <c r="F329" s="6"/>
       <c r="G329" s="8" t="s">
-        <v>637</v>
+        <v>560</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330" s="6" t="s">
-        <v>325</v>
+        <v>638</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>443</v>
+        <v>369</v>
       </c>
       <c r="C330" s="6"/>
       <c r="D330" s="6"/>
       <c r="E330" s="6"/>
       <c r="F330" s="6"/>
       <c r="G330" s="8" t="s">
-        <v>637</v>
+        <v>560</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331" s="6" t="s">
-        <v>326</v>
+        <v>273</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C331" s="6"/>
       <c r="D331" s="6"/>
       <c r="E331" s="6"/>
       <c r="F331" s="6"/>
       <c r="G331" s="8" t="s">
-        <v>637</v>
+        <v>560</v>
       </c>
     </row>
     <row r="332" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A332" s="6" t="s">
-        <v>327</v>
+        <v>274</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>601</v>
+        <v>527</v>
       </c>
       <c r="C332" s="6"/>
       <c r="D332" s="6"/>
       <c r="E332" s="6"/>
       <c r="F332" s="6"/>
       <c r="G332" s="8" t="s">
-        <v>637</v>
+        <v>560</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333" s="6" t="s">
-        <v>328</v>
+        <v>275</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>480</v>
+        <v>406</v>
       </c>
       <c r="C333" s="6"/>
       <c r="D333" s="6"/>
       <c r="E333" s="6"/>
       <c r="F333" s="6"/>
       <c r="G333" s="8" t="s">
-        <v>637</v>
+        <v>560</v>
       </c>
     </row>
     <row r="334" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A334" s="6" t="s">
-        <v>329</v>
+        <v>276</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>573</v>
+        <v>499</v>
       </c>
       <c r="C334" s="6"/>
       <c r="D334" s="6"/>
       <c r="E334" s="6"/>
       <c r="F334" s="6"/>
       <c r="G334" s="8" t="s">
-        <v>637</v>
+        <v>560</v>
       </c>
     </row>
     <row r="335" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A335" s="6" t="s">
-        <v>330</v>
+        <v>639</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>475</v>
+        <v>401</v>
       </c>
       <c r="C335" s="6"/>
       <c r="D335" s="6"/>
       <c r="E335" s="6"/>
       <c r="F335" s="6"/>
       <c r="G335" s="8" t="s">
-        <v>638</v>
+        <v>561</v>
       </c>
     </row>
     <row r="336" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A336" s="6" t="s">
-        <v>331</v>
+        <v>277</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>574</v>
+        <v>500</v>
       </c>
       <c r="C336" s="6" t="s">
-        <v>525</v>
+        <v>451</v>
       </c>
       <c r="D336" s="6"/>
       <c r="E336" s="6"/>
       <c r="F336" s="6"/>
       <c r="G336" s="8" t="s">
-        <v>638</v>
+        <v>561</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337" s="6" t="s">
-        <v>332</v>
+        <v>278</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C337" s="6"/>
       <c r="D337" s="6"/>
       <c r="E337" s="6"/>
       <c r="F337" s="6"/>
       <c r="G337" s="8" t="s">
-        <v>639</v>
+        <v>562</v>
       </c>
     </row>
     <row r="338" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A338" s="6" t="s">
-        <v>591</v>
+        <v>517</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>570</v>
+        <v>496</v>
       </c>
       <c r="C338" s="6" t="s">
-        <v>515</v>
+        <v>441</v>
       </c>
       <c r="D338" s="6"/>
       <c r="E338" s="6"/>
       <c r="F338" s="6"/>
       <c r="G338" s="8" t="s">
-        <v>639</v>
+        <v>562</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339" s="6" t="s">
-        <v>333</v>
+        <v>279</v>
       </c>
       <c r="B339" s="10" t="s">
-        <v>597</v>
+        <v>523</v>
       </c>
       <c r="C339" s="10" t="s">
-        <v>498</v>
+        <v>424</v>
       </c>
       <c r="D339" s="10"/>
       <c r="E339" s="6"/>
       <c r="F339" s="6"/>
       <c r="G339" s="8" t="s">
-        <v>639</v>
+        <v>562</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340" s="6" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C340" s="6" t="s">
-        <v>447</v>
+        <v>373</v>
       </c>
       <c r="D340" s="6" t="s">
-        <v>526</v>
+        <v>452</v>
       </c>
       <c r="E340" s="6" t="s">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="F340" s="6"/>
       <c r="G340" s="8" t="s">
-        <v>640</v>
+        <v>563</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341" s="10" t="s">
-        <v>434</v>
+        <v>360</v>
       </c>
       <c r="B341" s="10" t="s">
-        <v>599</v>
+        <v>525</v>
       </c>
       <c r="C341" s="10" t="s">
-        <v>597</v>
+        <v>523</v>
       </c>
       <c r="D341" s="10" t="s">
-        <v>498</v>
+        <v>424</v>
       </c>
       <c r="E341" s="6"/>
       <c r="F341" s="6"/>
       <c r="G341" s="8" t="s">
-        <v>640</v>
+        <v>563</v>
       </c>
     </row>
     <row r="342" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A342" s="10" t="s">
-        <v>334</v>
+        <v>640</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>501</v>
+        <v>427</v>
       </c>
       <c r="C342" s="6" t="s">
-        <v>478</v>
+        <v>404</v>
       </c>
       <c r="D342" s="6"/>
       <c r="E342" s="6"/>
       <c r="F342" s="6"/>
       <c r="G342" s="8" t="s">
-        <v>640</v>
+        <v>563</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343" s="6" t="s">
-        <v>435</v>
+        <v>361</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>604</v>
+        <v>530</v>
       </c>
       <c r="C343" s="6" t="s">
-        <v>605</v>
+        <v>531</v>
       </c>
       <c r="D343" s="6"/>
       <c r="E343" s="6"/>
       <c r="F343" s="6"/>
       <c r="G343" s="8" t="s">
-        <v>640</v>
+        <v>563</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" s="6" t="s">
-        <v>335</v>
+        <v>641</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>575</v>
+        <v>501</v>
       </c>
       <c r="C344" s="6" t="s">
-        <v>527</v>
+        <v>453</v>
       </c>
       <c r="D344" s="6"/>
       <c r="E344" s="6"/>
       <c r="F344" s="6"/>
       <c r="G344" s="8" t="s">
-        <v>640</v>
+        <v>563</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345" s="6" t="s">
-        <v>336</v>
+        <v>280</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>337</v>
+        <v>281</v>
       </c>
       <c r="C345" s="6"/>
       <c r="D345" s="6"/>
       <c r="E345" s="6"/>
       <c r="F345" s="6"/>
       <c r="G345" s="8" t="s">
-        <v>640</v>
+        <v>563</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" s="6" t="s">
-        <v>338</v>
+        <v>642</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>576</v>
+        <v>502</v>
       </c>
       <c r="C346" s="6"/>
       <c r="D346" s="6"/>
       <c r="E346" s="6"/>
       <c r="F346" s="6"/>
       <c r="G346" s="8" t="s">
-        <v>640</v>
+        <v>563</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" s="6" t="s">
-        <v>341</v>
+        <v>283</v>
       </c>
       <c r="B347" s="14" t="s">
-        <v>484</v>
+        <v>410</v>
       </c>
       <c r="C347" s="6"/>
       <c r="D347" s="6"/>
       <c r="E347" s="6"/>
       <c r="F347" s="6"/>
       <c r="G347" s="8" t="s">
-        <v>641</v>
+        <v>564</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" s="6" t="s">
-        <v>342</v>
+        <v>284</v>
       </c>
       <c r="B348" s="14" t="s">
-        <v>484</v>
+        <v>410</v>
       </c>
       <c r="C348" s="6" t="s">
-        <v>577</v>
+        <v>503</v>
       </c>
       <c r="D348" s="6"/>
       <c r="E348" s="6"/>
       <c r="F348" s="6"/>
       <c r="G348" s="8" t="s">
-        <v>641</v>
+        <v>564</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" s="6" t="s">
-        <v>345</v>
+        <v>287</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="C349" s="9" t="s">
-        <v>542</v>
+        <v>468</v>
       </c>
       <c r="D349" s="6"/>
       <c r="E349" s="6"/>
       <c r="F349" s="6"/>
       <c r="G349" s="8" t="s">
-        <v>642</v>
+        <v>565</v>
       </c>
     </row>
     <row r="350" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A350" s="6" t="s">
-        <v>346</v>
+        <v>643</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>578</v>
+        <v>504</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>528</v>
+        <v>454</v>
       </c>
       <c r="D350" s="6"/>
       <c r="E350" s="6"/>
       <c r="F350" s="6"/>
       <c r="G350" s="8" t="s">
-        <v>643</v>
+        <v>566</v>
       </c>
     </row>
     <row r="351" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A351" s="6" t="s">
-        <v>349</v>
+        <v>289</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>601</v>
+        <v>527</v>
       </c>
       <c r="C351" s="6"/>
       <c r="D351" s="6"/>
       <c r="E351" s="6"/>
       <c r="F351" s="6"/>
       <c r="G351" s="8" t="s">
-        <v>643</v>
+        <v>566</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" s="6" t="s">
-        <v>436</v>
+        <v>362</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>337</v>
+        <v>281</v>
       </c>
       <c r="C352" s="6"/>
       <c r="D352" s="6"/>
       <c r="E352" s="6"/>
       <c r="F352" s="6"/>
       <c r="G352" s="8" t="s">
-        <v>643</v>
+        <v>566</v>
       </c>
     </row>
     <row r="353" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A353" s="6" t="s">
-        <v>350</v>
+        <v>290</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="C353" s="6" t="s">
-        <v>464</v>
+        <v>390</v>
       </c>
       <c r="D353" s="6" t="s">
-        <v>500</v>
+        <v>426</v>
       </c>
       <c r="E353" s="6"/>
       <c r="F353" s="6"/>
       <c r="G353" s="8" t="s">
-        <v>643</v>
+        <v>566</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354" s="6" t="s">
-        <v>351</v>
+        <v>291</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C354" s="6"/>
       <c r="D354" s="6"/>
       <c r="E354" s="6"/>
       <c r="F354" s="6"/>
       <c r="G354" s="8" t="s">
-        <v>643</v>
+        <v>566</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" s="6" t="s">
-        <v>353</v>
+        <v>644</v>
       </c>
       <c r="B355" s="6" t="s">
-        <v>443</v>
+        <v>369</v>
       </c>
       <c r="C355" s="6"/>
       <c r="D355" s="6"/>
       <c r="E355" s="6"/>
       <c r="F355" s="6"/>
       <c r="G355" s="8" t="s">
-        <v>644</v>
+        <v>567</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356" s="6" t="s">
-        <v>354</v>
+        <v>292</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>480</v>
+        <v>406</v>
       </c>
       <c r="C356" s="6"/>
       <c r="D356" s="6"/>
       <c r="E356" s="6"/>
       <c r="F356" s="6"/>
       <c r="G356" s="8" t="s">
-        <v>644</v>
+        <v>567</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357" s="6" t="s">
-        <v>355</v>
+        <v>293</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>452</v>
+        <v>378</v>
       </c>
       <c r="C357" s="6"/>
       <c r="D357" s="6"/>
       <c r="E357" s="6"/>
       <c r="F357" s="6"/>
       <c r="G357" s="8" t="s">
-        <v>645</v>
+        <v>568</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" s="6" t="s">
-        <v>437</v>
+        <v>363</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>497</v>
+        <v>423</v>
       </c>
       <c r="C358" s="6"/>
       <c r="D358" s="6"/>
       <c r="E358" s="6"/>
       <c r="F358" s="6"/>
       <c r="G358" s="8" t="s">
-        <v>646</v>
+        <v>569</v>
       </c>
     </row>
     <row r="359" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A359" s="6" t="s">
-        <v>356</v>
+        <v>294</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>529</v>
+        <v>455</v>
       </c>
       <c r="C359" s="6" t="s">
-        <v>550</v>
+        <v>476</v>
       </c>
       <c r="D359" s="11" t="s">
-        <v>487</v>
+        <v>413</v>
       </c>
       <c r="E359" s="6"/>
       <c r="F359" s="6"/>
       <c r="G359" s="8" t="s">
-        <v>646</v>
+        <v>569</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" s="6" t="s">
-        <v>358</v>
+        <v>296</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>439</v>
+        <v>365</v>
       </c>
       <c r="C360" s="6" t="s">
-        <v>538</v>
+        <v>464</v>
       </c>
       <c r="D360" s="6"/>
       <c r="E360" s="6"/>
       <c r="F360" s="6"/>
       <c r="G360" s="8" t="s">
-        <v>646</v>
+        <v>569</v>
       </c>
     </row>
     <row r="361" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A361" s="6" t="s">
-        <v>374</v>
+        <v>310</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>473</v>
+        <v>399</v>
       </c>
       <c r="C361" s="6" t="s">
-        <v>461</v>
+        <v>387</v>
       </c>
       <c r="D361" s="6"/>
       <c r="E361" s="6"/>
       <c r="F361" s="6"/>
       <c r="G361" s="8" t="s">
-        <v>647</v>
+        <v>570</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362" s="6" t="s">
-        <v>357</v>
+        <v>295</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>579</v>
+        <v>505</v>
       </c>
       <c r="C362" s="6" t="s">
-        <v>501</v>
+        <v>427</v>
       </c>
       <c r="D362" s="6"/>
       <c r="E362" s="6"/>
       <c r="F362" s="6"/>
       <c r="G362" s="8" t="s">
-        <v>647</v>
+        <v>570</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363" s="6" t="s">
-        <v>360</v>
+        <v>297</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="C363" s="6" t="s">
-        <v>542</v>
+        <v>468</v>
       </c>
       <c r="D363" s="6"/>
       <c r="E363" s="6"/>
       <c r="F363" s="6"/>
       <c r="G363" s="8" t="s">
-        <v>648</v>
+        <v>571</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" s="10" t="s">
-        <v>363</v>
+        <v>300</v>
       </c>
       <c r="B364" s="10" t="s">
-        <v>542</v>
+        <v>468</v>
       </c>
       <c r="C364" s="10" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="D364" s="6"/>
       <c r="E364" s="6"/>
       <c r="F364" s="6"/>
       <c r="G364" s="8" t="s">
-        <v>649</v>
+        <v>572</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" s="6" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>460</v>
+        <v>386</v>
       </c>
       <c r="C365" s="6"/>
       <c r="D365" s="6"/>
       <c r="E365" s="6"/>
       <c r="F365" s="6"/>
       <c r="G365" s="8" t="s">
-        <v>649</v>
+        <v>572</v>
       </c>
     </row>
     <row r="366" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="6" t="s">
-        <v>361</v>
+        <v>298</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>473</v>
+        <v>399</v>
       </c>
       <c r="C366" s="6"/>
       <c r="D366" s="6"/>
       <c r="E366" s="6"/>
       <c r="F366" s="6"/>
       <c r="G366" s="8" t="s">
-        <v>649</v>
+        <v>572</v>
       </c>
     </row>
     <row r="367" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A367" s="6" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>473</v>
+        <v>399</v>
       </c>
       <c r="C367" s="6" t="s">
-        <v>461</v>
+        <v>387</v>
       </c>
       <c r="D367" s="6"/>
       <c r="E367" s="6"/>
       <c r="F367" s="6"/>
       <c r="G367" s="8" t="s">
-        <v>650</v>
+        <v>573</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" s="6" t="s">
-        <v>362</v>
+        <v>299</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="C368" s="6" t="s">
-        <v>542</v>
+        <v>468</v>
       </c>
       <c r="D368" s="6"/>
       <c r="E368" s="6"/>
       <c r="F368" s="6"/>
       <c r="G368" s="8" t="s">
-        <v>650</v>
+        <v>573</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369" s="6" t="s">
-        <v>365</v>
+        <v>302</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>473</v>
+        <v>399</v>
       </c>
       <c r="C369" s="6" t="s">
-        <v>528</v>
+        <v>454</v>
       </c>
       <c r="D369" s="6"/>
       <c r="E369" s="6"/>
       <c r="F369" s="6"/>
       <c r="G369" s="8" t="s">
-        <v>650</v>
+        <v>573</v>
       </c>
     </row>
     <row r="370" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A370" s="6" t="s">
-        <v>366</v>
+        <v>303</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>561</v>
+        <v>487</v>
       </c>
       <c r="C370" s="6"/>
       <c r="D370" s="6"/>
       <c r="E370" s="6"/>
       <c r="F370" s="6"/>
       <c r="G370" s="8" t="s">
-        <v>650</v>
+        <v>573</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" s="10" t="s">
-        <v>367</v>
+        <v>304</v>
       </c>
       <c r="B371" s="10" t="s">
-        <v>580</v>
+        <v>506</v>
       </c>
       <c r="C371" s="10" t="s">
-        <v>530</v>
+        <v>456</v>
       </c>
       <c r="D371" s="6"/>
       <c r="E371" s="6"/>
       <c r="F371" s="6"/>
       <c r="G371" s="8" t="s">
-        <v>650</v>
+        <v>573</v>
       </c>
     </row>
     <row r="372" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -9208,893 +9225,901 @@
         <v>5</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>531</v>
+        <v>457</v>
       </c>
       <c r="C372" s="6"/>
       <c r="D372" s="6"/>
       <c r="E372" s="6"/>
       <c r="F372" s="6"/>
       <c r="G372" s="8" t="s">
-        <v>651</v>
+        <v>574</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373" s="6" t="s">
-        <v>368</v>
+        <v>305</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C373" s="6"/>
       <c r="D373" s="6"/>
       <c r="E373" s="6"/>
       <c r="F373" s="6"/>
       <c r="G373" s="8" t="s">
-        <v>651</v>
+        <v>574</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374" s="6" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C374" s="6"/>
       <c r="D374" s="6"/>
       <c r="E374" s="6"/>
       <c r="F374" s="6"/>
       <c r="G374" s="8" t="s">
-        <v>651</v>
+        <v>574</v>
       </c>
     </row>
     <row r="375" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A375" s="6" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>601</v>
+        <v>527</v>
       </c>
       <c r="C375" s="6"/>
       <c r="D375" s="6"/>
       <c r="E375" s="6"/>
       <c r="F375" s="6"/>
       <c r="G375" s="8" t="s">
-        <v>651</v>
+        <v>574</v>
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376" s="6" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="B376" s="10" t="s">
-        <v>542</v>
+        <v>468</v>
       </c>
       <c r="C376" s="10" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="D376" s="6"/>
       <c r="E376" s="6"/>
       <c r="F376" s="6"/>
       <c r="G376" s="8" t="s">
-        <v>651</v>
+        <v>574</v>
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377" s="6" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>581</v>
+        <v>507</v>
       </c>
       <c r="C377" s="6" t="s">
-        <v>438</v>
+        <v>364</v>
       </c>
       <c r="D377" s="6" t="s">
-        <v>472</v>
+        <v>398</v>
       </c>
       <c r="E377" s="6"/>
       <c r="F377" s="6"/>
       <c r="G377" s="8" t="s">
-        <v>651</v>
+        <v>574</v>
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378" s="6" t="s">
-        <v>373</v>
+        <v>309</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>532</v>
+        <v>458</v>
       </c>
       <c r="C378" s="6"/>
       <c r="D378" s="6"/>
       <c r="E378" s="6"/>
       <c r="F378" s="6"/>
       <c r="G378" s="8" t="s">
-        <v>651</v>
+        <v>574</v>
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379" s="6" t="s">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>508</v>
+        <v>434</v>
       </c>
       <c r="C379" s="6" t="s">
-        <v>502</v>
+        <v>428</v>
       </c>
       <c r="D379" s="6"/>
       <c r="E379" s="6"/>
       <c r="F379" s="6"/>
       <c r="G379" s="8" t="s">
-        <v>651</v>
+        <v>574</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380" s="6" t="s">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>502</v>
+        <v>428</v>
       </c>
       <c r="C380" s="6" t="s">
-        <v>530</v>
+        <v>456</v>
       </c>
       <c r="D380" s="6"/>
       <c r="E380" s="6"/>
       <c r="F380" s="6"/>
       <c r="G380" s="8" t="s">
-        <v>651</v>
+        <v>574</v>
       </c>
     </row>
     <row r="381" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A381" s="6" t="s">
-        <v>371</v>
+        <v>307</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>533</v>
+        <v>459</v>
       </c>
       <c r="C381" s="6"/>
       <c r="D381" s="6"/>
       <c r="E381" s="6"/>
       <c r="F381" s="6"/>
       <c r="G381" s="8" t="s">
-        <v>652</v>
+        <v>575</v>
       </c>
     </row>
     <row r="382" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A382" s="6" t="s">
-        <v>348</v>
+        <v>288</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>464</v>
+        <v>390</v>
       </c>
       <c r="C382" s="6"/>
       <c r="D382" s="6"/>
       <c r="E382" s="6"/>
       <c r="F382" s="6"/>
       <c r="G382" s="8" t="s">
-        <v>617</v>
+        <v>540</v>
       </c>
     </row>
     <row r="383" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A383" s="6" t="s">
-        <v>376</v>
+        <v>312</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>461</v>
+        <v>387</v>
       </c>
       <c r="C383" s="6"/>
       <c r="D383" s="6"/>
       <c r="E383" s="6"/>
       <c r="F383" s="6"/>
       <c r="G383" s="8" t="s">
-        <v>652</v>
+        <v>575</v>
       </c>
     </row>
     <row r="384" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A384" s="6" t="s">
-        <v>364</v>
+        <v>301</v>
       </c>
       <c r="B384" s="11" t="s">
-        <v>547</v>
+        <v>473</v>
       </c>
       <c r="C384" s="11" t="s">
-        <v>480</v>
+        <v>406</v>
       </c>
       <c r="D384" s="6"/>
       <c r="E384" s="6"/>
       <c r="F384" s="6"/>
       <c r="G384" s="8" t="s">
-        <v>652</v>
+        <v>575</v>
       </c>
     </row>
     <row r="385" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A385" s="15" t="s">
-        <v>377</v>
+        <v>313</v>
       </c>
       <c r="B385" s="15" t="s">
-        <v>564</v>
+        <v>490</v>
       </c>
       <c r="C385" s="15" t="s">
-        <v>466</v>
+        <v>392</v>
       </c>
       <c r="D385" s="15"/>
       <c r="E385" s="15"/>
       <c r="F385" s="6"/>
       <c r="G385" s="8" t="s">
-        <v>653</v>
+        <v>576</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A386" s="6" t="s">
-        <v>378</v>
+        <v>314</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C386" s="6"/>
       <c r="D386" s="6"/>
       <c r="E386" s="6"/>
       <c r="F386" s="6"/>
       <c r="G386" s="8" t="s">
-        <v>653</v>
+        <v>576</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387" s="6" t="s">
-        <v>379</v>
+        <v>645</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>443</v>
+        <v>369</v>
       </c>
       <c r="C387" s="6"/>
       <c r="D387" s="6"/>
       <c r="E387" s="6"/>
       <c r="F387" s="6"/>
       <c r="G387" s="8" t="s">
-        <v>653</v>
+        <v>576</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388" s="6" t="s">
-        <v>380</v>
+        <v>315</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="C388" s="6" t="s">
-        <v>509</v>
+        <v>435</v>
       </c>
       <c r="D388" s="6"/>
       <c r="E388" s="6"/>
       <c r="F388" s="6"/>
       <c r="G388" s="8" t="s">
-        <v>653</v>
+        <v>576</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A389" s="6" t="s">
-        <v>384</v>
+        <v>317</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="C389" s="6" t="s">
-        <v>542</v>
+        <v>468</v>
       </c>
       <c r="D389" s="6"/>
       <c r="E389" s="6"/>
       <c r="F389" s="6"/>
       <c r="G389" s="8" t="s">
-        <v>654</v>
+        <v>577</v>
       </c>
     </row>
     <row r="390" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A390" s="6" t="s">
-        <v>383</v>
+        <v>316</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>566</v>
+        <v>492</v>
       </c>
       <c r="C390" s="6" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="D390" s="6"/>
       <c r="E390" s="6"/>
       <c r="F390" s="6"/>
       <c r="G390" s="8" t="s">
-        <v>626</v>
+        <v>549</v>
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391" s="6" t="s">
-        <v>385</v>
+        <v>318</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>484</v>
+        <v>410</v>
       </c>
       <c r="C391" s="6" t="s">
-        <v>577</v>
+        <v>503</v>
       </c>
       <c r="D391" s="6"/>
       <c r="E391" s="6"/>
       <c r="F391" s="6"/>
       <c r="G391" s="8" t="s">
-        <v>626</v>
+        <v>549</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392" s="16" t="s">
-        <v>386</v>
+        <v>319</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>448</v>
+        <v>374</v>
       </c>
       <c r="C392" s="6" t="s">
-        <v>452</v>
+        <v>378</v>
       </c>
       <c r="D392" s="6"/>
       <c r="E392" s="6"/>
       <c r="F392" s="6"/>
       <c r="G392" s="8" t="s">
-        <v>655</v>
+        <v>578</v>
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A393" s="6" t="s">
-        <v>387</v>
+        <v>320</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>448</v>
+        <v>374</v>
       </c>
       <c r="C393" s="6"/>
       <c r="D393" s="6"/>
       <c r="E393" s="6"/>
       <c r="F393" s="6"/>
       <c r="G393" s="8" t="s">
-        <v>655</v>
+        <v>578</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A394" s="15" t="s">
-        <v>388</v>
+        <v>321</v>
       </c>
       <c r="B394" s="15" t="s">
-        <v>582</v>
+        <v>508</v>
       </c>
       <c r="C394" s="6"/>
       <c r="D394" s="6"/>
       <c r="E394" s="6"/>
       <c r="F394" s="6"/>
       <c r="G394" s="8" t="s">
-        <v>656</v>
+        <v>579</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395" s="6" t="s">
-        <v>389</v>
+        <v>322</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>480</v>
+        <v>406</v>
       </c>
       <c r="C395" s="6"/>
       <c r="D395" s="6"/>
       <c r="E395" s="6"/>
       <c r="F395" s="6"/>
       <c r="G395" s="8" t="s">
-        <v>657</v>
+        <v>580</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396" s="6" t="s">
-        <v>390</v>
+        <v>323</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>443</v>
+        <v>369</v>
       </c>
       <c r="C396" s="6"/>
       <c r="D396" s="6"/>
       <c r="E396" s="6"/>
       <c r="F396" s="6"/>
       <c r="G396" s="8" t="s">
-        <v>657</v>
+        <v>580</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397" s="6" t="s">
-        <v>391</v>
+        <v>324</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C397" s="6"/>
       <c r="D397" s="6"/>
       <c r="E397" s="6"/>
       <c r="F397" s="6"/>
       <c r="G397" s="8" t="s">
-        <v>657</v>
+        <v>580</v>
       </c>
     </row>
     <row r="398" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A398" s="6" t="s">
-        <v>392</v>
+        <v>646</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>453</v>
+        <v>379</v>
       </c>
       <c r="C398" s="6"/>
       <c r="D398" s="6"/>
       <c r="E398" s="6"/>
       <c r="F398" s="6"/>
       <c r="G398" s="8" t="s">
-        <v>657</v>
+        <v>580</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399" s="6" t="s">
-        <v>393</v>
+        <v>325</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>496</v>
+        <v>422</v>
       </c>
       <c r="C399" s="6" t="s">
-        <v>510</v>
+        <v>436</v>
       </c>
       <c r="D399" s="6"/>
       <c r="E399" s="6"/>
       <c r="F399" s="6"/>
       <c r="G399" s="8" t="s">
-        <v>658</v>
+        <v>581</v>
       </c>
     </row>
     <row r="400" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A400" s="6" t="s">
-        <v>394</v>
+        <v>647</v>
       </c>
       <c r="B400" s="6" t="s">
-        <v>551</v>
+        <v>477</v>
       </c>
       <c r="C400" s="6"/>
       <c r="D400" s="6"/>
       <c r="E400" s="6"/>
       <c r="F400" s="6"/>
       <c r="G400" s="8" t="s">
-        <v>659</v>
+        <v>582</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401" s="17" t="s">
-        <v>395</v>
+        <v>326</v>
       </c>
       <c r="B401" s="17" t="s">
-        <v>396</v>
+        <v>327</v>
       </c>
       <c r="C401" s="17" t="s">
-        <v>476</v>
+        <v>402</v>
       </c>
       <c r="D401" s="6"/>
       <c r="E401" s="6"/>
       <c r="F401" s="18"/>
       <c r="G401" s="8" t="s">
-        <v>660</v>
+        <v>583</v>
       </c>
     </row>
     <row r="402" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A402" s="19" t="s">
-        <v>397</v>
+        <v>328</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>544</v>
+        <v>470</v>
       </c>
       <c r="C402" s="6"/>
       <c r="D402" s="6"/>
       <c r="E402" s="6"/>
       <c r="F402" s="6"/>
       <c r="G402" s="8" t="s">
-        <v>660</v>
+        <v>583</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A403" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B403" s="11" t="s">
-        <v>534</v>
+        <v>460</v>
       </c>
       <c r="C403" s="6"/>
       <c r="D403" s="6"/>
       <c r="E403" s="6"/>
       <c r="F403" s="6"/>
       <c r="G403" s="8" t="s">
-        <v>661</v>
+        <v>584</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A404" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B404" s="11" t="s">
-        <v>534</v>
+        <v>460</v>
       </c>
       <c r="C404" s="6"/>
       <c r="D404" s="6"/>
       <c r="E404" s="6"/>
       <c r="F404" s="6"/>
       <c r="G404" s="8" t="s">
-        <v>661</v>
+        <v>584</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A405" s="6" t="s">
-        <v>400</v>
+        <v>331</v>
       </c>
       <c r="B405" s="11" t="s">
-        <v>534</v>
+        <v>460</v>
       </c>
       <c r="C405" s="11"/>
       <c r="D405" s="6"/>
       <c r="E405" s="6"/>
       <c r="F405" s="6"/>
       <c r="G405" s="8" t="s">
-        <v>661</v>
+        <v>584</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A406" s="6" t="s">
-        <v>398</v>
+        <v>329</v>
       </c>
       <c r="B406" s="11" t="s">
-        <v>534</v>
+        <v>460</v>
       </c>
       <c r="C406" s="6" t="s">
-        <v>399</v>
+        <v>330</v>
       </c>
       <c r="D406" s="6"/>
       <c r="E406" s="6"/>
       <c r="F406" s="6"/>
       <c r="G406" s="8" t="s">
-        <v>661</v>
+        <v>584</v>
       </c>
     </row>
     <row r="407" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A407" s="6" t="s">
-        <v>401</v>
+        <v>332</v>
       </c>
       <c r="B407" s="11" t="s">
-        <v>556</v>
+        <v>482</v>
       </c>
       <c r="C407" s="6"/>
       <c r="D407" s="6"/>
       <c r="E407" s="6"/>
       <c r="F407" s="6"/>
       <c r="G407" s="8" t="s">
-        <v>661</v>
+        <v>584</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A408" s="15" t="s">
-        <v>402</v>
+        <v>333</v>
       </c>
       <c r="B408" s="15" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C408" s="6"/>
       <c r="D408" s="6"/>
       <c r="E408" s="6"/>
       <c r="F408" s="6"/>
       <c r="G408" s="8" t="s">
-        <v>661</v>
+        <v>584</v>
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A409" s="15" t="s">
-        <v>403</v>
+        <v>334</v>
       </c>
       <c r="B409" s="15" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C409" s="6"/>
       <c r="D409" s="6"/>
       <c r="E409" s="6"/>
       <c r="F409" s="6"/>
       <c r="G409" s="8" t="s">
-        <v>661</v>
+        <v>584</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A410" s="6" t="s">
-        <v>404</v>
+        <v>335</v>
       </c>
       <c r="B410" s="6" t="s">
-        <v>535</v>
+        <v>461</v>
       </c>
       <c r="C410" s="6"/>
       <c r="D410" s="6"/>
       <c r="E410" s="6"/>
       <c r="F410" s="6"/>
       <c r="G410" s="8" t="s">
-        <v>628</v>
+        <v>551</v>
       </c>
     </row>
     <row r="411" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A411" s="6" t="s">
-        <v>405</v>
+        <v>336</v>
       </c>
       <c r="B411" s="6" t="s">
-        <v>583</v>
+        <v>509</v>
       </c>
       <c r="C411" s="6"/>
       <c r="D411" s="6"/>
       <c r="E411" s="6"/>
       <c r="F411" s="6"/>
       <c r="G411" s="8" t="s">
-        <v>628</v>
+        <v>551</v>
       </c>
     </row>
     <row r="412" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="15" t="s">
-        <v>406</v>
+        <v>337</v>
       </c>
       <c r="B412" s="6" t="s">
-        <v>570</v>
+        <v>496</v>
       </c>
       <c r="C412" s="11" t="s">
-        <v>515</v>
+        <v>441</v>
       </c>
       <c r="D412" s="6"/>
       <c r="E412" s="6"/>
       <c r="F412" s="6"/>
       <c r="G412" s="8" t="s">
-        <v>628</v>
+        <v>551</v>
       </c>
     </row>
     <row r="413" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A413" s="6" t="s">
-        <v>407</v>
+        <v>338</v>
       </c>
       <c r="B413" s="11" t="s">
-        <v>556</v>
+        <v>482</v>
       </c>
       <c r="C413" s="6"/>
       <c r="D413" s="6"/>
       <c r="E413" s="6"/>
       <c r="F413" s="6"/>
       <c r="G413" s="8" t="s">
-        <v>628</v>
+        <v>551</v>
       </c>
     </row>
     <row r="414" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A414" s="6" t="s">
-        <v>408</v>
+        <v>339</v>
       </c>
       <c r="B414" s="11" t="s">
-        <v>547</v>
+        <v>473</v>
       </c>
       <c r="C414" s="11" t="s">
-        <v>480</v>
+        <v>406</v>
       </c>
       <c r="D414" s="6"/>
       <c r="E414" s="6"/>
       <c r="F414" s="6"/>
       <c r="G414" s="8" t="s">
-        <v>628</v>
+        <v>551</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A415" s="6" t="s">
-        <v>409</v>
+        <v>340</v>
       </c>
       <c r="B415" s="11" t="s">
-        <v>536</v>
+        <v>462</v>
       </c>
       <c r="C415" s="6" t="s">
-        <v>399</v>
+        <v>330</v>
       </c>
       <c r="D415" s="6"/>
       <c r="E415" s="6"/>
       <c r="F415" s="6"/>
       <c r="G415" s="8" t="s">
-        <v>628</v>
+        <v>551</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A416" s="6" t="s">
-        <v>410</v>
+        <v>341</v>
       </c>
       <c r="B416" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="C416" s="6" t="s">
         <v>399</v>
-      </c>
-      <c r="C416" s="6" t="s">
-        <v>473</v>
       </c>
       <c r="D416" s="6"/>
       <c r="E416" s="6"/>
       <c r="F416" s="6"/>
       <c r="G416" s="8" t="s">
-        <v>628</v>
+        <v>551</v>
       </c>
     </row>
     <row r="417" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A417" s="6" t="s">
-        <v>411</v>
+        <v>342</v>
       </c>
       <c r="B417" s="11" t="s">
-        <v>528</v>
+        <v>454</v>
       </c>
       <c r="C417" s="11" t="s">
-        <v>551</v>
+        <v>477</v>
       </c>
       <c r="D417" s="6"/>
       <c r="E417" s="6"/>
       <c r="F417" s="6"/>
       <c r="G417" s="8" t="s">
-        <v>628</v>
+        <v>551</v>
       </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A418" s="6" t="s">
-        <v>412</v>
+        <v>648</v>
       </c>
       <c r="B418" s="6" t="s">
-        <v>511</v>
+        <v>437</v>
       </c>
       <c r="C418" s="11" t="s">
-        <v>480</v>
+        <v>406</v>
       </c>
       <c r="D418" s="6"/>
       <c r="E418" s="6"/>
       <c r="F418" s="6"/>
       <c r="G418" s="8" t="s">
-        <v>628</v>
+        <v>551</v>
       </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A419" s="6" t="s">
-        <v>413</v>
+        <v>343</v>
       </c>
       <c r="B419" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C419" s="6"/>
       <c r="D419" s="6"/>
       <c r="E419" s="6"/>
       <c r="F419" s="6"/>
       <c r="G419" s="8" t="s">
-        <v>662</v>
+        <v>585</v>
       </c>
     </row>
     <row r="420" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A420" s="6" t="s">
-        <v>414</v>
+        <v>344</v>
       </c>
       <c r="B420" s="6" t="s">
-        <v>570</v>
+        <v>496</v>
       </c>
       <c r="C420" s="6" t="s">
-        <v>515</v>
+        <v>441</v>
       </c>
       <c r="D420" s="6"/>
       <c r="E420" s="6"/>
       <c r="F420" s="6"/>
       <c r="G420" s="8" t="s">
-        <v>662</v>
+        <v>585</v>
       </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A421" s="6" t="s">
-        <v>415</v>
+        <v>345</v>
       </c>
       <c r="B421" s="6" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="C421" s="6"/>
       <c r="D421" s="6"/>
       <c r="E421" s="6"/>
       <c r="F421" s="6"/>
       <c r="G421" s="8" t="s">
-        <v>662</v>
+        <v>585</v>
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A422" s="15" t="s">
-        <v>607</v>
+        <v>533</v>
       </c>
       <c r="B422" s="6" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C422" s="6" t="s">
-        <v>472</v>
+        <v>398</v>
       </c>
       <c r="D422" s="6" t="s">
-        <v>537</v>
+        <v>463</v>
       </c>
       <c r="E422" s="20"/>
       <c r="F422" s="20"/>
       <c r="G422" s="8" t="s">
-        <v>663</v>
+        <v>586</v>
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A423" s="15" t="s">
-        <v>608</v>
+        <v>534</v>
       </c>
       <c r="B423" s="6" t="s">
-        <v>443</v>
+        <v>369</v>
       </c>
       <c r="C423" s="20"/>
       <c r="D423" s="20"/>
       <c r="E423" s="20"/>
       <c r="F423" s="20"/>
       <c r="G423" s="8" t="s">
-        <v>663</v>
+        <v>586</v>
       </c>
     </row>
     <row r="424" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A424" s="15" t="s">
-        <v>609</v>
+        <v>535</v>
       </c>
       <c r="B424" s="15" t="s">
-        <v>610</v>
+        <v>536</v>
       </c>
       <c r="C424" s="6" t="s">
-        <v>444</v>
+        <v>370</v>
       </c>
       <c r="D424" s="20"/>
       <c r="E424" s="20"/>
       <c r="F424" s="20"/>
       <c r="G424" s="8" t="s">
-        <v>663</v>
+        <v>586</v>
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A425" s="20" t="s">
-        <v>611</v>
+        <v>649</v>
       </c>
       <c r="B425" s="6" t="s">
-        <v>443</v>
+        <v>369</v>
       </c>
       <c r="C425" s="20"/>
       <c r="D425" s="20"/>
       <c r="E425" s="20"/>
       <c r="F425" s="20"/>
       <c r="G425" s="8" t="s">
-        <v>663</v>
+        <v>586</v>
       </c>
     </row>
     <row r="426" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A426" s="20" t="s">
-        <v>612</v>
+        <v>662</v>
       </c>
       <c r="B426" s="11" t="s">
-        <v>480</v>
+        <v>406</v>
       </c>
       <c r="C426" s="20"/>
       <c r="D426" s="20"/>
       <c r="E426" s="20"/>
       <c r="F426" s="20"/>
       <c r="G426" s="8" t="s">
-        <v>663</v>
+        <v>586</v>
       </c>
     </row>
     <row r="427" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A427" s="20" t="s">
-        <v>613</v>
+        <v>663</v>
       </c>
       <c r="B427" s="20" t="s">
-        <v>614</v>
+        <v>537</v>
       </c>
       <c r="C427" s="20"/>
       <c r="D427" s="20"/>
       <c r="E427" s="20"/>
       <c r="F427" s="20"/>
       <c r="G427" s="8" t="s">
-        <v>663</v>
+        <v>586</v>
       </c>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G428" s="5"/>
+      <c r="A428" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B428" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="G428" s="21" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G429" s="5"/>

--- a/data4.xlsx
+++ b/data4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Константин\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF292004-F1E1-4F8B-B18D-60826F671E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68B7C76E-9093-4AF4-AD55-364059E675CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,8 +23,8 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
     <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
-    <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -424,9 +424,6 @@
     <t>подключить карту</t>
   </si>
   <si>
-    <t>Претензия/Заявление</t>
-  </si>
-  <si>
     <t>Восстановить доступ</t>
   </si>
   <si>
@@ -706,9 +703,6 @@
     <t>Не зачислил деньги</t>
   </si>
   <si>
-    <t>Забыл пароль\сменить пароль я не помню пароль</t>
-  </si>
-  <si>
     <t>Набор цифр + тематика</t>
   </si>
   <si>
@@ -745,9 +739,6 @@
     <t>Платеж в терминале</t>
   </si>
   <si>
-    <t>Платил в АО, АМ</t>
-  </si>
-  <si>
     <t>По другим данным</t>
   </si>
   <si>
@@ -1040,9 +1031,6 @@
   </si>
   <si>
     <t>когда на вас в суд позови оператора</t>
-  </si>
-  <si>
-    <t>покупка, купить, как купить, про покупку, сделать покупку</t>
   </si>
   <si>
     <t>заявку на кредит отменить заявку на кредит</t>
@@ -1860,16 +1848,10 @@
     <t>отменить комиссию|вернуть комиссию</t>
   </si>
   <si>
-    <t xml:space="preserve"> перезвоните мне|заказать обратный звонок|пусть он мне перезвонит</t>
-  </si>
-  <si>
     <t>Войти в карту|войти в счет</t>
   </si>
   <si>
     <t>приложение пишет что я сменил номер семь|не могу сделать перевод пишет что из-за смена номера</t>
-  </si>
-  <si>
-    <t>можно ли с кредитной карты оплатить обучение в университете |садик</t>
   </si>
   <si>
     <t>заблокирован перевод|Перевела деньги заблокировали| разблокировать перевод</t>
@@ -1963,9 +1945,6 @@
     <t>оплатить сотовую связь|мобильную</t>
   </si>
   <si>
-    <t>подписка кинопоиск|яндекс плюс</t>
-  </si>
-  <si>
     <t>объясните программу долгосрочных сбережений|ПДС</t>
   </si>
   <si>
@@ -2003,12 +1982,6 @@
   </si>
   <si>
     <t>Подвердить платеж| по движению средств| по истории</t>
-  </si>
-  <si>
-    <t>Ограничение / приостановление по счетам / по карте</t>
-  </si>
-  <si>
-    <t>Позвонить/дозвониться</t>
   </si>
   <si>
     <t>списывают деньги с другого счета| пытаетесь долги списали с другого счета</t>
@@ -2038,6 +2011,33 @@
   </si>
   <si>
     <t>Тревел</t>
+  </si>
+  <si>
+    <t>Позвонить|дозвониться</t>
+  </si>
+  <si>
+    <t>Ограничение по счетам/по карте | приостановление по счетам / по карте</t>
+  </si>
+  <si>
+    <t>Перезвоните мне|заказать обратный звонок|пусть он мне перезвонит</t>
+  </si>
+  <si>
+    <t>можно ли с кредитной карты оплатить обучение в университете /садик</t>
+  </si>
+  <si>
+    <t>Платил в АО/ АМ</t>
+  </si>
+  <si>
+    <t>подписка кинопоиск/яндекс плюс</t>
+  </si>
+  <si>
+    <t>Забыл пароль|сменить пароль я не помню пароль</t>
+  </si>
+  <si>
+    <t>покупка|купить| как купить| про покупку| сделать покупку</t>
+  </si>
+  <si>
+    <t>Претензия|Заявление</t>
   </si>
 </sst>
 </file>
@@ -3242,8 +3242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H429"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A125" sqref="A125"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3260,74 +3260,74 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>512</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>515</v>
-      </c>
       <c r="G1" s="6" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="8" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="8" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="8" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -3335,14 +3335,14 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -3350,14 +3350,14 @@
         <v>65</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -3365,16 +3365,16 @@
         <v>86</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -3389,7 +3389,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -3397,14 +3397,14 @@
         <v>2</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -3412,29 +3412,29 @@
         <v>3</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>129</v>
+        <v>665</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -3449,72 +3449,72 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>20</v>
@@ -3524,7 +3524,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -3532,7 +3532,7 @@
         <v>26</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>83</v>
@@ -3541,7 +3541,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -3549,16 +3549,16 @@
         <v>27</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -3573,7 +3573,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -3588,7 +3588,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -3596,14 +3596,14 @@
         <v>30</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -3611,14 +3611,14 @@
         <v>31</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -3626,14 +3626,14 @@
         <v>32</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -3648,12 +3648,12 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>20</v>
@@ -3663,7 +3663,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -3671,51 +3671,51 @@
         <v>34</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>20</v>
@@ -3725,39 +3725,39 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="8" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>84</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -3765,14 +3765,14 @@
         <v>103</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -3780,14 +3780,14 @@
         <v>6</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -3795,31 +3795,31 @@
         <v>25</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -3827,33 +3827,33 @@
         <v>23</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>87</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -3868,39 +3868,39 @@
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -3915,7 +3915,7 @@
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -3923,16 +3923,16 @@
         <v>36</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -3947,7 +3947,7 @@
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -3955,31 +3955,31 @@
         <v>38</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -3987,14 +3987,14 @@
         <v>7</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -4002,29 +4002,29 @@
         <v>8</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
       <c r="G48" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -4032,16 +4032,16 @@
         <v>22</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -4056,7 +4056,7 @@
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -4064,16 +4064,16 @@
         <v>39</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -4088,7 +4088,7 @@
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -4103,22 +4103,22 @@
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -4129,13 +4129,13 @@
         <v>84</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
       <c r="G56" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -4150,7 +4150,7 @@
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
       <c r="G57" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -4158,14 +4158,14 @@
         <v>11</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
       <c r="G58" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -4180,37 +4180,37 @@
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
       <c r="G59" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
       <c r="G61" s="8" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -4218,16 +4218,16 @@
         <v>13</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
       <c r="G62" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -4242,7 +4242,7 @@
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
       <c r="G63" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -4250,16 +4250,16 @@
         <v>45</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
       <c r="G64" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -4267,14 +4267,14 @@
         <v>46</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
       <c r="G65" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -4282,16 +4282,16 @@
         <v>47</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
       <c r="G66" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -4299,14 +4299,14 @@
         <v>48</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
       <c r="G67" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -4314,16 +4314,16 @@
         <v>49</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
       <c r="G68" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -4338,7 +4338,7 @@
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
       <c r="G69" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -4346,16 +4346,16 @@
         <v>51</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
       <c r="G70" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -4363,38 +4363,38 @@
         <v>52</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
       <c r="G71" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>90</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
       <c r="G72" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>91</v>
@@ -4404,46 +4404,46 @@
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
       <c r="G73" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>84</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
       <c r="G74" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
       <c r="G75" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>20</v>
@@ -4453,7 +4453,7 @@
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
       <c r="G76" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -4461,14 +4461,14 @@
         <v>57</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
       <c r="G77" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -4479,39 +4479,39 @@
         <v>84</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
       <c r="G78" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F79" s="6"/>
       <c r="G79" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>20</v>
@@ -4521,7 +4521,7 @@
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
       <c r="G80" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -4529,19 +4529,19 @@
         <v>55</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
       <c r="G81" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>20</v>
@@ -4551,12 +4551,12 @@
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
       <c r="G82" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>20</v>
@@ -4566,22 +4566,22 @@
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
       <c r="G83" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
       <c r="G84" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4589,19 +4589,19 @@
         <v>14</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
       <c r="G85" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>20</v>
@@ -4611,12 +4611,12 @@
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
       <c r="G86" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>20</v>
@@ -4626,7 +4626,7 @@
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
       <c r="G87" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -4641,7 +4641,7 @@
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
       <c r="G88" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -4656,7 +4656,7 @@
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
       <c r="G89" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -4664,14 +4664,14 @@
         <v>62</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
       <c r="G90" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -4686,7 +4686,7 @@
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
       <c r="G91" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -4694,14 +4694,14 @@
         <v>19</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
       <c r="G92" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -4712,13 +4712,13 @@
         <v>83</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
       <c r="G93" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -4726,14 +4726,14 @@
         <v>18</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
       <c r="G94" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
@@ -4741,14 +4741,14 @@
         <v>59</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
       <c r="G95" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
@@ -4759,13 +4759,13 @@
         <v>83</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
       <c r="G96" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
@@ -4780,7 +4780,7 @@
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
       <c r="G97" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
@@ -4795,7 +4795,7 @@
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
       <c r="G98" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -4810,7 +4810,7 @@
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
       <c r="G99" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -4818,16 +4818,16 @@
         <v>72</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
       <c r="G100" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
@@ -4842,7 +4842,7 @@
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
       <c r="G101" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
@@ -4857,7 +4857,7 @@
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
       <c r="G102" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
@@ -4872,7 +4872,7 @@
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
       <c r="G103" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
@@ -4887,7 +4887,7 @@
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
       <c r="G104" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -4895,14 +4895,14 @@
         <v>77</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
       <c r="G105" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -4910,33 +4910,33 @@
         <v>78</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
       <c r="G106" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
       <c r="G107" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -4944,14 +4944,14 @@
         <v>66</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
       <c r="G108" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -4959,14 +4959,14 @@
         <v>79</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
       <c r="G109" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
@@ -4981,7 +4981,7 @@
       <c r="E110" s="6"/>
       <c r="F110" s="6"/>
       <c r="G110" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -4989,14 +4989,14 @@
         <v>81</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
       <c r="E111" s="6"/>
       <c r="F111" s="6"/>
       <c r="G111" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
@@ -5011,7 +5011,7 @@
       <c r="E112" s="6"/>
       <c r="F112" s="6"/>
       <c r="G112" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -5019,16 +5019,16 @@
         <v>67</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D113" s="6"/>
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
       <c r="G113" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -5036,29 +5036,29 @@
         <v>68</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
       <c r="G114" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
       <c r="F115" s="6"/>
       <c r="G115" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
@@ -5066,14 +5066,14 @@
         <v>92</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
       <c r="G116" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -5081,16 +5081,16 @@
         <v>93</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D117" s="6"/>
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
       <c r="G117" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
@@ -5098,21 +5098,21 @@
         <v>95</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D118" s="6"/>
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
       <c r="G118" s="8" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>20</v>
@@ -5122,7 +5122,7 @@
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
       <c r="G119" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -5130,16 +5130,16 @@
         <v>96</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D120" s="6"/>
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
       <c r="G120" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -5147,33 +5147,33 @@
         <v>97</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D121" s="6"/>
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
       <c r="G121" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D122" s="6"/>
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
       <c r="G122" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
@@ -5181,14 +5181,14 @@
         <v>98</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
       <c r="E123" s="6"/>
       <c r="F123" s="6"/>
       <c r="G123" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
@@ -5196,19 +5196,19 @@
         <v>102</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
       <c r="E124" s="6"/>
       <c r="F124" s="6"/>
       <c r="G124" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>20</v>
@@ -5218,63 +5218,63 @@
       <c r="E125" s="6"/>
       <c r="F125" s="6"/>
       <c r="G125" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
       <c r="E126" s="6"/>
       <c r="F126" s="6"/>
       <c r="G126" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
       <c r="E127" s="6"/>
       <c r="F127" s="6"/>
       <c r="G127" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F128" s="6"/>
       <c r="G128" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B129" s="6" t="s">
         <v>20</v>
@@ -5284,24 +5284,24 @@
       <c r="E129" s="6"/>
       <c r="F129" s="6"/>
       <c r="G129" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>90</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D130" s="6"/>
       <c r="E130" s="6"/>
       <c r="F130" s="6"/>
       <c r="G130" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -5309,16 +5309,16 @@
         <v>99</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D131" s="6"/>
       <c r="E131" s="6"/>
       <c r="F131" s="6"/>
       <c r="G131" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
@@ -5333,7 +5333,7 @@
       <c r="E132" s="6"/>
       <c r="F132" s="6"/>
       <c r="G132" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
@@ -5348,27 +5348,27 @@
       <c r="E133" s="6"/>
       <c r="F133" s="6"/>
       <c r="G133" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
       <c r="E134" s="6"/>
       <c r="F134" s="6"/>
       <c r="G134" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>20</v>
@@ -5378,7 +5378,7 @@
       <c r="E135" s="6"/>
       <c r="F135" s="6"/>
       <c r="G135" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -5386,31 +5386,31 @@
         <v>104</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D136" s="6"/>
       <c r="E136" s="6"/>
       <c r="F136" s="6"/>
       <c r="G136" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
       <c r="E137" s="6"/>
       <c r="F137" s="6"/>
       <c r="G137" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
@@ -5418,14 +5418,14 @@
         <v>105</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
       <c r="E138" s="6"/>
       <c r="F138" s="6"/>
       <c r="G138" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
@@ -5433,14 +5433,14 @@
         <v>106</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
       <c r="E139" s="6"/>
       <c r="F139" s="6"/>
       <c r="G139" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
@@ -5448,14 +5448,14 @@
         <v>107</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
       <c r="E140" s="6"/>
       <c r="F140" s="6"/>
       <c r="G140" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -5463,63 +5463,63 @@
         <v>108</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D141" s="6"/>
       <c r="E141" s="6"/>
       <c r="F141" s="6"/>
       <c r="G141" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B142" s="6" t="s">
         <v>84</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D142" s="6"/>
       <c r="E142" s="6"/>
       <c r="F142" s="6"/>
       <c r="G142" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
       <c r="E143" s="6"/>
       <c r="F143" s="6"/>
       <c r="G143" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
       <c r="E144" s="6"/>
       <c r="F144" s="6"/>
       <c r="G144" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
@@ -5534,39 +5534,39 @@
       <c r="E145" s="6"/>
       <c r="F145" s="6"/>
       <c r="G145" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D146" s="6"/>
       <c r="E146" s="6"/>
       <c r="F146" s="6"/>
       <c r="G146" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
       <c r="E147" s="6"/>
       <c r="F147" s="6"/>
       <c r="G147" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
@@ -5574,29 +5574,29 @@
         <v>111</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C148" s="6"/>
       <c r="D148" s="6"/>
       <c r="E148" s="6"/>
       <c r="F148" s="6"/>
       <c r="G148" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
-        <v>607</v>
+        <v>659</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
       <c r="E149" s="6"/>
       <c r="F149" s="6"/>
       <c r="G149" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
@@ -5611,22 +5611,22 @@
       <c r="E150" s="6"/>
       <c r="F150" s="6"/>
       <c r="G150" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
       <c r="E151" s="6"/>
       <c r="F151" s="6"/>
       <c r="G151" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
@@ -5641,22 +5641,22 @@
       <c r="E152" s="6"/>
       <c r="F152" s="6"/>
       <c r="G152" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
       <c r="E153" s="6"/>
       <c r="F153" s="6"/>
       <c r="G153" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -5664,16 +5664,16 @@
         <v>116</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D154" s="6"/>
       <c r="E154" s="6"/>
       <c r="F154" s="6"/>
       <c r="G154" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -5681,16 +5681,16 @@
         <v>117</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D155" s="6"/>
       <c r="E155" s="6"/>
       <c r="F155" s="6"/>
       <c r="G155" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -5698,48 +5698,48 @@
         <v>119</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D156" s="6"/>
       <c r="E156" s="6"/>
       <c r="F156" s="6"/>
       <c r="G156" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A157" s="6" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C157" s="6"/>
       <c r="D157" s="6"/>
       <c r="E157" s="6"/>
       <c r="F157" s="6"/>
       <c r="G157" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A158" s="6" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D158" s="6"/>
       <c r="E158" s="6"/>
       <c r="F158" s="6"/>
       <c r="G158" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -5747,16 +5747,16 @@
         <v>114</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D159" s="6"/>
       <c r="E159" s="6"/>
       <c r="F159" s="6"/>
       <c r="G159" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
@@ -5764,14 +5764,14 @@
         <v>115</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C160" s="6"/>
       <c r="D160" s="6"/>
       <c r="E160" s="6"/>
       <c r="F160" s="6"/>
       <c r="G160" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -5779,34 +5779,34 @@
         <v>118</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C161" s="6"/>
       <c r="D161" s="6"/>
       <c r="E161" s="6"/>
       <c r="F161" s="6"/>
       <c r="G161" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="6" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C162" s="6"/>
       <c r="D162" s="6"/>
       <c r="E162" s="6"/>
       <c r="F162" s="6"/>
       <c r="G162" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A163" s="6" t="s">
-        <v>610</v>
+        <v>660</v>
       </c>
       <c r="B163" s="6" t="s">
         <v>20</v>
@@ -5816,7 +5816,7 @@
       <c r="E163" s="6"/>
       <c r="F163" s="6"/>
       <c r="G163" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
@@ -5824,16 +5824,16 @@
         <v>120</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D164" s="6"/>
       <c r="E164" s="6"/>
       <c r="F164" s="6"/>
       <c r="G164" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -5841,29 +5841,29 @@
         <v>121</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C165" s="6"/>
       <c r="D165" s="6"/>
       <c r="E165" s="6"/>
       <c r="F165" s="6"/>
       <c r="G165" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C166" s="6"/>
       <c r="D166" s="6"/>
       <c r="E166" s="6"/>
       <c r="F166" s="6"/>
       <c r="G166" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
@@ -5871,16 +5871,16 @@
         <v>122</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D167" s="6"/>
       <c r="E167" s="6"/>
       <c r="F167" s="6"/>
       <c r="G167" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
@@ -5888,14 +5888,14 @@
         <v>123</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C168" s="6"/>
       <c r="D168" s="6"/>
       <c r="E168" s="6"/>
       <c r="F168" s="6"/>
       <c r="G168" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -5903,14 +5903,14 @@
         <v>124</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C169" s="6"/>
       <c r="D169" s="6"/>
       <c r="E169" s="6"/>
       <c r="F169" s="6"/>
       <c r="G169" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
@@ -5918,14 +5918,14 @@
         <v>125</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C170" s="6"/>
       <c r="D170" s="6"/>
       <c r="E170" s="6"/>
       <c r="F170" s="6"/>
       <c r="G170" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
@@ -5940,22 +5940,22 @@
       <c r="E171" s="6"/>
       <c r="F171" s="6"/>
       <c r="G171" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C172" s="6"/>
       <c r="D172" s="6"/>
       <c r="E172" s="6"/>
       <c r="F172" s="6"/>
       <c r="G172" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
@@ -5966,35 +5966,35 @@
         <v>84</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D173" s="6"/>
       <c r="E173" s="6"/>
       <c r="F173" s="6"/>
       <c r="G173" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A174" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D174" s="6"/>
       <c r="E174" s="6"/>
       <c r="F174" s="6"/>
       <c r="G174" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="B175" s="6" t="s">
         <v>20</v>
@@ -6004,57 +6004,57 @@
       <c r="E175" s="6"/>
       <c r="F175" s="6"/>
       <c r="G175" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C176" s="6"/>
       <c r="D176" s="6"/>
       <c r="E176" s="6"/>
       <c r="F176" s="6"/>
       <c r="G176" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C177" s="6"/>
       <c r="D177" s="6"/>
       <c r="E177" s="6"/>
       <c r="F177" s="6"/>
       <c r="G177" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C178" s="6"/>
       <c r="D178" s="6"/>
       <c r="E178" s="6"/>
       <c r="F178" s="6"/>
       <c r="G178" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B179" s="6" t="s">
         <v>20</v>
@@ -6064,29 +6064,29 @@
       <c r="E179" s="6"/>
       <c r="F179" s="6"/>
       <c r="G179" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="6" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="B180" s="6" t="s">
         <v>90</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D180" s="6"/>
       <c r="E180" s="6"/>
       <c r="F180" s="6"/>
       <c r="G180" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B181" s="6" t="s">
         <v>20</v>
@@ -6096,59 +6096,59 @@
       <c r="E181" s="6"/>
       <c r="F181" s="6"/>
       <c r="G181" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C182" s="6"/>
       <c r="D182" s="6"/>
       <c r="E182" s="6"/>
       <c r="F182" s="6"/>
       <c r="G182" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C183" s="6"/>
       <c r="D183" s="6"/>
       <c r="E183" s="6"/>
       <c r="F183" s="6"/>
       <c r="G183" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C184" s="11" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D184" s="6"/>
       <c r="E184" s="6"/>
       <c r="F184" s="6"/>
       <c r="G184" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B185" s="6" t="s">
         <v>20</v>
@@ -6158,76 +6158,76 @@
       <c r="E185" s="6"/>
       <c r="F185" s="6"/>
       <c r="G185" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A186" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C186" s="6"/>
       <c r="D186" s="6"/>
       <c r="E186" s="6"/>
       <c r="F186" s="6"/>
       <c r="G186" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D187" s="6"/>
       <c r="E187" s="6"/>
       <c r="F187" s="6"/>
       <c r="G187" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A188" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D188" s="6"/>
       <c r="E188" s="6"/>
       <c r="F188" s="6"/>
       <c r="G188" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A189" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B189" s="12" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C189" s="6"/>
       <c r="D189" s="6"/>
       <c r="E189" s="6"/>
       <c r="F189" s="6"/>
       <c r="G189" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B190" s="6" t="s">
         <v>20</v>
@@ -6237,1199 +6237,1199 @@
       <c r="E190" s="6"/>
       <c r="F190" s="6"/>
       <c r="G190" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A191" s="6" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D191" s="6"/>
       <c r="E191" s="6"/>
       <c r="F191" s="6"/>
       <c r="G191" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A192" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D192" s="6"/>
       <c r="E192" s="6"/>
       <c r="F192" s="6"/>
       <c r="G192" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A193" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C193" s="6"/>
       <c r="D193" s="6"/>
       <c r="E193" s="6"/>
       <c r="F193" s="6"/>
       <c r="G193" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A194" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C194" s="6"/>
       <c r="D194" s="6"/>
       <c r="E194" s="6"/>
       <c r="F194" s="6"/>
       <c r="G194" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B195" s="6" t="s">
         <v>90</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D195" s="6"/>
       <c r="E195" s="6"/>
       <c r="F195" s="6"/>
       <c r="G195" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C196" s="6"/>
       <c r="D196" s="6"/>
       <c r="E196" s="6"/>
       <c r="F196" s="6"/>
       <c r="G196" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="6" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C197" s="6"/>
       <c r="D197" s="6"/>
       <c r="E197" s="6"/>
       <c r="F197" s="6"/>
       <c r="G197" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C198" s="6"/>
       <c r="D198" s="6"/>
       <c r="E198" s="6"/>
       <c r="F198" s="6"/>
       <c r="G198" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C199" s="6"/>
       <c r="D199" s="6"/>
       <c r="E199" s="6"/>
       <c r="F199" s="6"/>
       <c r="G199" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C200" s="6"/>
       <c r="D200" s="6"/>
       <c r="E200" s="6"/>
       <c r="F200" s="6"/>
       <c r="G200" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D201" s="6"/>
       <c r="E201" s="6"/>
       <c r="F201" s="6"/>
       <c r="G201" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="202" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C202" s="6"/>
       <c r="D202" s="6"/>
       <c r="E202" s="6"/>
       <c r="F202" s="6"/>
       <c r="G202" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F203" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G203" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B204" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B204" s="6" t="s">
-        <v>165</v>
-      </c>
       <c r="C204" s="6" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E204" s="6"/>
       <c r="F204" s="6"/>
       <c r="G204" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C205" s="6"/>
       <c r="D205" s="6"/>
       <c r="E205" s="6"/>
       <c r="F205" s="6"/>
       <c r="G205" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C206" s="6"/>
       <c r="D206" s="6"/>
       <c r="E206" s="6"/>
       <c r="F206" s="6"/>
       <c r="G206" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="207" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D207" s="6"/>
       <c r="E207" s="6"/>
       <c r="F207" s="6"/>
       <c r="G207" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="208" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F208" s="6"/>
       <c r="G208" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="B209" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E209" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F209" s="6"/>
       <c r="G209" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B210" s="6" t="s">
         <v>83</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D210" s="6"/>
       <c r="E210" s="6"/>
       <c r="F210" s="6"/>
       <c r="G210" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E211" s="6"/>
       <c r="F211" s="6"/>
       <c r="G211" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C212" s="6"/>
       <c r="D212" s="6"/>
       <c r="E212" s="6"/>
       <c r="F212" s="6"/>
       <c r="G212" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A213" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E213" s="6"/>
       <c r="F213" s="6"/>
       <c r="G213" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B214" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B214" s="6" t="s">
-        <v>171</v>
-      </c>
       <c r="C214" s="6" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D214" s="6"/>
       <c r="E214" s="6"/>
       <c r="F214" s="6"/>
       <c r="G214" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C215" s="6"/>
       <c r="D215" s="6"/>
       <c r="E215" s="6"/>
       <c r="F215" s="6"/>
       <c r="G215" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D216" s="6"/>
       <c r="E216" s="6"/>
       <c r="F216" s="6"/>
       <c r="G216" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C217" s="6"/>
       <c r="D217" s="6"/>
       <c r="E217" s="6"/>
       <c r="F217" s="6"/>
       <c r="G217" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B218" s="6" t="s">
         <v>90</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D218" s="6"/>
       <c r="E218" s="6"/>
       <c r="F218" s="6"/>
       <c r="G218" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A219" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D219" s="6"/>
       <c r="E219" s="6"/>
       <c r="F219" s="6"/>
       <c r="G219" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="6" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C220" s="6"/>
       <c r="D220" s="6"/>
       <c r="E220" s="6"/>
       <c r="F220" s="6"/>
       <c r="G220" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="221" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A221" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D221" s="6"/>
       <c r="E221" s="6"/>
       <c r="F221" s="6"/>
       <c r="G221" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A222" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C222" s="6"/>
       <c r="D222" s="6"/>
       <c r="E222" s="6"/>
       <c r="F222" s="6"/>
       <c r="G222" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A223" s="6" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D223" s="6"/>
       <c r="E223" s="6"/>
       <c r="F223" s="6"/>
       <c r="G223" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A224" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C224" s="6"/>
       <c r="D224" s="6"/>
       <c r="E224" s="6"/>
       <c r="F224" s="6"/>
       <c r="G224" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A225" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C225" s="6"/>
       <c r="D225" s="6"/>
       <c r="E225" s="6"/>
       <c r="F225" s="6"/>
       <c r="G225" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="6" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C226" s="6"/>
       <c r="D226" s="6"/>
       <c r="E226" s="6"/>
       <c r="F226" s="6"/>
       <c r="G226" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C227" s="6"/>
       <c r="D227" s="6"/>
       <c r="E227" s="6"/>
       <c r="F227" s="6"/>
       <c r="G227" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C228" s="6"/>
       <c r="D228" s="6"/>
       <c r="E228" s="6"/>
       <c r="F228" s="6"/>
       <c r="G228" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A229" s="6" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C229" s="6"/>
       <c r="D229" s="6"/>
       <c r="E229" s="6"/>
       <c r="F229" s="6"/>
       <c r="G229" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="230" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A230" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D230" s="6"/>
       <c r="E230" s="6"/>
       <c r="F230" s="6"/>
       <c r="G230" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D231" s="6"/>
       <c r="E231" s="6"/>
       <c r="F231" s="6"/>
       <c r="G231" s="8" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="232" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A232" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B232" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E232" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F232" s="6"/>
       <c r="G232" s="8" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="233" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A233" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C233" s="6"/>
       <c r="D233" s="6"/>
       <c r="E233" s="6"/>
       <c r="F233" s="6"/>
       <c r="G233" s="8" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D234" s="6"/>
       <c r="E234" s="6"/>
       <c r="F234" s="6"/>
       <c r="G234" s="8" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="235" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A235" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C235" s="6"/>
       <c r="D235" s="6"/>
       <c r="E235" s="6"/>
       <c r="F235" s="6"/>
       <c r="G235" s="8" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C236" s="6"/>
       <c r="D236" s="6"/>
       <c r="E236" s="6"/>
       <c r="F236" s="6"/>
       <c r="G236" s="8" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="6" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C237" s="6"/>
       <c r="D237" s="6"/>
       <c r="E237" s="6"/>
       <c r="F237" s="6"/>
       <c r="G237" s="8" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C238" s="6"/>
       <c r="D238" s="6"/>
       <c r="E238" s="6"/>
       <c r="F238" s="6"/>
       <c r="G238" s="8" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="239" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A239" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D239" s="6"/>
       <c r="E239" s="6"/>
       <c r="F239" s="6"/>
       <c r="G239" s="8" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C240" s="6"/>
       <c r="D240" s="6"/>
       <c r="E240" s="6"/>
       <c r="F240" s="6"/>
       <c r="G240" s="8" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C241" s="6"/>
       <c r="D241" s="6"/>
       <c r="E241" s="6"/>
       <c r="F241" s="6"/>
       <c r="G241" s="8" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C242" s="6"/>
       <c r="D242" s="6"/>
       <c r="E242" s="6"/>
       <c r="F242" s="6"/>
       <c r="G242" s="8" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D243" s="6"/>
       <c r="E243" s="6"/>
       <c r="F243" s="6"/>
       <c r="G243" s="8" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D244" s="6"/>
       <c r="E244" s="6"/>
       <c r="F244" s="6"/>
       <c r="G244" s="8" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="6" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C245" s="6"/>
       <c r="D245" s="6"/>
       <c r="E245" s="6"/>
       <c r="F245" s="6"/>
       <c r="G245" s="8" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="6" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D246" s="6"/>
       <c r="E246" s="6"/>
       <c r="F246" s="6"/>
       <c r="G246" s="8" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B247" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D247" s="6"/>
       <c r="E247" s="6"/>
       <c r="F247" s="6"/>
       <c r="G247" s="8" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="248" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A248" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="E248" s="6" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F248" s="6"/>
       <c r="G248" s="8" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A249" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E249" s="6"/>
       <c r="F249" s="6"/>
       <c r="G249" s="8" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="250" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A250" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D250" s="6"/>
       <c r="E250" s="6"/>
       <c r="F250" s="6"/>
       <c r="G250" s="8" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C251" s="6"/>
       <c r="D251" s="6"/>
       <c r="E251" s="6"/>
       <c r="F251" s="6"/>
       <c r="G251" s="8" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D252" s="6"/>
       <c r="E252" s="6"/>
       <c r="F252" s="6"/>
       <c r="G252" s="8" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="253" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A253" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C253" s="6"/>
       <c r="D253" s="6"/>
       <c r="E253" s="6"/>
       <c r="F253" s="6"/>
       <c r="G253" s="8" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="254" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A254" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C254" s="6"/>
       <c r="D254" s="6"/>
       <c r="E254" s="6"/>
       <c r="F254" s="6"/>
       <c r="G254" s="8" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D255" s="6"/>
       <c r="E255" s="6"/>
       <c r="F255" s="6"/>
       <c r="G255" s="8" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="H255" s="1"/>
     </row>
     <row r="256" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A256" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D256" s="6"/>
       <c r="E256" s="6"/>
       <c r="F256" s="6"/>
       <c r="G256" s="8" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="257" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A257" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C257" s="6"/>
       <c r="D257" s="6"/>
       <c r="E257" s="6"/>
       <c r="F257" s="6"/>
       <c r="G257" s="8" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C258" s="6"/>
       <c r="D258" s="6"/>
       <c r="E258" s="6"/>
       <c r="F258" s="6"/>
       <c r="G258" s="8" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="6" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D259" s="6"/>
       <c r="E259" s="6"/>
       <c r="F259" s="6"/>
       <c r="G259" s="8" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D260" s="6" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E260" s="6"/>
       <c r="F260" s="6"/>
       <c r="G260" s="8" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C261" s="6"/>
       <c r="D261" s="6"/>
       <c r="E261" s="6"/>
       <c r="F261" s="6"/>
       <c r="G261" s="8" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="262" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A262" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D262" s="6" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E262" s="6"/>
       <c r="F262" s="6"/>
       <c r="G262" s="8" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B263" s="6" t="s">
         <v>20</v>
@@ -7439,26 +7439,26 @@
       <c r="E263" s="6"/>
       <c r="F263" s="6"/>
       <c r="G263" s="8" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="264" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A264" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D264" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E264" s="6"/>
       <c r="F264" s="6"/>
       <c r="G264" s="8" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="265" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -7466,16 +7466,16 @@
         <v>53</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C265" s="11" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D265" s="6"/>
       <c r="E265" s="6"/>
       <c r="F265" s="6"/>
       <c r="G265" s="8" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.3">
@@ -7486,147 +7486,147 @@
         <v>84</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D266" s="6"/>
       <c r="E266" s="6"/>
       <c r="F266" s="6"/>
       <c r="G266" s="8" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="6" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B267" s="6" t="s">
         <v>87</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D267" s="6" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E267" s="6" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F267" s="6"/>
       <c r="G267" s="8" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="268" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A268" s="6" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D268" s="6" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E268" s="6"/>
       <c r="F268" s="6"/>
       <c r="G268" s="8" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="269" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A269" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D269" s="6"/>
       <c r="E269" s="6"/>
       <c r="F269" s="6"/>
       <c r="G269" s="8" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="270" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A270" s="6" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D270" s="6" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="E270" s="6"/>
       <c r="F270" s="6"/>
       <c r="G270" s="8" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="271" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A271" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D271" s="6" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E271" s="6" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="F271" s="6"/>
       <c r="G271" s="8" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="272" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A272" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C272" s="11" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D272" s="6"/>
       <c r="E272" s="6"/>
       <c r="F272" s="6"/>
       <c r="G272" s="8" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="273" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A273" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C273" s="6"/>
       <c r="D273" s="6"/>
       <c r="E273" s="6"/>
       <c r="F273" s="6"/>
       <c r="G273" s="8" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B274" s="6" t="s">
         <v>0</v>
@@ -7636,246 +7636,246 @@
       <c r="E274" s="6"/>
       <c r="F274" s="6"/>
       <c r="G274" s="8" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="275" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A275" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C275" s="6"/>
       <c r="D275" s="6"/>
       <c r="E275" s="6"/>
       <c r="F275" s="6"/>
       <c r="G275" s="8" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="276" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A276" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C276" s="6" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D276" s="6"/>
       <c r="E276" s="6"/>
       <c r="F276" s="6"/>
       <c r="G276" s="8" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="277" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A277" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C277" s="6"/>
       <c r="D277" s="6"/>
       <c r="E277" s="6"/>
       <c r="F277" s="6"/>
       <c r="G277" s="8" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="6" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C278" s="6" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D278" s="6"/>
       <c r="E278" s="6"/>
       <c r="F278" s="6"/>
       <c r="G278" s="8" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D279" s="6"/>
       <c r="E279" s="6"/>
       <c r="F279" s="6"/>
       <c r="G279" s="8" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="6" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C280" s="6"/>
       <c r="D280" s="6"/>
       <c r="E280" s="6"/>
       <c r="F280" s="6"/>
       <c r="G280" s="8" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="6" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C281" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D281" s="6"/>
       <c r="E281" s="6"/>
       <c r="F281" s="6"/>
       <c r="G281" s="8" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="6" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C282" s="6"/>
       <c r="D282" s="6"/>
       <c r="E282" s="6"/>
       <c r="F282" s="6"/>
       <c r="G282" s="8" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="283" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A283" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C283" s="6" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D283" s="6"/>
       <c r="E283" s="6"/>
       <c r="F283" s="6"/>
       <c r="G283" s="8" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C284" s="6"/>
       <c r="D284" s="6"/>
       <c r="E284" s="6"/>
       <c r="F284" s="6"/>
       <c r="G284" s="8" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C285" s="6"/>
       <c r="D285" s="6"/>
       <c r="E285" s="6"/>
       <c r="F285" s="6"/>
       <c r="G285" s="8" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C286" s="6"/>
       <c r="D286" s="6"/>
       <c r="E286" s="6"/>
       <c r="F286" s="6"/>
       <c r="G286" s="8" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="287" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A287" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C287" s="6" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D287" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E287" s="6"/>
       <c r="F287" s="6"/>
       <c r="G287" s="8" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="288" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A288" s="6" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C288" s="6"/>
       <c r="D288" s="6"/>
       <c r="E288" s="6"/>
       <c r="F288" s="6"/>
       <c r="G288" s="8" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C289" s="6"/>
       <c r="D289" s="6"/>
       <c r="E289" s="6"/>
       <c r="F289" s="6"/>
       <c r="G289" s="8" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.3">
@@ -7883,33 +7883,33 @@
         <v>21</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C290" s="6" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D290" s="6"/>
       <c r="E290" s="6"/>
       <c r="F290" s="6"/>
       <c r="G290" s="8" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="291" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A291" s="6" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C291" s="6" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D291" s="6"/>
       <c r="E291" s="6"/>
       <c r="F291" s="6"/>
       <c r="G291" s="8" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="292" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -7917,14 +7917,14 @@
         <v>94</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C292" s="6"/>
       <c r="D292" s="6"/>
       <c r="E292" s="6"/>
       <c r="F292" s="6"/>
       <c r="G292" s="8" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.3">
@@ -7932,451 +7932,451 @@
         <v>126</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C293" s="6" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D293" s="6"/>
       <c r="E293" s="6"/>
       <c r="F293" s="6"/>
       <c r="G293" s="8" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="294" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A294" s="6" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C294" s="6" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D294" s="6"/>
       <c r="E294" s="6"/>
       <c r="F294" s="6"/>
       <c r="G294" s="8" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="295" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A295" s="6" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C295" s="6" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D295" s="6"/>
       <c r="E295" s="6"/>
       <c r="F295" s="6"/>
       <c r="G295" s="8" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="296" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A296" s="6" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C296" s="6" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D296" s="6" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E296" s="6"/>
       <c r="F296" s="6"/>
       <c r="G296" s="8" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="297" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A297" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C297" s="6" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D297" s="6"/>
       <c r="E297" s="6"/>
       <c r="F297" s="6"/>
       <c r="G297" s="8" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" s="6" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C298" s="6" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D298" s="6" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="E298" s="6" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F298" s="6"/>
       <c r="G298" s="8" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C299" s="6" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D299" s="6" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E299" s="6"/>
       <c r="F299" s="6"/>
       <c r="G299" s="8" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B300" s="6" t="s">
         <v>88</v>
       </c>
       <c r="C300" s="6" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D300" s="6"/>
       <c r="E300" s="6"/>
       <c r="F300" s="6"/>
       <c r="G300" s="8" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="301" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A301" s="6" t="s">
-        <v>236</v>
+        <v>661</v>
       </c>
       <c r="B301" s="6" t="s">
         <v>88</v>
       </c>
       <c r="C301" s="6" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D301" s="6"/>
       <c r="E301" s="6"/>
       <c r="F301" s="6"/>
       <c r="G301" s="8" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="302" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A302" s="6" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C302" s="6"/>
       <c r="D302" s="6"/>
       <c r="E302" s="6"/>
       <c r="F302" s="6"/>
       <c r="G302" s="8" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B303" s="6" t="s">
         <v>83</v>
       </c>
       <c r="C303" s="6" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D303" s="6"/>
       <c r="E303" s="6"/>
       <c r="F303" s="6"/>
       <c r="G303" s="8" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" s="6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C304" s="6" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D304" s="6"/>
       <c r="E304" s="6"/>
       <c r="F304" s="6"/>
       <c r="G304" s="8" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="305" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A305" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B305" s="11" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C305" s="11" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D305" s="6"/>
       <c r="E305" s="6"/>
       <c r="F305" s="6"/>
       <c r="G305" s="8" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" s="13" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C306" s="6"/>
       <c r="D306" s="6"/>
       <c r="E306" s="6"/>
       <c r="F306" s="6"/>
       <c r="G306" s="8" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" s="10" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C307" s="6"/>
       <c r="D307" s="6"/>
       <c r="E307" s="6"/>
       <c r="F307" s="6"/>
       <c r="G307" s="8" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B308" s="10" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C308" s="10" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D308" s="10"/>
       <c r="E308" s="6"/>
       <c r="F308" s="6"/>
       <c r="G308" s="8" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B309" s="10" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C309" s="10"/>
       <c r="D309" s="6"/>
       <c r="E309" s="6"/>
       <c r="F309" s="6"/>
       <c r="G309" s="8" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="310" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A310" s="10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C310" s="6"/>
       <c r="D310" s="6"/>
       <c r="E310" s="6"/>
       <c r="F310" s="6"/>
       <c r="G310" s="8" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="311" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A311" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C311" s="6" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D311" s="6"/>
       <c r="E311" s="6"/>
       <c r="F311" s="6"/>
       <c r="G311" s="8" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" s="6" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C312" s="6"/>
       <c r="D312" s="6"/>
       <c r="E312" s="6"/>
       <c r="F312" s="6"/>
       <c r="G312" s="8" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" s="6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C313" s="6"/>
       <c r="D313" s="6"/>
       <c r="E313" s="6"/>
       <c r="F313" s="6"/>
       <c r="G313" s="8" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" s="6" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C314" s="6"/>
       <c r="D314" s="6"/>
       <c r="E314" s="6"/>
       <c r="F314" s="6"/>
       <c r="G314" s="8" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="315" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A315" s="6" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C315" s="6"/>
       <c r="D315" s="6"/>
       <c r="E315" s="6"/>
       <c r="F315" s="6"/>
       <c r="G315" s="8" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="316" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A316" s="6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C316" s="6" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D316" s="6"/>
       <c r="E316" s="6"/>
       <c r="F316" s="6"/>
       <c r="G316" s="8" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" s="6" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C317" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D317" s="6"/>
       <c r="E317" s="6"/>
       <c r="F317" s="6"/>
       <c r="G317" s="8" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="318" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A318" s="6" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C318" s="6"/>
       <c r="D318" s="6"/>
       <c r="E318" s="6"/>
       <c r="F318" s="6"/>
       <c r="G318" s="8" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="319" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A319" s="6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C319" s="11" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D319" s="6"/>
       <c r="E319" s="6"/>
       <c r="F319" s="6"/>
       <c r="G319" s="8" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="320" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A320" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B320" s="6" t="s">
         <v>20</v>
@@ -8386,174 +8386,174 @@
       <c r="E320" s="6"/>
       <c r="F320" s="6"/>
       <c r="G320" s="8" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="321" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A321" s="6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C321" s="6" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D321" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E321" s="6"/>
       <c r="F321" s="6"/>
       <c r="G321" s="8" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="322" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A322" s="6" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C322" s="6"/>
       <c r="D322" s="6"/>
       <c r="E322" s="6"/>
       <c r="F322" s="6"/>
       <c r="G322" s="8" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="323" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A323" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C323" s="6" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D323" s="6" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E323" s="6"/>
       <c r="F323" s="6"/>
       <c r="G323" s="8" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C324" s="6"/>
       <c r="D324" s="6"/>
       <c r="E324" s="6"/>
       <c r="F324" s="6"/>
       <c r="G324" s="8" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="325" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A325" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C325" s="6"/>
       <c r="D325" s="6"/>
       <c r="E325" s="6"/>
       <c r="F325" s="6"/>
       <c r="G325" s="8" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="326" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A326" s="6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C326" s="6"/>
       <c r="D326" s="6"/>
       <c r="E326" s="6"/>
       <c r="F326" s="6"/>
       <c r="G326" s="8" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" s="6" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C327" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D327" s="6"/>
       <c r="E327" s="6"/>
       <c r="F327" s="6"/>
       <c r="G327" s="8" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" s="6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C328" s="6" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D328" s="6"/>
       <c r="E328" s="6"/>
       <c r="F328" s="6"/>
       <c r="G328" s="8" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C329" s="6"/>
       <c r="D329" s="6"/>
       <c r="E329" s="6"/>
       <c r="F329" s="6"/>
       <c r="G329" s="8" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330" s="6" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C330" s="6"/>
       <c r="D330" s="6"/>
       <c r="E330" s="6"/>
       <c r="F330" s="6"/>
       <c r="G330" s="8" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331" s="6" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B331" s="6" t="s">
         <v>20</v>
@@ -8563,89 +8563,89 @@
       <c r="E331" s="6"/>
       <c r="F331" s="6"/>
       <c r="G331" s="8" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="332" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A332" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C332" s="6"/>
       <c r="D332" s="6"/>
       <c r="E332" s="6"/>
       <c r="F332" s="6"/>
       <c r="G332" s="8" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333" s="6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C333" s="6"/>
       <c r="D333" s="6"/>
       <c r="E333" s="6"/>
       <c r="F333" s="6"/>
       <c r="G333" s="8" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="334" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A334" s="6" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C334" s="6"/>
       <c r="D334" s="6"/>
       <c r="E334" s="6"/>
       <c r="F334" s="6"/>
       <c r="G334" s="8" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="335" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A335" s="6" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C335" s="6"/>
       <c r="D335" s="6"/>
       <c r="E335" s="6"/>
       <c r="F335" s="6"/>
       <c r="G335" s="8" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="336" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A336" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C336" s="6" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D336" s="6"/>
       <c r="E336" s="6"/>
       <c r="F336" s="6"/>
       <c r="G336" s="8" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B337" s="6" t="s">
         <v>20</v>
@@ -8655,282 +8655,282 @@
       <c r="E337" s="6"/>
       <c r="F337" s="6"/>
       <c r="G337" s="8" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="338" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A338" s="6" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C338" s="6" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D338" s="6"/>
       <c r="E338" s="6"/>
       <c r="F338" s="6"/>
       <c r="G338" s="8" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339" s="6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B339" s="10" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C339" s="10" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D339" s="10"/>
       <c r="E339" s="6"/>
       <c r="F339" s="6"/>
       <c r="G339" s="8" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B340" s="6" t="s">
         <v>87</v>
       </c>
       <c r="C340" s="6" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D340" s="6" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E340" s="6" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F340" s="6"/>
       <c r="G340" s="8" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341" s="10" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B341" s="10" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C341" s="10" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D341" s="10" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E341" s="6"/>
       <c r="F341" s="6"/>
       <c r="G341" s="8" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="342" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A342" s="10" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C342" s="6" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D342" s="6"/>
       <c r="E342" s="6"/>
       <c r="F342" s="6"/>
       <c r="G342" s="8" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343" s="6" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C343" s="6" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D343" s="6"/>
       <c r="E343" s="6"/>
       <c r="F343" s="6"/>
       <c r="G343" s="8" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" s="6" t="s">
-        <v>641</v>
+        <v>662</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C344" s="6" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D344" s="6"/>
       <c r="E344" s="6"/>
       <c r="F344" s="6"/>
       <c r="G344" s="8" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345" s="6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C345" s="6"/>
       <c r="D345" s="6"/>
       <c r="E345" s="6"/>
       <c r="F345" s="6"/>
       <c r="G345" s="8" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" s="6" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C346" s="6"/>
       <c r="D346" s="6"/>
       <c r="E346" s="6"/>
       <c r="F346" s="6"/>
       <c r="G346" s="8" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" s="6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B347" s="14" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C347" s="6"/>
       <c r="D347" s="6"/>
       <c r="E347" s="6"/>
       <c r="F347" s="6"/>
       <c r="G347" s="8" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B348" s="14" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C348" s="6" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D348" s="6"/>
       <c r="E348" s="6"/>
       <c r="F348" s="6"/>
       <c r="G348" s="8" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C349" s="9" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D349" s="6"/>
       <c r="E349" s="6"/>
       <c r="F349" s="6"/>
       <c r="G349" s="8" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="350" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A350" s="6" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D350" s="6"/>
       <c r="E350" s="6"/>
       <c r="F350" s="6"/>
       <c r="G350" s="8" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="351" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A351" s="6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C351" s="6"/>
       <c r="D351" s="6"/>
       <c r="E351" s="6"/>
       <c r="F351" s="6"/>
       <c r="G351" s="8" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" s="6" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C352" s="6"/>
       <c r="D352" s="6"/>
       <c r="E352" s="6"/>
       <c r="F352" s="6"/>
       <c r="G352" s="8" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="353" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A353" s="6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C353" s="6" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D353" s="6" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E353" s="6"/>
       <c r="F353" s="6"/>
       <c r="G353" s="8" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354" s="6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B354" s="6" t="s">
         <v>20</v>
@@ -8940,284 +8940,284 @@
       <c r="E354" s="6"/>
       <c r="F354" s="6"/>
       <c r="G354" s="8" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" s="6" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="B355" s="6" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C355" s="6"/>
       <c r="D355" s="6"/>
       <c r="E355" s="6"/>
       <c r="F355" s="6"/>
       <c r="G355" s="8" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356" s="6" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C356" s="6"/>
       <c r="D356" s="6"/>
       <c r="E356" s="6"/>
       <c r="F356" s="6"/>
       <c r="G356" s="8" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C357" s="6"/>
       <c r="D357" s="6"/>
       <c r="E357" s="6"/>
       <c r="F357" s="6"/>
       <c r="G357" s="8" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" s="6" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C358" s="6"/>
       <c r="D358" s="6"/>
       <c r="E358" s="6"/>
       <c r="F358" s="6"/>
       <c r="G358" s="8" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="359" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A359" s="6" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C359" s="6" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D359" s="11" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E359" s="6"/>
       <c r="F359" s="6"/>
       <c r="G359" s="8" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C360" s="6" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D360" s="6"/>
       <c r="E360" s="6"/>
       <c r="F360" s="6"/>
       <c r="G360" s="8" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="361" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A361" s="6" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C361" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D361" s="6"/>
       <c r="E361" s="6"/>
       <c r="F361" s="6"/>
       <c r="G361" s="8" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362" s="6" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C362" s="6" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D362" s="6"/>
       <c r="E362" s="6"/>
       <c r="F362" s="6"/>
       <c r="G362" s="8" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363" s="6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C363" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D363" s="6"/>
       <c r="E363" s="6"/>
       <c r="F363" s="6"/>
       <c r="G363" s="8" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" s="10" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B364" s="10" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C364" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D364" s="6"/>
       <c r="E364" s="6"/>
       <c r="F364" s="6"/>
       <c r="G364" s="8" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" s="6" t="s">
-        <v>223</v>
+        <v>663</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C365" s="6"/>
       <c r="D365" s="6"/>
       <c r="E365" s="6"/>
       <c r="F365" s="6"/>
       <c r="G365" s="8" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="366" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C366" s="6"/>
       <c r="D366" s="6"/>
       <c r="E366" s="6"/>
       <c r="F366" s="6"/>
       <c r="G366" s="8" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="367" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A367" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C367" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D367" s="6"/>
       <c r="E367" s="6"/>
       <c r="F367" s="6"/>
       <c r="G367" s="8" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C368" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D368" s="6"/>
       <c r="E368" s="6"/>
       <c r="F368" s="6"/>
       <c r="G368" s="8" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369" s="6" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C369" s="6" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D369" s="6"/>
       <c r="E369" s="6"/>
       <c r="F369" s="6"/>
       <c r="G369" s="8" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="370" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A370" s="6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C370" s="6"/>
       <c r="D370" s="6"/>
       <c r="E370" s="6"/>
       <c r="F370" s="6"/>
       <c r="G370" s="8" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" s="10" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B371" s="10" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C371" s="10" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D371" s="6"/>
       <c r="E371" s="6"/>
       <c r="F371" s="6"/>
       <c r="G371" s="8" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="372" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -9225,19 +9225,19 @@
         <v>5</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C372" s="6"/>
       <c r="D372" s="6"/>
       <c r="E372" s="6"/>
       <c r="F372" s="6"/>
       <c r="G372" s="8" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B373" s="6" t="s">
         <v>20</v>
@@ -9247,7 +9247,7 @@
       <c r="E373" s="6"/>
       <c r="F373" s="6"/>
       <c r="G373" s="8" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.3">
@@ -9262,22 +9262,22 @@
       <c r="E374" s="6"/>
       <c r="F374" s="6"/>
       <c r="G374" s="8" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="375" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A375" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C375" s="6"/>
       <c r="D375" s="6"/>
       <c r="E375" s="6"/>
       <c r="F375" s="6"/>
       <c r="G375" s="8" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.3">
@@ -9285,168 +9285,168 @@
         <v>109</v>
       </c>
       <c r="B376" s="10" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C376" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D376" s="6"/>
       <c r="E376" s="6"/>
       <c r="F376" s="6"/>
       <c r="G376" s="8" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C377" s="6" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D377" s="6" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E377" s="6"/>
       <c r="F377" s="6"/>
       <c r="G377" s="8" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378" s="6" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C378" s="6"/>
       <c r="D378" s="6"/>
       <c r="E378" s="6"/>
       <c r="F378" s="6"/>
       <c r="G378" s="8" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C379" s="6" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D379" s="6"/>
       <c r="E379" s="6"/>
       <c r="F379" s="6"/>
       <c r="G379" s="8" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C380" s="6" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D380" s="6"/>
       <c r="E380" s="6"/>
       <c r="F380" s="6"/>
       <c r="G380" s="8" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="381" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A381" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C381" s="6"/>
       <c r="D381" s="6"/>
       <c r="E381" s="6"/>
       <c r="F381" s="6"/>
       <c r="G381" s="8" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="382" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A382" s="6" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C382" s="6"/>
       <c r="D382" s="6"/>
       <c r="E382" s="6"/>
       <c r="F382" s="6"/>
       <c r="G382" s="8" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="383" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A383" s="6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C383" s="6"/>
       <c r="D383" s="6"/>
       <c r="E383" s="6"/>
       <c r="F383" s="6"/>
       <c r="G383" s="8" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="384" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A384" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B384" s="11" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C384" s="11" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D384" s="6"/>
       <c r="E384" s="6"/>
       <c r="F384" s="6"/>
       <c r="G384" s="8" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="385" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A385" s="15" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B385" s="15" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C385" s="15" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D385" s="15"/>
       <c r="E385" s="15"/>
       <c r="F385" s="6"/>
       <c r="G385" s="8" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A386" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B386" s="6" t="s">
         <v>20</v>
@@ -9456,172 +9456,172 @@
       <c r="E386" s="6"/>
       <c r="F386" s="6"/>
       <c r="G386" s="8" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387" s="6" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C387" s="6"/>
       <c r="D387" s="6"/>
       <c r="E387" s="6"/>
       <c r="F387" s="6"/>
       <c r="G387" s="8" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C388" s="6" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D388" s="6"/>
       <c r="E388" s="6"/>
       <c r="F388" s="6"/>
       <c r="G388" s="8" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A389" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C389" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D389" s="6"/>
       <c r="E389" s="6"/>
       <c r="F389" s="6"/>
       <c r="G389" s="8" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="390" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A390" s="6" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C390" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D390" s="6"/>
       <c r="E390" s="6"/>
       <c r="F390" s="6"/>
       <c r="G390" s="8" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391" s="6" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C391" s="6" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D391" s="6"/>
       <c r="E391" s="6"/>
       <c r="F391" s="6"/>
       <c r="G391" s="8" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392" s="16" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B392" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="C392" s="6" t="s">
         <v>374</v>
-      </c>
-      <c r="C392" s="6" t="s">
-        <v>378</v>
       </c>
       <c r="D392" s="6"/>
       <c r="E392" s="6"/>
       <c r="F392" s="6"/>
       <c r="G392" s="8" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A393" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C393" s="6"/>
       <c r="D393" s="6"/>
       <c r="E393" s="6"/>
       <c r="F393" s="6"/>
       <c r="G393" s="8" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A394" s="15" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B394" s="15" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C394" s="6"/>
       <c r="D394" s="6"/>
       <c r="E394" s="6"/>
       <c r="F394" s="6"/>
       <c r="G394" s="8" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C395" s="6"/>
       <c r="D395" s="6"/>
       <c r="E395" s="6"/>
       <c r="F395" s="6"/>
       <c r="G395" s="8" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396" s="6" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C396" s="6"/>
       <c r="D396" s="6"/>
       <c r="E396" s="6"/>
       <c r="F396" s="6"/>
       <c r="G396" s="8" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397" s="6" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B397" s="6" t="s">
         <v>85</v>
@@ -9631,86 +9631,86 @@
       <c r="E397" s="6"/>
       <c r="F397" s="6"/>
       <c r="G397" s="8" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="398" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A398" s="6" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C398" s="6"/>
       <c r="D398" s="6"/>
       <c r="E398" s="6"/>
       <c r="F398" s="6"/>
       <c r="G398" s="8" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C399" s="6" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D399" s="6"/>
       <c r="E399" s="6"/>
       <c r="F399" s="6"/>
       <c r="G399" s="8" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="400" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A400" s="6" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="B400" s="6" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C400" s="6"/>
       <c r="D400" s="6"/>
       <c r="E400" s="6"/>
       <c r="F400" s="6"/>
       <c r="G400" s="8" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401" s="17" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B401" s="17" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C401" s="17" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D401" s="6"/>
       <c r="E401" s="6"/>
       <c r="F401" s="18"/>
       <c r="G401" s="8" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="402" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A402" s="19" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C402" s="6"/>
       <c r="D402" s="6"/>
       <c r="E402" s="6"/>
       <c r="F402" s="6"/>
       <c r="G402" s="8" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.3">
@@ -9718,14 +9718,14 @@
         <v>41</v>
       </c>
       <c r="B403" s="11" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C403" s="6"/>
       <c r="D403" s="6"/>
       <c r="E403" s="6"/>
       <c r="F403" s="6"/>
       <c r="G403" s="8" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.3">
@@ -9733,66 +9733,66 @@
         <v>42</v>
       </c>
       <c r="B404" s="11" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C404" s="6"/>
       <c r="D404" s="6"/>
       <c r="E404" s="6"/>
       <c r="F404" s="6"/>
       <c r="G404" s="8" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A405" s="6" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B405" s="11" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C405" s="11"/>
       <c r="D405" s="6"/>
       <c r="E405" s="6"/>
       <c r="F405" s="6"/>
       <c r="G405" s="8" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A406" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B406" s="11" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C406" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D406" s="6"/>
       <c r="E406" s="6"/>
       <c r="F406" s="6"/>
       <c r="G406" s="8" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="407" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A407" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B407" s="11" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C407" s="6"/>
       <c r="D407" s="6"/>
       <c r="E407" s="6"/>
       <c r="F407" s="6"/>
       <c r="G407" s="8" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A408" s="15" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B408" s="15" t="s">
         <v>88</v>
@@ -9802,12 +9802,12 @@
       <c r="E408" s="6"/>
       <c r="F408" s="6"/>
       <c r="G408" s="8" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A409" s="15" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B409" s="15" t="s">
         <v>85</v>
@@ -9817,159 +9817,159 @@
       <c r="E409" s="6"/>
       <c r="F409" s="6"/>
       <c r="G409" s="8" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A410" s="6" t="s">
-        <v>335</v>
+        <v>664</v>
       </c>
       <c r="B410" s="6" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C410" s="6"/>
       <c r="D410" s="6"/>
       <c r="E410" s="6"/>
       <c r="F410" s="6"/>
       <c r="G410" s="8" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="411" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A411" s="6" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B411" s="6" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C411" s="6"/>
       <c r="D411" s="6"/>
       <c r="E411" s="6"/>
       <c r="F411" s="6"/>
       <c r="G411" s="8" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="412" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="15" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B412" s="6" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C412" s="11" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D412" s="6"/>
       <c r="E412" s="6"/>
       <c r="F412" s="6"/>
       <c r="G412" s="8" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="413" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A413" s="6" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B413" s="11" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C413" s="6"/>
       <c r="D413" s="6"/>
       <c r="E413" s="6"/>
       <c r="F413" s="6"/>
       <c r="G413" s="8" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="414" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A414" s="6" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B414" s="11" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C414" s="11" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D414" s="6"/>
       <c r="E414" s="6"/>
       <c r="F414" s="6"/>
       <c r="G414" s="8" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A415" s="6" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B415" s="11" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C415" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D415" s="6"/>
       <c r="E415" s="6"/>
       <c r="F415" s="6"/>
       <c r="G415" s="8" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A416" s="6" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B416" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C416" s="6" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D416" s="6"/>
       <c r="E416" s="6"/>
       <c r="F416" s="6"/>
       <c r="G416" s="8" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="417" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A417" s="6" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B417" s="11" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C417" s="11" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D417" s="6"/>
       <c r="E417" s="6"/>
       <c r="F417" s="6"/>
       <c r="G417" s="8" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A418" s="6" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="B418" s="6" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C418" s="11" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D418" s="6"/>
       <c r="E418" s="6"/>
       <c r="F418" s="6"/>
       <c r="G418" s="8" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A419" s="6" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B419" s="6" t="s">
         <v>20</v>
@@ -9979,146 +9979,146 @@
       <c r="E419" s="6"/>
       <c r="F419" s="6"/>
       <c r="G419" s="8" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="420" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A420" s="6" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B420" s="6" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C420" s="6" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D420" s="6"/>
       <c r="E420" s="6"/>
       <c r="F420" s="6"/>
       <c r="G420" s="8" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A421" s="6" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B421" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C421" s="6"/>
       <c r="D421" s="6"/>
       <c r="E421" s="6"/>
       <c r="F421" s="6"/>
       <c r="G421" s="8" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A422" s="15" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B422" s="6" t="s">
         <v>90</v>
       </c>
       <c r="C422" s="6" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D422" s="6" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E422" s="20"/>
       <c r="F422" s="20"/>
       <c r="G422" s="8" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A423" s="15" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B423" s="6" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C423" s="20"/>
       <c r="D423" s="20"/>
       <c r="E423" s="20"/>
       <c r="F423" s="20"/>
       <c r="G423" s="8" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="424" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A424" s="15" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B424" s="15" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C424" s="6" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D424" s="20"/>
       <c r="E424" s="20"/>
       <c r="F424" s="20"/>
       <c r="G424" s="8" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A425" s="20" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="B425" s="6" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C425" s="20"/>
       <c r="D425" s="20"/>
       <c r="E425" s="20"/>
       <c r="F425" s="20"/>
       <c r="G425" s="8" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="426" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A426" s="20" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="B426" s="11" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C426" s="20"/>
       <c r="D426" s="20"/>
       <c r="E426" s="20"/>
       <c r="F426" s="20"/>
       <c r="G426" s="8" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="427" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A427" s="20" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="B427" s="20" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C427" s="20"/>
       <c r="D427" s="20"/>
       <c r="E427" s="20"/>
       <c r="F427" s="20"/>
       <c r="G427" s="8" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G428" s="21" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.3">
@@ -10127,12 +10127,12 @@
   </sheetData>
   <autoFilter ref="B1:B421" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <customSheetViews>
-    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
+    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
+    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>

--- a/data4.xlsx
+++ b/data4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Константин\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68B7C76E-9093-4AF4-AD55-364059E675CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A9C0C7-A1F8-4FF7-A873-AFDD06461F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1857,9 +1857,6 @@
     <t>заблокирован перевод|Перевела деньги заблокировали| разблокировать перевод</t>
   </si>
   <si>
-    <t>Потерял симку|номер</t>
-  </si>
-  <si>
     <t>Ограничения на снятие наличных|денежных средств</t>
   </si>
   <si>
@@ -1978,9 +1975,6 @@
     <t>Привязать карту к телефону/в телефон</t>
   </si>
   <si>
-    <t>Снять деньги в офисе/ кассе/ у операциониста</t>
-  </si>
-  <si>
     <t>Подвердить платеж| по движению средств| по истории</t>
   </si>
   <si>
@@ -2038,6 +2032,12 @@
   </si>
   <si>
     <t>Претензия|Заявление</t>
+  </si>
+  <si>
+    <t>Потерял симку/номер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Снять деньги у операциониста/ в офисе/в кассе/ </t>
   </si>
 </sst>
 </file>
@@ -3242,8 +3242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H429"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3424,7 +3424,7 @@
     </row>
     <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>462</v>
@@ -3469,7 +3469,7 @@
     </row>
     <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>478</v>
@@ -3873,7 +3873,7 @@
     </row>
     <row r="40" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>488</v>
@@ -3890,7 +3890,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>372</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="46" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>646</v>
+        <v>665</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>379</v>
@@ -4014,7 +4014,7 @@
     </row>
     <row r="49" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>478</v>
@@ -4185,7 +4185,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>365</v>
@@ -4924,7 +4924,7 @@
     </row>
     <row r="107" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>387</v>
@@ -5112,7 +5112,7 @@
     </row>
     <row r="119" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>20</v>
@@ -5238,7 +5238,7 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>471</v>
@@ -5509,7 +5509,7 @@
     </row>
     <row r="144" spans="1:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>523</v>
@@ -5586,7 +5586,7 @@
     </row>
     <row r="149" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>365</v>
@@ -5806,7 +5806,7 @@
     </row>
     <row r="163" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A163" s="6" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B163" s="6" t="s">
         <v>20</v>
@@ -5945,7 +5945,7 @@
     </row>
     <row r="172" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
-        <v>606</v>
+        <v>664</v>
       </c>
       <c r="B172" s="6" t="s">
         <v>466</v>
@@ -5994,7 +5994,7 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B175" s="6" t="s">
         <v>20</v>
@@ -6069,7 +6069,7 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B180" s="6" t="s">
         <v>90</v>
@@ -6242,7 +6242,7 @@
     </row>
     <row r="191" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A191" s="6" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B191" s="6" t="s">
         <v>180</v>
@@ -6338,7 +6338,7 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B197" s="6" t="s">
         <v>471</v>
@@ -6430,7 +6430,7 @@
     </row>
     <row r="203" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B203" s="6" t="s">
         <v>404</v>
@@ -6502,7 +6502,7 @@
     </row>
     <row r="207" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B207" s="6" t="s">
         <v>481</v>
@@ -6519,7 +6519,7 @@
     </row>
     <row r="208" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B208" s="6" t="s">
         <v>418</v>
@@ -6540,7 +6540,7 @@
     </row>
     <row r="209" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B209" s="6" t="s">
         <v>89</v>
@@ -6729,7 +6729,7 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="6" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B220" s="6" t="s">
         <v>376</v>
@@ -6776,7 +6776,7 @@
     </row>
     <row r="223" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A223" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B223" s="6" t="s">
         <v>371</v>
@@ -6868,7 +6868,7 @@
     </row>
     <row r="229" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A229" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B229" s="6" t="s">
         <v>402</v>
@@ -7126,7 +7126,7 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="6" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B245" s="6" t="s">
         <v>382</v>
@@ -7359,7 +7359,7 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B259" s="6" t="s">
         <v>201</v>
@@ -7518,7 +7518,7 @@
     </row>
     <row r="268" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A268" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B268" s="6" t="s">
         <v>172</v>
@@ -7688,7 +7688,7 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="6" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B278" s="6" t="s">
         <v>161</v>
@@ -7737,7 +7737,7 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B281" s="6" t="s">
         <v>426</v>
@@ -7754,7 +7754,7 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="6" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B282" s="6" t="s">
         <v>406</v>
@@ -7850,7 +7850,7 @@
     </row>
     <row r="288" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A288" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B288" s="6" t="s">
         <v>436</v>
@@ -7897,7 +7897,7 @@
     </row>
     <row r="291" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A291" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B291" s="6" t="s">
         <v>492</v>
@@ -7946,7 +7946,7 @@
     </row>
     <row r="294" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A294" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B294" s="6" t="s">
         <v>490</v>
@@ -7963,7 +7963,7 @@
     </row>
     <row r="295" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A295" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B295" s="6" t="s">
         <v>490</v>
@@ -7980,7 +7980,7 @@
     </row>
     <row r="296" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A296" s="6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B296" s="6" t="s">
         <v>491</v>
@@ -8016,7 +8016,7 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" s="6" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B298" s="6" t="s">
         <v>374</v>
@@ -8073,7 +8073,7 @@
     </row>
     <row r="301" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A301" s="6" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B301" s="6" t="s">
         <v>88</v>
@@ -8090,7 +8090,7 @@
     </row>
     <row r="302" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A302" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B302" s="6" t="s">
         <v>479</v>
@@ -8250,7 +8250,7 @@
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B312" s="6" t="s">
         <v>443</v>
@@ -8280,7 +8280,7 @@
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" s="6" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B314" s="6" t="s">
         <v>445</v>
@@ -8295,7 +8295,7 @@
     </row>
     <row r="315" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A315" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B315" s="6" t="s">
         <v>446</v>
@@ -8344,7 +8344,7 @@
     </row>
     <row r="318" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A318" s="6" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B318" s="6" t="s">
         <v>471</v>
@@ -8489,7 +8489,7 @@
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" s="6" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B327" s="6" t="s">
         <v>464</v>
@@ -8538,7 +8538,7 @@
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B330" s="6" t="s">
         <v>365</v>
@@ -8613,7 +8613,7 @@
     </row>
     <row r="335" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A335" s="6" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B335" s="6" t="s">
         <v>397</v>
@@ -8734,7 +8734,7 @@
     </row>
     <row r="342" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A342" s="10" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B342" s="6" t="s">
         <v>423</v>
@@ -8768,7 +8768,7 @@
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" s="6" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B344" s="6" t="s">
         <v>497</v>
@@ -8800,7 +8800,7 @@
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" s="6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B346" s="6" t="s">
         <v>498</v>
@@ -8864,7 +8864,7 @@
     </row>
     <row r="350" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A350" s="6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B350" s="6" t="s">
         <v>500</v>
@@ -8945,7 +8945,7 @@
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" s="6" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B355" s="6" t="s">
         <v>365</v>
@@ -9109,7 +9109,7 @@
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" s="6" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B365" s="6" t="s">
         <v>382</v>
@@ -9461,7 +9461,7 @@
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387" s="6" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B387" s="6" t="s">
         <v>365</v>
@@ -9636,7 +9636,7 @@
     </row>
     <row r="398" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A398" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B398" s="6" t="s">
         <v>375</v>
@@ -9668,7 +9668,7 @@
     </row>
     <row r="400" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A400" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B400" s="6" t="s">
         <v>473</v>
@@ -9822,7 +9822,7 @@
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A410" s="6" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B410" s="6" t="s">
         <v>457</v>
@@ -9952,7 +9952,7 @@
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A418" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B418" s="6" t="s">
         <v>433</v>
@@ -10067,7 +10067,7 @@
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A425" s="20" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B425" s="6" t="s">
         <v>365</v>
@@ -10082,7 +10082,7 @@
     </row>
     <row r="426" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A426" s="20" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B426" s="11" t="s">
         <v>402</v>
@@ -10097,7 +10097,7 @@
     </row>
     <row r="427" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A427" s="20" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B427" s="20" t="s">
         <v>533</v>

--- a/data4.xlsx
+++ b/data4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Константин\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A9C0C7-A1F8-4FF7-A873-AFDD06461F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F420C37-AB45-41B3-8B40-0DDDD8853AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,8 +23,8 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
     <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
-    <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2037,7 +2037,7 @@
     <t>Потерял симку/номер</t>
   </si>
   <si>
-    <t xml:space="preserve">Снять деньги у операциониста/ в офисе/в кассе/ </t>
+    <t xml:space="preserve">Снять деньги у операциониста| Снять деньги в офисе/в кассе </t>
   </si>
 </sst>
 </file>
@@ -3243,7 +3243,7 @@
   <dimension ref="A1:H429"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10127,12 +10127,12 @@
   </sheetData>
   <autoFilter ref="B1:B421" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <customSheetViews>
-    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
+    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
+    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>

--- a/data4.xlsx
+++ b/data4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Константин\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Константин\Desktop\Ассистент\V4 ФИНАЛ\Физики\Assistant Final ком, поиск по части слова UX, кастомная модель\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F420C37-AB45-41B3-8B40-0DDDD8853AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75BBC98-6EF4-4A7A-A915-1D0E00B7E7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,8 +23,8 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
     <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
-    <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -64,6 +64,9 @@
     <t>Не знаю номер карты/счета для входа в приложение</t>
   </si>
   <si>
+    <t>Мне звонили, оформили кредит (действие совершено)</t>
+  </si>
+  <si>
     <t>Партнерская программа</t>
   </si>
   <si>
@@ -154,6 +157,9 @@
     <t>Карту перевыпустить размагнитилась</t>
   </si>
   <si>
+    <t>Снять деньги в офисе, кассе, у операциониста</t>
+  </si>
+  <si>
     <t xml:space="preserve">Курьер не отдает карту </t>
   </si>
   <si>
@@ -172,6 +178,10 @@
     <t>Внесение платежа</t>
   </si>
   <si>
+    <t>Хочу связь с оператором уточнить информацию по поводу того что пополнила кредитную карту деньги получается / 
+Хотела бы узнать поступил ли у меня платеж на кредитную карту последние семьсот рублей</t>
+  </si>
+  <si>
     <t xml:space="preserve">Не  могу получить выписку </t>
   </si>
   <si>
@@ -202,6 +212,9 @@
     <t>Не типовая справка</t>
   </si>
   <si>
+    <t>Мне не могут перевести из другого банка / мне не могут перевести</t>
+  </si>
+  <si>
     <t>Кэшбэк заправка</t>
   </si>
   <si>
@@ -211,6 +224,18 @@
     <t>Как мне заказать карту через ссылку по пригласи друга</t>
   </si>
   <si>
+    <t>Сервис заправки / Заправки / Не прошла оплата на заправке</t>
+  </si>
+  <si>
+    <t>Нужно кредит / Не нужен кредит / Не нужнО кредит / Мне не надо кредит / Хочу кредит / Нужен кредит</t>
+  </si>
+  <si>
+    <t>Проблема с получением карты / Не могу получить карту</t>
+  </si>
+  <si>
+    <t>Не получиЛ карту / Не получилИ карту</t>
+  </si>
+  <si>
     <t xml:space="preserve">Заказал стикер </t>
   </si>
   <si>
@@ -232,9 +257,15 @@
     <t xml:space="preserve">Онлайн платеж не проходит </t>
   </si>
   <si>
+    <t xml:space="preserve">Мне не отвечают в чате / Долго отвечают в чате </t>
+  </si>
+  <si>
     <t>Украли / Потерял телефон</t>
   </si>
   <si>
+    <t>Подвердить платеж, по движению средств, по истории</t>
+  </si>
+  <si>
     <t>По списанию</t>
   </si>
   <si>
@@ -343,15 +374,33 @@
     <t>Начислили проценты почему</t>
   </si>
   <si>
+    <t>Не нужна мне комиссия мне нужны наличные деньги у меня Оформлен кредит в вашем банке пятьсот три/здравствуйте я вот Сегодня заказала кредит наличными мне одобрили мне нужно Снять наличные как это сделать</t>
+  </si>
+  <si>
+    <t>Где деньги / где мои деньги</t>
+  </si>
+  <si>
+    <t>Связаться по добавочному номеру/ ввести добавочный номер/ добавочный номер</t>
+  </si>
+  <si>
+    <t>Позвонить, дозвониться</t>
+  </si>
+  <si>
     <t>Премиальный клиент я или нет</t>
   </si>
   <si>
+    <t>Потерял симку/номер</t>
+  </si>
+  <si>
     <t>График платежей по кредиту</t>
   </si>
   <si>
     <t>Представитель</t>
   </si>
   <si>
+    <t>Получить доступ в приложение/доступ к личному кабинету</t>
+  </si>
+  <si>
     <t>Мой вопрос по акции рекомендуется инвестиции</t>
   </si>
   <si>
@@ -370,15 +419,24 @@
     <t>Cменить контактный номер на карте ребенка</t>
   </si>
   <si>
+    <t>отменить комиссию/вернуть комиссию</t>
+  </si>
+  <si>
     <t>кредитование</t>
   </si>
   <si>
     <t>Меня просили перезвонить</t>
   </si>
   <si>
+    <t xml:space="preserve"> перезвоните мне/заказать обратный звонок/пусть он мне перезвонит</t>
+  </si>
+  <si>
     <t>Мошенники взломали госуслуги</t>
   </si>
   <si>
+    <t>Войти в карту/войти в счет</t>
+  </si>
+  <si>
     <t>банкомат взял купюры и положил ее на карту</t>
   </si>
   <si>
@@ -397,12 +455,19 @@
     <t>не могу зайти в приложение пишет номер телефона не зарегистрирован</t>
   </si>
   <si>
+    <t>можно ли с кредитной карты оплатить обучение в университете /садик</t>
+  </si>
+  <si>
     <t>можно связаться с верой</t>
   </si>
   <si>
     <t>на горячую линию домклик</t>
   </si>
   <si>
+    <t>как узнать зашел ли транш второй от банка/
+получить транш</t>
+  </si>
+  <si>
     <t>персональный менеджер</t>
   </si>
   <si>
@@ -421,9 +486,21 @@
     <t>вопрос по изготовлению карты</t>
   </si>
   <si>
+    <t>Не проходит оплата по карте / не проходит операция по карте / карта не проходит</t>
+  </si>
+  <si>
+    <t>Восстановить доступ к приложению/восстановить вход в приложение</t>
+  </si>
+  <si>
     <t>подключить карту</t>
   </si>
   <si>
+    <t>Претензия/Заявление</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нет доступа к карте/счету;Восстановить доступ к карте/счету  </t>
+  </si>
+  <si>
     <t>Восстановить доступ</t>
   </si>
   <si>
@@ -436,6 +513,9 @@
     <t xml:space="preserve">Поменять выбранные категории кэшбэка </t>
   </si>
   <si>
+    <t>Ограничения на снятие наличных/денежных средств</t>
+  </si>
+  <si>
     <t>Номер не совпадает с карточкой</t>
   </si>
   <si>
@@ -457,6 +537,9 @@
     <t>два раза оплачен штраф</t>
   </si>
   <si>
+    <t>Не работает терминал / не проходит оплата по терминалу / не проходит оплата по эквайрингу</t>
+  </si>
+  <si>
     <t>Партнеры</t>
   </si>
   <si>
@@ -475,6 +558,9 @@
     <t>снять наличные</t>
   </si>
   <si>
+    <t>Несанкционированное списание\снятие</t>
+  </si>
+  <si>
     <t>Связаться с кредитным отделом</t>
   </si>
   <si>
@@ -487,6 +573,9 @@
     <t xml:space="preserve">Состояние счета </t>
   </si>
   <si>
+    <t>Получить зп карту\где зп карта</t>
+  </si>
+  <si>
     <t>Снятие с карты в банкомате стороннего банка</t>
   </si>
   <si>
@@ -496,6 +585,9 @@
     <t>Мне нужнО карту</t>
   </si>
   <si>
+    <t>приложение пишет что я сменил номер семь/не могу сделать перевод пишет что из-за смена номера</t>
+  </si>
+  <si>
     <t>справки и выписки</t>
   </si>
   <si>
@@ -538,6 +630,9 @@
     <t>зайти по номеру карты</t>
   </si>
   <si>
+    <t>вопрос по оформлению кредита/получить кредит</t>
+  </si>
+  <si>
     <t>В приложении</t>
   </si>
   <si>
@@ -556,6 +651,9 @@
     <t>УВ Кредитная карта (UV_CreditCard)</t>
   </si>
   <si>
+    <t>Отказаться\ вопрос по закрытию</t>
+  </si>
+  <si>
     <t>Вопрос по зарплатной карте</t>
   </si>
   <si>
@@ -571,6 +669,9 @@
     <t>Не знаю</t>
   </si>
   <si>
+    <t>Войти в приложение / получить доступ к приложению / зарегистрироваться в приложении</t>
+  </si>
+  <si>
     <t>Оплатить коммунальный платеж</t>
   </si>
   <si>
@@ -598,6 +699,9 @@
     <t>случайно перевела не в тот банк</t>
   </si>
   <si>
+    <t>списывают деньги с другого счета\ пытаетесь долги списали с другого счета</t>
+  </si>
+  <si>
     <t>Вернуть деньги</t>
   </si>
   <si>
@@ -610,6 +714,12 @@
     <t>Цифры (Numbers)</t>
   </si>
   <si>
+    <t>Меня обманули мошенники/ у меня мошеннические действия происходят</t>
+  </si>
+  <si>
+    <t>проверил деньги не пришли/срок зачисления/когда придут деньги</t>
+  </si>
+  <si>
     <t>Проблема</t>
   </si>
   <si>
@@ -637,6 +747,9 @@
     <t>Кредитная и дебетовая карта</t>
   </si>
   <si>
+    <t>заблокирован перевод/Перевела деньги заблокировали/ разблокировать перевод</t>
+  </si>
+  <si>
     <t>Частичное погашение</t>
   </si>
   <si>
@@ -670,6 +783,9 @@
     <t>Несанкционированные звонки</t>
   </si>
   <si>
+    <t>Пароль\нужен пароль\ войти по пароль</t>
+  </si>
+  <si>
     <t>С банкомата не могу снять по карте наличные</t>
   </si>
   <si>
@@ -682,12 +798,18 @@
     <t>Не могу войти в личный кабинет не приходит ли код доступа</t>
   </si>
   <si>
+    <t>Страховка по кредитной карте / страховка по кредиту</t>
+  </si>
+  <si>
     <t xml:space="preserve">узнать статус карты </t>
   </si>
   <si>
     <t>если с матами,тогда на Невозможно</t>
   </si>
   <si>
+    <t>Добавить карту в приложение/ привязать карту в приложение</t>
+  </si>
+  <si>
     <t>Незаконно снимают комиссию</t>
   </si>
   <si>
@@ -703,6 +825,9 @@
     <t>Не зачислил деньги</t>
   </si>
   <si>
+    <t>Забыл пароль\сменить пароль я не помню пароль</t>
+  </si>
+  <si>
     <t>Набор цифр + тематика</t>
   </si>
   <si>
@@ -724,9 +849,18 @@
     <t>Хочу получить кредитную карту</t>
   </si>
   <si>
+    <t>Мне перевели / я переводил себе на альфу</t>
+  </si>
+  <si>
+    <t>Переводил/ был перевод / сделал перевод / я переводил себе</t>
+  </si>
+  <si>
     <t>Я переводил</t>
   </si>
   <si>
+    <t>Перевод / сделать перевод</t>
+  </si>
+  <si>
     <t>Заблокировали номер телефона</t>
   </si>
   <si>
@@ -739,6 +873,9 @@
     <t>Платеж в терминале</t>
   </si>
   <si>
+    <t>Платил в АО, АМ</t>
+  </si>
+  <si>
     <t>По другим данным</t>
   </si>
   <si>
@@ -772,6 +909,15 @@
     <t>Лимит</t>
   </si>
   <si>
+    <t>Кредит/кредит на карту</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вопрос по моему кредиту/оформил кредит </t>
+  </si>
+  <si>
+    <t>Возврат денег / возврат за покупку</t>
+  </si>
+  <si>
     <t>Сколько я могу потратить денег</t>
   </si>
   <si>
@@ -799,9 +945,24 @@
     <t>статус претензии</t>
   </si>
   <si>
+    <t>Добрый день позовите оператора/алло оператора</t>
+  </si>
+  <si>
+    <t>сервис банка/банковские услуги/продукты банка</t>
+  </si>
+  <si>
+    <t>неправильная сумма/неверный процент</t>
+  </si>
+  <si>
     <t>мне нужен оператор для физ лиц</t>
   </si>
   <si>
+    <t>Перенести номер/перейти со своим номеров</t>
+  </si>
+  <si>
+    <t>Экстренный звонок/экстренно соедините с оператором/вопрос жизни и смерти</t>
+  </si>
+  <si>
     <t>он не выдал деньги</t>
   </si>
   <si>
@@ -841,12 +1002,21 @@
     <t>Связь</t>
   </si>
   <si>
+    <t>свяжи/связаться</t>
+  </si>
+  <si>
     <t>я бы хотела поменять в личном кабинете номер телефона</t>
   </si>
   <si>
+    <t>по задолженности/не гасится задолженность/ условия дату суммы платежа</t>
+  </si>
+  <si>
     <t>восстановить логин и пароль банк клиенту</t>
   </si>
   <si>
+    <t>Отключить все платные услуги/ Отключить все услуги</t>
+  </si>
+  <si>
     <t>Какие у меня подключены услуги</t>
   </si>
   <si>
@@ -859,6 +1029,9 @@
     <t>возврат переплаты по субсидии ижс ладно слать по договору солодиловой кристиной сергеевной</t>
   </si>
   <si>
+    <t>я вайлдберрис переслала первый раз в две тысячи и второй раз две тысячи зачислено было три тысячи/сумма получателю пришла меньше чем перевел</t>
+  </si>
+  <si>
     <t>как погасить досрочно</t>
   </si>
   <si>
@@ -868,15 +1041,27 @@
     <t>через телефон</t>
   </si>
   <si>
+    <t>оплатить сотовую связь/мобильную</t>
+  </si>
+  <si>
+    <t>подписка кинопоиск/яндекс плюс</t>
+  </si>
+  <si>
     <t xml:space="preserve">что за подписка </t>
   </si>
   <si>
     <t>УВ Подписки (UV_Podpiski)</t>
   </si>
   <si>
+    <t>объясните программу долгосрочных сбережений/ПДС</t>
+  </si>
+  <si>
     <t>Связаться с оператором отделения</t>
   </si>
   <si>
+    <t>Оплатить карту/Cколько я буду платить за свою карту в месяц</t>
+  </si>
+  <si>
     <t>заявка</t>
   </si>
   <si>
@@ -892,6 +1077,12 @@
     <t>все операторы заняты</t>
   </si>
   <si>
+    <t>Сколько денег на ипотечном счете/баланс ипотечного счета</t>
+  </si>
+  <si>
+    <t>Позовите\ Позовите кожанного мешка\ Соедините с кожанным</t>
+  </si>
+  <si>
     <t>Задолженность по кредитной карте</t>
   </si>
   <si>
@@ -904,6 +1095,12 @@
     <t>Тарифы банка</t>
   </si>
   <si>
+    <t>Ограничение/приостановление по счетам , по карте</t>
+  </si>
+  <si>
+    <t>Ограничения/снять ограничения</t>
+  </si>
+  <si>
     <t>Активировать приложение</t>
   </si>
   <si>
@@ -919,6 +1116,9 @@
     <t>закрыть брокерский счет</t>
   </si>
   <si>
+    <t>Связаться с отделением банка/мне нужен номер филиала в городе сосновый бор</t>
+  </si>
+  <si>
     <t>мне нужен оператор</t>
   </si>
   <si>
@@ -949,6 +1149,9 @@
     <t>Открыть счет и закрыть карту (когда 2 вопроса в одном)</t>
   </si>
   <si>
+    <t>Я хочу с кредитной карты/дебетовой отказаться от страховки/ отказаться от страховки по карте</t>
+  </si>
+  <si>
     <t>Когда поступят деньги с момента возврата от ТСП прошло 15 дней</t>
   </si>
   <si>
@@ -973,9 +1176,18 @@
     <t xml:space="preserve">Я не Василий +  вопрос </t>
   </si>
   <si>
+    <t>кредитный договор/договор</t>
+  </si>
+  <si>
     <t>договор по страховке</t>
   </si>
   <si>
+    <t>Привязать карту к телефону\в телефон</t>
+  </si>
+  <si>
+    <t>Зарегистрировать карту/авторизовать</t>
+  </si>
+  <si>
     <t>статус дебетовой карты</t>
   </si>
   <si>
@@ -1003,9 +1215,15 @@
     <t>Досудебная претензия</t>
   </si>
   <si>
+    <t>Пришлите реквизиты в смс/номер счета в смс</t>
+  </si>
+  <si>
     <t>который оформлен</t>
   </si>
   <si>
+    <t>нужен сотрудник по ипотеке/ипотечный менеджер</t>
+  </si>
+  <si>
     <t>не надо блокировать карту а у меня карта есть блин</t>
   </si>
   <si>
@@ -1033,6 +1251,9 @@
     <t>когда на вас в суд позови оператора</t>
   </si>
   <si>
+    <t>покупка, купить, как купить, про покупку, сделать покупку</t>
+  </si>
+  <si>
     <t>заявку на кредит отменить заявку на кредит</t>
   </si>
   <si>
@@ -1054,6 +1275,9 @@
     <t>Счет ипотеки</t>
   </si>
   <si>
+    <t>Проблема с приложением/ Не работает приложение</t>
+  </si>
+  <si>
     <t>вопрос блокировки карты и всех операций по счетам</t>
   </si>
   <si>
@@ -1075,6 +1299,15 @@
     <t>Заказать  стикер, Заказать стикер</t>
   </si>
   <si>
+    <t xml:space="preserve"> тревел</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Афиша / купить билет в кино / купить билет в театр</t>
+  </si>
+  <si>
+    <t>Сервис  Тревел / купить авиабилет / купить жд билет / оплатить отель</t>
+  </si>
+  <si>
     <t>Вопросы по  форексу</t>
   </si>
   <si>
@@ -1094,6 +1327,9 @@
   </si>
   <si>
     <t>Переводила я с другого банка себе на  банк</t>
+  </si>
+  <si>
+    <t>Кредитная  карта/  кредитная карта</t>
   </si>
   <si>
     <t xml:space="preserve"> Онлайн</t>
@@ -1637,6 +1873,17 @@
     <t xml:space="preserve">Отменить платеж (_Local_Cancel_Payment) </t>
   </si>
   <si>
+    <t>входил/заходил</t>
+  </si>
+  <si>
+    <t>зайти/войти
+захожу/вхожу</t>
+  </si>
+  <si>
+    <t>спасибо да/нет
+здравствуйте да/нет</t>
+  </si>
+  <si>
     <t>Да/Нет</t>
   </si>
   <si>
@@ -1791,253 +2038,6 @@
   </si>
   <si>
     <t>🞄14.07.2025</t>
-  </si>
-  <si>
-    <t>Не проходит оплата по карте | не проходит операция по карте | карта не проходит</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мне не отвечают в чате | Долго отвечают в чате </t>
-  </si>
-  <si>
-    <t>Добавить карту в приложение| привязать карту в приложение</t>
-  </si>
-  <si>
-    <t>Зарегистрировать карту|авторизовать</t>
-  </si>
-  <si>
-    <t>Хочу связь с оператором уточнить информацию по поводу того что пополнила кредитную карту деньги получается | 
-Хотела бы узнать поступил ли у меня платеж на кредитную карту последние семьсот рублей</t>
-  </si>
-  <si>
-    <t>Не получиЛ карту | Не получилИ карту</t>
-  </si>
-  <si>
-    <t>Проблема с получением карты | Не могу получить карту</t>
-  </si>
-  <si>
-    <t>Нужно кредит | Не нужен кредит | Не нужнО кредит | Мне не надо кредит | Хочу кредит | Нужен кредит</t>
-  </si>
-  <si>
-    <t>Сервис заправки | Заправки | Не прошла оплата на заправке</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Афиша | купить билет в кино | купить билет в театр</t>
-  </si>
-  <si>
-    <t>Сервис  Тревел | купить авиабилет | купить жд билет | оплатить отель</t>
-  </si>
-  <si>
-    <t>Мне не могут перевести из другого банка | мне не могут перевести</t>
-  </si>
-  <si>
-    <t>Восстановить доступ к приложению|восстановить вход в приложение</t>
-  </si>
-  <si>
-    <t>Где деньги | где мои деньги</t>
-  </si>
-  <si>
-    <t>Связаться по добавочному номеру| ввести добавочный номер| добавочный номер</t>
-  </si>
-  <si>
-    <t>Не нужна мне комиссия мне нужны наличные деньги у меня Оформлен кредит в вашем банке пятьсот три|здравствуйте я вот Сегодня заказала кредит наличными мне одобрили мне нужно Снять наличные как это сделать</t>
-  </si>
-  <si>
-    <t>Получить доступ в приложение|доступ к личному кабинету</t>
-  </si>
-  <si>
-    <t>отменить комиссию|вернуть комиссию</t>
-  </si>
-  <si>
-    <t>Войти в карту|войти в счет</t>
-  </si>
-  <si>
-    <t>приложение пишет что я сменил номер семь|не могу сделать перевод пишет что из-за смена номера</t>
-  </si>
-  <si>
-    <t>заблокирован перевод|Перевела деньги заблокировали| разблокировать перевод</t>
-  </si>
-  <si>
-    <t>Ограничения на снятие наличных|денежных средств</t>
-  </si>
-  <si>
-    <t>Добрый день позовите оператора|алло оператора</t>
-  </si>
-  <si>
-    <t>проверил деньги не пришли|срок зачисления|когда придут деньги</t>
-  </si>
-  <si>
-    <t>вопрос по оформлению кредита|получить кредит</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вопрос по моему кредиту|оформил кредит </t>
-  </si>
-  <si>
-    <t>Кредит|кредит на карту</t>
-  </si>
-  <si>
-    <t>Я хочу с кредитной карты|дебетовой отказаться от страховки| отказаться от страховки по карте</t>
-  </si>
-  <si>
-    <t>Войти в приложение | получить доступ к приложению | зарегистрироваться в приложении</t>
-  </si>
-  <si>
-    <t>Страховка по кредитной карте | страховка по кредиту</t>
-  </si>
-  <si>
-    <t>Кредитная  карта|  кредитная карта</t>
-  </si>
-  <si>
-    <t>Перевод | сделать перевод</t>
-  </si>
-  <si>
-    <t>Мне перевели | я переводил себе на альфу</t>
-  </si>
-  <si>
-    <t>Переводил| был перевод | сделал перевод | я переводил себе</t>
-  </si>
-  <si>
-    <t>неправильная сумма|неверный процент</t>
-  </si>
-  <si>
-    <t>Меня обманули мошенники| у меня мошеннические действия происходят</t>
-  </si>
-  <si>
-    <t>как узнать зашел ли транш второй от банка|
-получить транш</t>
-  </si>
-  <si>
-    <t>Не работает терминал | не проходит оплата по терминалу | не проходит оплата по эквайрингу</t>
-  </si>
-  <si>
-    <t>по задолженности|не гасится задолженность| условия дату суммы платежа</t>
-  </si>
-  <si>
-    <t>Оплатить карту|Cколько я буду платить за свою карту в месяц</t>
-  </si>
-  <si>
-    <t>Возврат денег | возврат за покупку</t>
-  </si>
-  <si>
-    <t>сервис банка|банковские услуги|продукты банка</t>
-  </si>
-  <si>
-    <t>Перенести номер|перейти со своим номеров</t>
-  </si>
-  <si>
-    <t>Экстренный звонок|экстренно соедините с оператором|вопрос жизни и смерти</t>
-  </si>
-  <si>
-    <t>Связаться с отделением банка|мне нужен номер филиала в городе сосновый бор</t>
-  </si>
-  <si>
-    <t>свяжи|связаться</t>
-  </si>
-  <si>
-    <t>Отключить все платные услуги| Отключить все услуги</t>
-  </si>
-  <si>
-    <t>я вайлдберрис переслала первый раз в две тысячи и второй раз две тысячи зачислено было три тысячи|сумма получателю пришла меньше чем перевел</t>
-  </si>
-  <si>
-    <t>оплатить сотовую связь|мобильную</t>
-  </si>
-  <si>
-    <t>объясните программу долгосрочных сбережений|ПДС</t>
-  </si>
-  <si>
-    <t>Сколько денег на ипотечном счете|баланс ипотечного счета</t>
-  </si>
-  <si>
-    <t>Ограничения|снять ограничения</t>
-  </si>
-  <si>
-    <t>кредитный договор|договор</t>
-  </si>
-  <si>
-    <t>Пришлите реквизиты в смс|номер счета в смс</t>
-  </si>
-  <si>
-    <t>нужен сотрудник по ипотеке|ипотечный менеджер</t>
-  </si>
-  <si>
-    <t>Проблема с приложением| Не работает приложение</t>
-  </si>
-  <si>
-    <t>входил|заходил</t>
-  </si>
-  <si>
-    <t>Несанкционированное списание/снятие</t>
-  </si>
-  <si>
-    <t>Получить зп карту|где зп карта</t>
-  </si>
-  <si>
-    <t>Привязать карту к телефону/в телефон</t>
-  </si>
-  <si>
-    <t>Подвердить платеж| по движению средств| по истории</t>
-  </si>
-  <si>
-    <t>списывают деньги с другого счета| пытаетесь долги списали с другого счета</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Нет доступа к карте/счету | Восстановить доступ к карте/счету  </t>
-  </si>
-  <si>
-    <t>Позовите| Позовите кожанного мешка| Соедините с кожанным</t>
-  </si>
-  <si>
-    <t>Отказаться|вопрос по закрытию</t>
-  </si>
-  <si>
-    <t>Пароль|нужен пароль|войти по пароль</t>
-  </si>
-  <si>
-    <t>зайти|войти|
-захожу|вхожу</t>
-  </si>
-  <si>
-    <t>спасибо да/нет|
-здравствуйте да/нет</t>
-  </si>
-  <si>
-    <t>Мне звонили оформили кредит (действие совершено)</t>
-  </si>
-  <si>
-    <t>Тревел</t>
-  </si>
-  <si>
-    <t>Позвонить|дозвониться</t>
-  </si>
-  <si>
-    <t>Ограничение по счетам/по карте | приостановление по счетам / по карте</t>
-  </si>
-  <si>
-    <t>Перезвоните мне|заказать обратный звонок|пусть он мне перезвонит</t>
-  </si>
-  <si>
-    <t>можно ли с кредитной карты оплатить обучение в университете /садик</t>
-  </si>
-  <si>
-    <t>Платил в АО/ АМ</t>
-  </si>
-  <si>
-    <t>подписка кинопоиск/яндекс плюс</t>
-  </si>
-  <si>
-    <t>Забыл пароль|сменить пароль я не помню пароль</t>
-  </si>
-  <si>
-    <t>покупка|купить| как купить| про покупку| сделать покупку</t>
-  </si>
-  <si>
-    <t>Претензия|Заявление</t>
-  </si>
-  <si>
-    <t>Потерял симку/номер</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Снять деньги у операциониста| Снять деньги в офисе/в кассе </t>
   </si>
 </sst>
 </file>
@@ -2580,7 +2580,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>222</xdr:row>
-      <xdr:rowOff>126151</xdr:rowOff>
+      <xdr:rowOff>126150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3242,8 +3242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H429"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A415" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A428" sqref="A428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3260,74 +3260,74 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>506</v>
+        <v>584</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>507</v>
+        <v>585</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>508</v>
+        <v>586</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>509</v>
+        <v>587</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>510</v>
+        <v>588</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>511</v>
+        <v>589</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>528</v>
+        <v>606</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>255</v>
+        <v>308</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>459</v>
+        <v>537</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="8" t="s">
-        <v>534</v>
+        <v>615</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>256</v>
+        <v>309</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>360</v>
+        <v>438</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>459</v>
+        <v>537</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="8" t="s">
-        <v>534</v>
+        <v>615</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>257</v>
+        <v>310</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>361</v>
+        <v>439</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>460</v>
+        <v>538</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="8" t="s">
-        <v>534</v>
+        <v>615</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -3335,61 +3335,61 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>466</v>
+        <v>544</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>466</v>
+        <v>544</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>362</v>
+        <v>440</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>461</v>
+        <v>539</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -3397,14 +3397,14 @@
         <v>2</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>363</v>
+        <v>441</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -3412,29 +3412,29 @@
         <v>3</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>363</v>
+        <v>441</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>663</v>
+        <v>152</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>462</v>
+        <v>540</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -3442,337 +3442,337 @@
         <v>4</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>585</v>
+        <v>149</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>364</v>
+        <v>442</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>642</v>
+        <v>173</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>478</v>
+        <v>556</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>586</v>
+        <v>73</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>365</v>
+        <v>443</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>342</v>
+        <v>416</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>366</v>
+        <v>444</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>343</v>
+        <v>417</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>367</v>
+        <v>445</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>368</v>
+        <v>446</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>369</v>
+        <v>447</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>463</v>
+        <v>541</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>370</v>
+        <v>448</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>371</v>
+        <v>449</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>587</v>
+        <v>256</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>372</v>
+        <v>450</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>464</v>
+        <v>542</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>365</v>
+        <v>443</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>588</v>
+        <v>382</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="8" t="s">
-        <v>536</v>
+        <v>617</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>373</v>
+        <v>451</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>327</v>
+        <v>399</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>374</v>
+        <v>452</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -3780,206 +3780,206 @@
         <v>6</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>375</v>
+        <v>453</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>465</v>
+        <v>543</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>376</v>
+        <v>454</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>518</v>
+        <v>596</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>466</v>
+        <v>544</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>488</v>
+        <v>566</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>344</v>
+        <v>418</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>369</v>
+        <v>447</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>643</v>
+        <v>178</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>488</v>
+        <v>566</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>644</v>
+        <v>381</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>372</v>
+        <v>450</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>377</v>
+        <v>455</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>378</v>
+        <v>456</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>364</v>
+        <v>442</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>665</v>
+        <v>40</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>379</v>
+        <v>457</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>380</v>
+        <v>458</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -3987,14 +3987,14 @@
         <v>7</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>381</v>
+        <v>459</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -4002,3631 +4002,3631 @@
         <v>8</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>382</v>
+        <v>460</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
       <c r="G48" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>653</v>
+        <v>9</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>478</v>
+        <v>556</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>374</v>
+        <v>452</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>383</v>
+        <v>461</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>384</v>
+        <v>462</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>345</v>
+        <v>419</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>385</v>
+        <v>463</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>373</v>
+        <v>451</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
       <c r="G56" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
       <c r="G57" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>366</v>
+        <v>444</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
       <c r="G58" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
       <c r="G59" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>654</v>
+        <v>420</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>365</v>
+        <v>443</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>589</v>
+        <v>47</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>386</v>
+        <v>464</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
       <c r="G61" s="8" t="s">
-        <v>536</v>
+        <v>617</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>387</v>
+        <v>465</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>388</v>
+        <v>466</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
       <c r="G62" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
       <c r="G63" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>387</v>
+        <v>465</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>388</v>
+        <v>466</v>
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
       <c r="G64" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>389</v>
+        <v>467</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
       <c r="G65" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>390</v>
+        <v>468</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>362</v>
+        <v>440</v>
       </c>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
       <c r="G66" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>391</v>
+        <v>469</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
       <c r="G67" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>377</v>
+        <v>455</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>378</v>
+        <v>456</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
       <c r="G68" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
       <c r="G69" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>392</v>
+        <v>470</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>393</v>
+        <v>471</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
       <c r="G70" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>392</v>
+        <v>470</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>393</v>
+        <v>471</v>
       </c>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
       <c r="G71" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>394</v>
+        <v>472</v>
       </c>
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
       <c r="G72" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
       <c r="G73" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
-        <v>152</v>
+        <v>181</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>373</v>
+        <v>451</v>
       </c>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
       <c r="G74" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
-        <v>590</v>
+        <v>65</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>488</v>
+        <v>566</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
       <c r="G75" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
-        <v>591</v>
+        <v>64</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
       <c r="G76" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>374</v>
+        <v>452</v>
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
       <c r="G77" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>373</v>
+        <v>451</v>
       </c>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
       <c r="G78" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
-        <v>592</v>
+        <v>63</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>395</v>
+        <v>473</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>396</v>
+        <v>474</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>383</v>
+        <v>461</v>
       </c>
       <c r="F79" s="6"/>
       <c r="G79" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
-        <v>593</v>
+        <v>62</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
       <c r="G80" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>370</v>
+        <v>448</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
       <c r="G81" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
-        <v>594</v>
+        <v>421</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
       <c r="G82" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
-        <v>595</v>
+        <v>422</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
       <c r="G83" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>596</v>
+        <v>58</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>397</v>
+        <v>475</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
       <c r="G84" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>378</v>
+        <v>456</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
       <c r="G85" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>346</v>
+        <v>423</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
       <c r="G86" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
-        <v>347</v>
+        <v>424</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
       <c r="G87" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
       <c r="G88" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
       <c r="G89" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>460</v>
+        <v>538</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
       <c r="G90" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
       <c r="G91" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>398</v>
+        <v>476</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
       <c r="G92" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>367</v>
+        <v>445</v>
       </c>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
       <c r="G93" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>375</v>
+        <v>453</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
       <c r="G94" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>374</v>
+        <v>452</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
       <c r="G95" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>367</v>
+        <v>445</v>
       </c>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
       <c r="G96" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
       <c r="G97" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
       <c r="G98" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
       <c r="G99" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>392</v>
+        <v>470</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>393</v>
+        <v>471</v>
       </c>
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
       <c r="G100" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
       <c r="G101" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
       <c r="G102" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
       <c r="G103" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
       <c r="G104" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>382</v>
+        <v>460</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
       <c r="G105" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>392</v>
+        <v>470</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>393</v>
+        <v>471</v>
       </c>
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
       <c r="G106" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
-        <v>645</v>
+        <v>75</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>387</v>
+        <v>465</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>388</v>
+        <v>466</v>
       </c>
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
       <c r="G107" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>523</v>
+        <v>601</v>
       </c>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
       <c r="G108" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>467</v>
+        <v>545</v>
       </c>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
       <c r="G109" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
       <c r="E110" s="6"/>
       <c r="F110" s="6"/>
       <c r="G110" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>397</v>
+        <v>475</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
       <c r="E111" s="6"/>
       <c r="F111" s="6"/>
       <c r="G111" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
       <c r="E112" s="6"/>
       <c r="F112" s="6"/>
       <c r="G112" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>399</v>
+        <v>477</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>400</v>
+        <v>478</v>
       </c>
       <c r="D113" s="6"/>
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
       <c r="G113" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>523</v>
+        <v>601</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
       <c r="G114" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>366</v>
+        <v>444</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
       <c r="F115" s="6"/>
       <c r="G115" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>382</v>
+        <v>460</v>
       </c>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
       <c r="G116" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>384</v>
+        <v>462</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="D117" s="6"/>
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
       <c r="G117" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>365</v>
+        <v>443</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>216</v>
+        <v>255</v>
       </c>
       <c r="D118" s="6"/>
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
       <c r="G118" s="8" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
-        <v>656</v>
+        <v>352</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
       <c r="G119" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>468</v>
+        <v>546</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>400</v>
+        <v>478</v>
       </c>
       <c r="D120" s="6"/>
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
       <c r="G120" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>401</v>
+        <v>479</v>
       </c>
       <c r="D121" s="6"/>
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
       <c r="G121" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
-        <v>597</v>
+        <v>150</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>469</v>
+        <v>547</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>402</v>
+        <v>480</v>
       </c>
       <c r="D122" s="6"/>
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
       <c r="G122" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>403</v>
+        <v>481</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
       <c r="E123" s="6"/>
       <c r="F123" s="6"/>
       <c r="G123" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>470</v>
+        <v>548</v>
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
       <c r="E124" s="6"/>
       <c r="F124" s="6"/>
       <c r="G124" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
-        <v>525</v>
+        <v>603</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
       <c r="E125" s="6"/>
       <c r="F125" s="6"/>
       <c r="G125" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
-        <v>524</v>
+        <v>602</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>365</v>
+        <v>443</v>
       </c>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
       <c r="E126" s="6"/>
       <c r="F126" s="6"/>
       <c r="G126" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
-        <v>655</v>
+        <v>115</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>471</v>
+        <v>549</v>
       </c>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
       <c r="E127" s="6"/>
       <c r="F127" s="6"/>
       <c r="G127" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
-        <v>598</v>
+        <v>113</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>404</v>
+        <v>482</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>405</v>
+        <v>483</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>467</v>
+        <v>545</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>406</v>
+        <v>484</v>
       </c>
       <c r="F128" s="6"/>
       <c r="G128" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
-        <v>599</v>
+        <v>114</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
       <c r="E129" s="6"/>
       <c r="F129" s="6"/>
       <c r="G129" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
-        <v>600</v>
+        <v>112</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>394</v>
+        <v>472</v>
       </c>
       <c r="D130" s="6"/>
       <c r="E130" s="6"/>
       <c r="F130" s="6"/>
       <c r="G130" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>469</v>
+        <v>547</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>402</v>
+        <v>480</v>
       </c>
       <c r="D131" s="6"/>
       <c r="E131" s="6"/>
       <c r="F131" s="6"/>
       <c r="G131" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
       <c r="E132" s="6"/>
       <c r="F132" s="6"/>
       <c r="G132" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
       <c r="E133" s="6"/>
       <c r="F133" s="6"/>
       <c r="G133" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>365</v>
+        <v>443</v>
       </c>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
       <c r="E134" s="6"/>
       <c r="F134" s="6"/>
       <c r="G134" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
       <c r="E135" s="6"/>
       <c r="F135" s="6"/>
       <c r="G135" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>384</v>
+        <v>462</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="D136" s="6"/>
       <c r="E136" s="6"/>
       <c r="F136" s="6"/>
       <c r="G136" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
-        <v>601</v>
+        <v>120</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>402</v>
+        <v>480</v>
       </c>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
       <c r="E137" s="6"/>
       <c r="F137" s="6"/>
       <c r="G137" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>407</v>
+        <v>485</v>
       </c>
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
       <c r="E138" s="6"/>
       <c r="F138" s="6"/>
       <c r="G138" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>374</v>
+        <v>452</v>
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
       <c r="E139" s="6"/>
       <c r="F139" s="6"/>
       <c r="G139" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>402</v>
+        <v>480</v>
       </c>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
       <c r="E140" s="6"/>
       <c r="F140" s="6"/>
       <c r="G140" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>469</v>
+        <v>547</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>402</v>
+        <v>480</v>
       </c>
       <c r="D141" s="6"/>
       <c r="E141" s="6"/>
       <c r="F141" s="6"/>
       <c r="G141" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
-        <v>516</v>
+        <v>594</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>373</v>
+        <v>451</v>
       </c>
       <c r="D142" s="6"/>
       <c r="E142" s="6"/>
       <c r="F142" s="6"/>
       <c r="G142" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
-        <v>515</v>
+        <v>593</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>327</v>
+        <v>399</v>
       </c>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
       <c r="E143" s="6"/>
       <c r="F143" s="6"/>
       <c r="G143" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
-        <v>646</v>
+        <v>220</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>523</v>
+        <v>601</v>
       </c>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
       <c r="E144" s="6"/>
       <c r="F144" s="6"/>
       <c r="G144" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
       <c r="E145" s="6"/>
       <c r="F145" s="6"/>
       <c r="G145" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
-        <v>517</v>
+        <v>595</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>468</v>
+        <v>546</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>400</v>
+        <v>478</v>
       </c>
       <c r="D146" s="6"/>
       <c r="E146" s="6"/>
       <c r="F146" s="6"/>
       <c r="G146" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
-        <v>602</v>
+        <v>127</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>371</v>
+        <v>449</v>
       </c>
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
       <c r="E147" s="6"/>
       <c r="F147" s="6"/>
       <c r="G147" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>365</v>
+        <v>443</v>
       </c>
       <c r="C148" s="6"/>
       <c r="D148" s="6"/>
       <c r="E148" s="6"/>
       <c r="F148" s="6"/>
       <c r="G148" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
-        <v>657</v>
+        <v>130</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>365</v>
+        <v>443</v>
       </c>
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
       <c r="E149" s="6"/>
       <c r="F149" s="6"/>
       <c r="G149" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
       <c r="E150" s="6"/>
       <c r="F150" s="6"/>
       <c r="G150" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
-        <v>199</v>
+        <v>235</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>408</v>
+        <v>486</v>
       </c>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
       <c r="E151" s="6"/>
       <c r="F151" s="6"/>
       <c r="G151" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
       <c r="E152" s="6"/>
       <c r="F152" s="6"/>
       <c r="G152" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
-        <v>603</v>
+        <v>132</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>402</v>
+        <v>480</v>
       </c>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
       <c r="E153" s="6"/>
       <c r="F153" s="6"/>
       <c r="G153" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A154" s="6" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>472</v>
+        <v>550</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>409</v>
+        <v>487</v>
       </c>
       <c r="D154" s="6"/>
       <c r="E154" s="6"/>
       <c r="F154" s="6"/>
       <c r="G154" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A155" s="6" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>392</v>
+        <v>470</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>393</v>
+        <v>471</v>
       </c>
       <c r="D155" s="6"/>
       <c r="E155" s="6"/>
       <c r="F155" s="6"/>
       <c r="G155" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A156" s="6" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>392</v>
+        <v>470</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>393</v>
+        <v>471</v>
       </c>
       <c r="D156" s="6"/>
       <c r="E156" s="6"/>
       <c r="F156" s="6"/>
       <c r="G156" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A157" s="6" t="s">
-        <v>349</v>
+        <v>426</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>523</v>
+        <v>601</v>
       </c>
       <c r="C157" s="6"/>
       <c r="D157" s="6"/>
       <c r="E157" s="6"/>
       <c r="F157" s="6"/>
       <c r="G157" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A158" s="6" t="s">
-        <v>604</v>
+        <v>182</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>472</v>
+        <v>550</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>409</v>
+        <v>487</v>
       </c>
       <c r="D158" s="6"/>
       <c r="E158" s="6"/>
       <c r="F158" s="6"/>
       <c r="G158" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>387</v>
+        <v>465</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>388</v>
+        <v>466</v>
       </c>
       <c r="D159" s="6"/>
       <c r="E159" s="6"/>
       <c r="F159" s="6"/>
       <c r="G159" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="6" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>365</v>
+        <v>443</v>
       </c>
       <c r="C160" s="6"/>
       <c r="D160" s="6"/>
       <c r="E160" s="6"/>
       <c r="F160" s="6"/>
       <c r="G160" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A161" s="6" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>397</v>
+        <v>475</v>
       </c>
       <c r="C161" s="6"/>
       <c r="D161" s="6"/>
       <c r="E161" s="6"/>
       <c r="F161" s="6"/>
       <c r="G161" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="6" t="s">
-        <v>350</v>
+        <v>427</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>365</v>
+        <v>443</v>
       </c>
       <c r="C162" s="6"/>
       <c r="D162" s="6"/>
       <c r="E162" s="6"/>
       <c r="F162" s="6"/>
       <c r="G162" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A163" s="6" t="s">
-        <v>658</v>
+        <v>139</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C163" s="6"/>
       <c r="D163" s="6"/>
       <c r="E163" s="6"/>
       <c r="F163" s="6"/>
       <c r="G163" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="6" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>464</v>
+        <v>542</v>
       </c>
       <c r="D164" s="6"/>
       <c r="E164" s="6"/>
       <c r="F164" s="6"/>
       <c r="G164" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>473</v>
+        <v>551</v>
       </c>
       <c r="C165" s="6"/>
       <c r="D165" s="6"/>
       <c r="E165" s="6"/>
       <c r="F165" s="6"/>
       <c r="G165" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
-        <v>605</v>
+        <v>236</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>397</v>
+        <v>475</v>
       </c>
       <c r="C166" s="6"/>
       <c r="D166" s="6"/>
       <c r="E166" s="6"/>
       <c r="F166" s="6"/>
       <c r="G166" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>464</v>
+        <v>542</v>
       </c>
       <c r="D167" s="6"/>
       <c r="E167" s="6"/>
       <c r="F167" s="6"/>
       <c r="G167" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>474</v>
+        <v>552</v>
       </c>
       <c r="C168" s="6"/>
       <c r="D168" s="6"/>
       <c r="E168" s="6"/>
       <c r="F168" s="6"/>
       <c r="G168" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A169" s="6" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>397</v>
+        <v>475</v>
       </c>
       <c r="C169" s="6"/>
       <c r="D169" s="6"/>
       <c r="E169" s="6"/>
       <c r="F169" s="6"/>
       <c r="G169" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>475</v>
+        <v>553</v>
       </c>
       <c r="C170" s="6"/>
       <c r="D170" s="6"/>
       <c r="E170" s="6"/>
       <c r="F170" s="6"/>
       <c r="G170" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C171" s="6"/>
       <c r="D171" s="6"/>
       <c r="E171" s="6"/>
       <c r="F171" s="6"/>
       <c r="G171" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
-        <v>664</v>
+        <v>117</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>466</v>
+        <v>544</v>
       </c>
       <c r="C172" s="6"/>
       <c r="D172" s="6"/>
       <c r="E172" s="6"/>
       <c r="F172" s="6"/>
       <c r="G172" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>373</v>
+        <v>451</v>
       </c>
       <c r="D173" s="6"/>
       <c r="E173" s="6"/>
       <c r="F173" s="6"/>
       <c r="G173" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A174" s="6" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>387</v>
+        <v>465</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>388</v>
+        <v>466</v>
       </c>
       <c r="D174" s="6"/>
       <c r="E174" s="6"/>
       <c r="F174" s="6"/>
       <c r="G174" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
-        <v>647</v>
+        <v>153</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C175" s="6"/>
       <c r="D175" s="6"/>
       <c r="E175" s="6"/>
       <c r="F175" s="6"/>
       <c r="G175" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>365</v>
+        <v>443</v>
       </c>
       <c r="C176" s="6"/>
       <c r="D176" s="6"/>
       <c r="E176" s="6"/>
       <c r="F176" s="6"/>
       <c r="G176" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>476</v>
+        <v>554</v>
       </c>
       <c r="C177" s="6"/>
       <c r="D177" s="6"/>
       <c r="E177" s="6"/>
       <c r="F177" s="6"/>
       <c r="G177" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>365</v>
+        <v>443</v>
       </c>
       <c r="C178" s="6"/>
       <c r="D178" s="6"/>
       <c r="E178" s="6"/>
       <c r="F178" s="6"/>
       <c r="G178" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="6" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C179" s="6"/>
       <c r="D179" s="6"/>
       <c r="E179" s="6"/>
       <c r="F179" s="6"/>
       <c r="G179" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="6" t="s">
-        <v>606</v>
+        <v>158</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>394</v>
+        <v>472</v>
       </c>
       <c r="D180" s="6"/>
       <c r="E180" s="6"/>
       <c r="F180" s="6"/>
       <c r="G180" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C181" s="6"/>
       <c r="D181" s="6"/>
       <c r="E181" s="6"/>
       <c r="F181" s="6"/>
       <c r="G181" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>471</v>
+        <v>549</v>
       </c>
       <c r="C182" s="6"/>
       <c r="D182" s="6"/>
       <c r="E182" s="6"/>
       <c r="F182" s="6"/>
       <c r="G182" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="C183" s="6"/>
       <c r="D183" s="6"/>
       <c r="E183" s="6"/>
       <c r="F183" s="6"/>
       <c r="G183" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>469</v>
+        <v>547</v>
       </c>
       <c r="C184" s="11" t="s">
-        <v>402</v>
+        <v>480</v>
       </c>
       <c r="D184" s="6"/>
       <c r="E184" s="6"/>
       <c r="F184" s="6"/>
       <c r="G184" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C185" s="6"/>
       <c r="D185" s="6"/>
       <c r="E185" s="6"/>
       <c r="F185" s="6"/>
       <c r="G185" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A186" s="6" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>478</v>
+        <v>556</v>
       </c>
       <c r="C186" s="6"/>
       <c r="D186" s="6"/>
       <c r="E186" s="6"/>
       <c r="F186" s="6"/>
       <c r="G186" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="6" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>410</v>
+        <v>488</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>411</v>
+        <v>489</v>
       </c>
       <c r="D187" s="6"/>
       <c r="E187" s="6"/>
       <c r="F187" s="6"/>
       <c r="G187" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A188" s="6" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>412</v>
+        <v>490</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>413</v>
+        <v>491</v>
       </c>
       <c r="D188" s="6"/>
       <c r="E188" s="6"/>
       <c r="F188" s="6"/>
       <c r="G188" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A189" s="6" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="B189" s="12" t="s">
-        <v>479</v>
+        <v>557</v>
       </c>
       <c r="C189" s="6"/>
       <c r="D189" s="6"/>
       <c r="E189" s="6"/>
       <c r="F189" s="6"/>
       <c r="G189" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="6" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C190" s="6"/>
       <c r="D190" s="6"/>
       <c r="E190" s="6"/>
       <c r="F190" s="6"/>
       <c r="G190" s="8" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="6" t="s">
-        <v>648</v>
+        <v>347</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>464</v>
+        <v>542</v>
       </c>
       <c r="D191" s="6"/>
       <c r="E191" s="6"/>
       <c r="F191" s="6"/>
       <c r="G191" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A192" s="6" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>399</v>
+        <v>477</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>400</v>
+        <v>478</v>
       </c>
       <c r="D192" s="6"/>
       <c r="E192" s="6"/>
       <c r="F192" s="6"/>
       <c r="G192" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A193" s="6" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>463</v>
+        <v>541</v>
       </c>
       <c r="C193" s="6"/>
       <c r="D193" s="6"/>
       <c r="E193" s="6"/>
       <c r="F193" s="6"/>
       <c r="G193" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A194" s="6" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>480</v>
+        <v>558</v>
       </c>
       <c r="C194" s="6"/>
       <c r="D194" s="6"/>
       <c r="E194" s="6"/>
       <c r="F194" s="6"/>
       <c r="G194" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="6" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>394</v>
+        <v>472</v>
       </c>
       <c r="D195" s="6"/>
       <c r="E195" s="6"/>
       <c r="F195" s="6"/>
       <c r="G195" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="6" t="s">
-        <v>283</v>
+        <v>344</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>365</v>
+        <v>443</v>
       </c>
       <c r="C196" s="6"/>
       <c r="D196" s="6"/>
       <c r="E196" s="6"/>
       <c r="F196" s="6"/>
       <c r="G196" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="6" t="s">
-        <v>607</v>
+        <v>302</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>471</v>
+        <v>549</v>
       </c>
       <c r="C197" s="6"/>
       <c r="D197" s="6"/>
       <c r="E197" s="6"/>
       <c r="F197" s="6"/>
       <c r="G197" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>398</v>
+        <v>476</v>
       </c>
       <c r="C198" s="6"/>
       <c r="D198" s="6"/>
       <c r="E198" s="6"/>
       <c r="F198" s="6"/>
       <c r="G198" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="6" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>369</v>
+        <v>447</v>
       </c>
       <c r="C199" s="6"/>
       <c r="D199" s="6"/>
       <c r="E199" s="6"/>
       <c r="F199" s="6"/>
       <c r="G199" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="6" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>407</v>
+        <v>485</v>
       </c>
       <c r="C200" s="6"/>
       <c r="D200" s="6"/>
       <c r="E200" s="6"/>
       <c r="F200" s="6"/>
       <c r="G200" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="6" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>414</v>
+        <v>492</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>370</v>
+        <v>448</v>
       </c>
       <c r="D201" s="6"/>
       <c r="E201" s="6"/>
       <c r="F201" s="6"/>
       <c r="G201" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="202" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>365</v>
+        <v>443</v>
       </c>
       <c r="C202" s="6"/>
       <c r="D202" s="6"/>
       <c r="E202" s="6"/>
       <c r="F202" s="6"/>
       <c r="G202" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
-        <v>608</v>
+        <v>226</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>404</v>
+        <v>482</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>405</v>
+        <v>483</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>467</v>
+        <v>545</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>406</v>
+        <v>484</v>
       </c>
       <c r="F203" s="9" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="G203" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>415</v>
+        <v>493</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>360</v>
+        <v>438</v>
       </c>
       <c r="E204" s="6"/>
       <c r="F204" s="6"/>
       <c r="G204" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>382</v>
+        <v>460</v>
       </c>
       <c r="C205" s="6"/>
       <c r="D205" s="6"/>
       <c r="E205" s="6"/>
       <c r="F205" s="6"/>
       <c r="G205" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>416</v>
+        <v>494</v>
       </c>
       <c r="C206" s="6"/>
       <c r="D206" s="6"/>
       <c r="E206" s="6"/>
       <c r="F206" s="6"/>
       <c r="G206" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="207" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
-        <v>609</v>
+        <v>197</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>481</v>
+        <v>559</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>417</v>
+        <v>495</v>
       </c>
       <c r="D207" s="6"/>
       <c r="E207" s="6"/>
       <c r="F207" s="6"/>
       <c r="G207" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="208" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
-        <v>610</v>
+        <v>291</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>418</v>
+        <v>496</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>396</v>
+        <v>474</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>383</v>
+        <v>461</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>395</v>
+        <v>473</v>
       </c>
       <c r="F208" s="6"/>
       <c r="G208" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
-        <v>611</v>
+        <v>290</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>395</v>
+        <v>473</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>396</v>
+        <v>474</v>
       </c>
       <c r="E209" s="6" t="s">
-        <v>383</v>
+        <v>461</v>
       </c>
       <c r="F209" s="6"/>
       <c r="G209" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="6" t="s">
-        <v>244</v>
+        <v>289</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>367</v>
+        <v>445</v>
       </c>
       <c r="D210" s="6"/>
       <c r="E210" s="6"/>
       <c r="F210" s="6"/>
       <c r="G210" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="6" t="s">
-        <v>243</v>
+        <v>288</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>401</v>
+        <v>479</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>417</v>
+        <v>495</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>419</v>
+        <v>497</v>
       </c>
       <c r="E211" s="6"/>
       <c r="F211" s="6"/>
       <c r="G211" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="6" t="s">
-        <v>303</v>
+        <v>369</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>365</v>
+        <v>443</v>
       </c>
       <c r="C212" s="6"/>
       <c r="D212" s="6"/>
       <c r="E212" s="6"/>
       <c r="F212" s="6"/>
       <c r="G212" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A213" s="6" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>482</v>
+        <v>560</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>519</v>
+        <v>597</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>420</v>
+        <v>498</v>
       </c>
       <c r="E213" s="6"/>
       <c r="F213" s="6"/>
       <c r="G213" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="6" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>401</v>
+        <v>479</v>
       </c>
       <c r="D214" s="6"/>
       <c r="E214" s="6"/>
       <c r="F214" s="6"/>
       <c r="G214" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="6" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="C215" s="6"/>
       <c r="D215" s="6"/>
       <c r="E215" s="6"/>
       <c r="F215" s="6"/>
       <c r="G215" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
-        <v>351</v>
+        <v>428</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>406</v>
+        <v>484</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>405</v>
+        <v>483</v>
       </c>
       <c r="D216" s="6"/>
       <c r="E216" s="6"/>
       <c r="F216" s="6"/>
       <c r="G216" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="6" t="s">
-        <v>242</v>
+        <v>287</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>408</v>
+        <v>486</v>
       </c>
       <c r="C217" s="6"/>
       <c r="D217" s="6"/>
       <c r="E217" s="6"/>
       <c r="F217" s="6"/>
       <c r="G217" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="6" t="s">
-        <v>241</v>
+        <v>286</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>394</v>
+        <v>472</v>
       </c>
       <c r="D218" s="6"/>
       <c r="E218" s="6"/>
       <c r="F218" s="6"/>
       <c r="G218" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A219" s="6" t="s">
-        <v>240</v>
+        <v>285</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>523</v>
+        <v>601</v>
       </c>
       <c r="D219" s="6"/>
       <c r="E219" s="6"/>
       <c r="F219" s="6"/>
       <c r="G219" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="6" t="s">
-        <v>649</v>
+        <v>204</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>376</v>
+        <v>454</v>
       </c>
       <c r="C220" s="6"/>
       <c r="D220" s="6"/>
       <c r="E220" s="6"/>
       <c r="F220" s="6"/>
       <c r="G220" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="221" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A221" s="6" t="s">
-        <v>239</v>
+        <v>284</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>421</v>
+        <v>499</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>371</v>
+        <v>449</v>
       </c>
       <c r="D221" s="6"/>
       <c r="E221" s="6"/>
       <c r="F221" s="6"/>
       <c r="G221" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A222" s="6" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>383</v>
+        <v>461</v>
       </c>
       <c r="C222" s="6"/>
       <c r="D222" s="6"/>
       <c r="E222" s="6"/>
       <c r="F222" s="6"/>
       <c r="G222" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A223" s="6" t="s">
-        <v>612</v>
+        <v>370</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>371</v>
+        <v>449</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>422</v>
+        <v>500</v>
       </c>
       <c r="D223" s="6"/>
       <c r="E223" s="6"/>
       <c r="F223" s="6"/>
       <c r="G223" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A224" s="6" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>483</v>
+        <v>561</v>
       </c>
       <c r="C224" s="6"/>
       <c r="D224" s="6"/>
       <c r="E224" s="6"/>
       <c r="F224" s="6"/>
       <c r="G224" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A225" s="6" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>397</v>
+        <v>475</v>
       </c>
       <c r="C225" s="6"/>
       <c r="D225" s="6"/>
       <c r="E225" s="6"/>
       <c r="F225" s="6"/>
       <c r="G225" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="6" t="s">
-        <v>522</v>
+        <v>600</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>374</v>
+        <v>452</v>
       </c>
       <c r="C226" s="6"/>
       <c r="D226" s="6"/>
       <c r="E226" s="6"/>
       <c r="F226" s="6"/>
       <c r="G226" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="6" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>423</v>
+        <v>501</v>
       </c>
       <c r="C227" s="6"/>
       <c r="D227" s="6"/>
       <c r="E227" s="6"/>
       <c r="F227" s="6"/>
       <c r="G227" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>365</v>
+        <v>443</v>
       </c>
       <c r="C228" s="6"/>
       <c r="D228" s="6"/>
       <c r="E228" s="6"/>
       <c r="F228" s="6"/>
       <c r="G228" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A229" s="6" t="s">
-        <v>613</v>
+        <v>210</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>402</v>
+        <v>480</v>
       </c>
       <c r="C229" s="6"/>
       <c r="D229" s="6"/>
       <c r="E229" s="6"/>
       <c r="F229" s="6"/>
       <c r="G229" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="230" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A230" s="6" t="s">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>484</v>
+        <v>562</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>423</v>
+        <v>501</v>
       </c>
       <c r="D230" s="6"/>
       <c r="E230" s="6"/>
       <c r="F230" s="6"/>
       <c r="G230" s="8" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="6" t="s">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>424</v>
+        <v>502</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>423</v>
+        <v>501</v>
       </c>
       <c r="D231" s="6"/>
       <c r="E231" s="6"/>
       <c r="F231" s="6"/>
       <c r="G231" s="8" t="s">
-        <v>537</v>
+        <v>618</v>
       </c>
     </row>
     <row r="232" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A232" s="6" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>396</v>
+        <v>474</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>395</v>
+        <v>473</v>
       </c>
       <c r="E232" s="6" t="s">
-        <v>383</v>
+        <v>461</v>
       </c>
       <c r="F232" s="6"/>
       <c r="G232" s="8" t="s">
-        <v>538</v>
+        <v>619</v>
       </c>
     </row>
     <row r="233" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A233" s="6" t="s">
-        <v>237</v>
+        <v>282</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>397</v>
+        <v>475</v>
       </c>
       <c r="C233" s="6"/>
       <c r="D233" s="6"/>
       <c r="E233" s="6"/>
       <c r="F233" s="6"/>
       <c r="G233" s="8" t="s">
-        <v>539</v>
+        <v>620</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="6" t="s">
-        <v>236</v>
+        <v>281</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>421</v>
+        <v>499</v>
       </c>
       <c r="D234" s="6"/>
       <c r="E234" s="6"/>
       <c r="F234" s="6"/>
       <c r="G234" s="8" t="s">
-        <v>539</v>
+        <v>620</v>
       </c>
     </row>
     <row r="235" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A235" s="6" t="s">
-        <v>234</v>
+        <v>279</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>416</v>
+        <v>494</v>
       </c>
       <c r="C235" s="6"/>
       <c r="D235" s="6"/>
       <c r="E235" s="6"/>
       <c r="F235" s="6"/>
       <c r="G235" s="8" t="s">
-        <v>539</v>
+        <v>620</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="6" t="s">
-        <v>235</v>
+        <v>280</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>374</v>
+        <v>452</v>
       </c>
       <c r="C236" s="6"/>
       <c r="D236" s="6"/>
       <c r="E236" s="6"/>
       <c r="F236" s="6"/>
       <c r="G236" s="8" t="s">
-        <v>539</v>
+        <v>620</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="6" t="s">
-        <v>305</v>
+        <v>372</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>467</v>
+        <v>545</v>
       </c>
       <c r="C237" s="6"/>
       <c r="D237" s="6"/>
       <c r="E237" s="6"/>
       <c r="F237" s="6"/>
       <c r="G237" s="8" t="s">
-        <v>539</v>
+        <v>620</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="6" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>411</v>
+        <v>489</v>
       </c>
       <c r="C238" s="6"/>
       <c r="D238" s="6"/>
       <c r="E238" s="6"/>
       <c r="F238" s="6"/>
       <c r="G238" s="8" t="s">
-        <v>540</v>
+        <v>621</v>
       </c>
     </row>
     <row r="239" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A239" s="6" t="s">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>404</v>
+        <v>482</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>360</v>
+        <v>438</v>
       </c>
       <c r="D239" s="6"/>
       <c r="E239" s="6"/>
       <c r="F239" s="6"/>
       <c r="G239" s="8" t="s">
-        <v>540</v>
+        <v>621</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="6" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>410</v>
+        <v>488</v>
       </c>
       <c r="C240" s="6"/>
       <c r="D240" s="6"/>
       <c r="E240" s="6"/>
       <c r="F240" s="6"/>
       <c r="G240" s="8" t="s">
-        <v>540</v>
+        <v>621</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="6" t="s">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>382</v>
+        <v>460</v>
       </c>
       <c r="C241" s="6"/>
       <c r="D241" s="6"/>
       <c r="E241" s="6"/>
       <c r="F241" s="6"/>
       <c r="G241" s="8" t="s">
-        <v>541</v>
+        <v>622</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="6" t="s">
-        <v>213</v>
+        <v>251</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>382</v>
+        <v>460</v>
       </c>
       <c r="C242" s="6"/>
       <c r="D242" s="6"/>
       <c r="E242" s="6"/>
       <c r="F242" s="6"/>
       <c r="G242" s="8" t="s">
-        <v>541</v>
+        <v>622</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="6" t="s">
-        <v>212</v>
+        <v>250</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>425</v>
+        <v>503</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>382</v>
+        <v>460</v>
       </c>
       <c r="D243" s="6"/>
       <c r="E243" s="6"/>
       <c r="F243" s="6"/>
       <c r="G243" s="8" t="s">
-        <v>541</v>
+        <v>622</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="6" t="s">
-        <v>211</v>
+        <v>249</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>459</v>
+        <v>537</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>360</v>
+        <v>438</v>
       </c>
       <c r="D244" s="6"/>
       <c r="E244" s="6"/>
       <c r="F244" s="6"/>
       <c r="G244" s="8" t="s">
-        <v>541</v>
+        <v>622</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="6" t="s">
-        <v>650</v>
+        <v>248</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>382</v>
+        <v>460</v>
       </c>
       <c r="C245" s="6"/>
       <c r="D245" s="6"/>
       <c r="E245" s="6"/>
       <c r="F245" s="6"/>
       <c r="G245" s="8" t="s">
-        <v>542</v>
+        <v>623</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="6" t="s">
-        <v>352</v>
+        <v>429</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>406</v>
+        <v>484</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>426</v>
+        <v>504</v>
       </c>
       <c r="D246" s="6"/>
       <c r="E246" s="6"/>
       <c r="F246" s="6"/>
       <c r="G246" s="8" t="s">
-        <v>543</v>
+        <v>624</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="10" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="B247" s="10" t="s">
-        <v>410</v>
+        <v>488</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>411</v>
+        <v>489</v>
       </c>
       <c r="D247" s="6"/>
       <c r="E247" s="6"/>
       <c r="F247" s="6"/>
       <c r="G247" s="8" t="s">
-        <v>543</v>
+        <v>624</v>
       </c>
     </row>
     <row r="248" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A248" s="6" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>404</v>
+        <v>482</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>405</v>
+        <v>483</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>467</v>
+        <v>545</v>
       </c>
       <c r="E248" s="6" t="s">
-        <v>414</v>
+        <v>492</v>
       </c>
       <c r="F248" s="6"/>
       <c r="G248" s="8" t="s">
-        <v>543</v>
+        <v>624</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A249" s="6" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>414</v>
+        <v>492</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>415</v>
+        <v>493</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>397</v>
+        <v>475</v>
       </c>
       <c r="E249" s="6"/>
       <c r="F249" s="6"/>
       <c r="G249" s="8" t="s">
-        <v>543</v>
+        <v>624</v>
       </c>
     </row>
     <row r="250" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A250" s="6" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>485</v>
+        <v>563</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>427</v>
+        <v>505</v>
       </c>
       <c r="D250" s="6"/>
       <c r="E250" s="6"/>
       <c r="F250" s="6"/>
       <c r="G250" s="8" t="s">
-        <v>543</v>
+        <v>624</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="6" t="s">
-        <v>282</v>
+        <v>343</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="C251" s="6"/>
       <c r="D251" s="6"/>
       <c r="E251" s="6"/>
       <c r="F251" s="6"/>
       <c r="G251" s="8" t="s">
-        <v>543</v>
+        <v>624</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="6" t="s">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>428</v>
+        <v>506</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>429</v>
+        <v>507</v>
       </c>
       <c r="D252" s="6"/>
       <c r="E252" s="6"/>
       <c r="F252" s="6"/>
       <c r="G252" s="8" t="s">
-        <v>543</v>
+        <v>624</v>
       </c>
     </row>
     <row r="253" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A253" s="6" t="s">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>383</v>
+        <v>461</v>
       </c>
       <c r="C253" s="6"/>
       <c r="D253" s="6"/>
       <c r="E253" s="6"/>
       <c r="F253" s="6"/>
       <c r="G253" s="8" t="s">
-        <v>543</v>
+        <v>624</v>
       </c>
     </row>
     <row r="254" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A254" s="6" t="s">
-        <v>195</v>
+        <v>231</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>523</v>
+        <v>601</v>
       </c>
       <c r="C254" s="6"/>
       <c r="D254" s="6"/>
       <c r="E254" s="6"/>
       <c r="F254" s="6"/>
       <c r="G254" s="8" t="s">
-        <v>544</v>
+        <v>625</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="6" t="s">
-        <v>196</v>
+        <v>232</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>414</v>
+        <v>492</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>370</v>
+        <v>448</v>
       </c>
       <c r="D255" s="6"/>
       <c r="E255" s="6"/>
       <c r="F255" s="6"/>
       <c r="G255" s="8" t="s">
-        <v>544</v>
+        <v>625</v>
       </c>
       <c r="H255" s="1"/>
     </row>
     <row r="256" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A256" s="6" t="s">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>486</v>
+        <v>564</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>388</v>
+        <v>466</v>
       </c>
       <c r="D256" s="6"/>
       <c r="E256" s="6"/>
       <c r="F256" s="6"/>
       <c r="G256" s="8" t="s">
-        <v>544</v>
+        <v>625</v>
       </c>
     </row>
     <row r="257" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A257" s="6" t="s">
-        <v>198</v>
+        <v>234</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>487</v>
+        <v>565</v>
       </c>
       <c r="C257" s="6"/>
       <c r="D257" s="6"/>
       <c r="E257" s="6"/>
       <c r="F257" s="6"/>
       <c r="G257" s="8" t="s">
-        <v>544</v>
+        <v>625</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="6" t="s">
-        <v>200</v>
+        <v>237</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>430</v>
+        <v>508</v>
       </c>
       <c r="C258" s="6"/>
       <c r="D258" s="6"/>
       <c r="E258" s="6"/>
       <c r="F258" s="6"/>
       <c r="G258" s="8" t="s">
-        <v>544</v>
+        <v>625</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="6" t="s">
-        <v>614</v>
+        <v>253</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>201</v>
+        <v>238</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>431</v>
+        <v>509</v>
       </c>
       <c r="D259" s="6"/>
       <c r="E259" s="6"/>
       <c r="F259" s="6"/>
       <c r="G259" s="8" t="s">
-        <v>544</v>
+        <v>625</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="6" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>418</v>
+        <v>496</v>
       </c>
       <c r="D260" s="6" t="s">
-        <v>432</v>
+        <v>510</v>
       </c>
       <c r="E260" s="6"/>
       <c r="F260" s="6"/>
       <c r="G260" s="8" t="s">
-        <v>544</v>
+        <v>625</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" s="6" t="s">
-        <v>202</v>
+        <v>239</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>376</v>
+        <v>454</v>
       </c>
       <c r="C261" s="6"/>
       <c r="D261" s="6"/>
       <c r="E261" s="6"/>
       <c r="F261" s="6"/>
       <c r="G261" s="8" t="s">
-        <v>544</v>
+        <v>625</v>
       </c>
     </row>
     <row r="262" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A262" s="6" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>376</v>
+        <v>454</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>366</v>
+        <v>444</v>
       </c>
       <c r="D262" s="6" t="s">
-        <v>410</v>
+        <v>488</v>
       </c>
       <c r="E262" s="6"/>
       <c r="F262" s="6"/>
       <c r="G262" s="8" t="s">
-        <v>544</v>
+        <v>625</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="6" t="s">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C263" s="6"/>
       <c r="D263" s="6"/>
       <c r="E263" s="6"/>
       <c r="F263" s="6"/>
       <c r="G263" s="8" t="s">
-        <v>544</v>
+        <v>625</v>
       </c>
     </row>
     <row r="264" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A264" s="6" t="s">
-        <v>215</v>
+        <v>254</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>406</v>
+        <v>484</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>488</v>
+        <v>566</v>
       </c>
       <c r="D264" s="6" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="E264" s="6"/>
       <c r="F264" s="6"/>
       <c r="G264" s="8" t="s">
-        <v>545</v>
+        <v>626</v>
       </c>
     </row>
     <row r="265" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A265" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>472</v>
+        <v>550</v>
       </c>
       <c r="C265" s="11" t="s">
-        <v>409</v>
+        <v>487</v>
       </c>
       <c r="D265" s="6"/>
       <c r="E265" s="6"/>
       <c r="F265" s="6"/>
       <c r="G265" s="8" t="s">
-        <v>544</v>
+        <v>625</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>373</v>
+        <v>451</v>
       </c>
       <c r="D266" s="6"/>
       <c r="E266" s="6"/>
       <c r="F266" s="6"/>
       <c r="G266" s="8" t="s">
-        <v>544</v>
+        <v>625</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="6" t="s">
-        <v>308</v>
+        <v>375</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>369</v>
+        <v>447</v>
       </c>
       <c r="D267" s="6" t="s">
-        <v>448</v>
+        <v>526</v>
       </c>
       <c r="E267" s="6" t="s">
-        <v>489</v>
+        <v>567</v>
       </c>
       <c r="F267" s="6"/>
       <c r="G267" s="8" t="s">
-        <v>544</v>
+        <v>625</v>
       </c>
     </row>
     <row r="268" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A268" s="6" t="s">
-        <v>615</v>
+        <v>430</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>386</v>
+        <v>464</v>
       </c>
       <c r="D268" s="6" t="s">
-        <v>422</v>
+        <v>500</v>
       </c>
       <c r="E268" s="6"/>
       <c r="F268" s="6"/>
       <c r="G268" s="8" t="s">
-        <v>546</v>
+        <v>627</v>
       </c>
     </row>
     <row r="269" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A269" s="6" t="s">
-        <v>232</v>
+        <v>276</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>392</v>
+        <v>470</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>393</v>
+        <v>471</v>
       </c>
       <c r="D269" s="6"/>
       <c r="E269" s="6"/>
       <c r="F269" s="6"/>
       <c r="G269" s="8" t="s">
-        <v>546</v>
+        <v>627</v>
       </c>
     </row>
     <row r="270" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A270" s="6" t="s">
-        <v>353</v>
+        <v>431</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>433</v>
+        <v>511</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>519</v>
+        <v>597</v>
       </c>
       <c r="D270" s="6" t="s">
-        <v>514</v>
+        <v>592</v>
       </c>
       <c r="E270" s="6"/>
       <c r="F270" s="6"/>
       <c r="G270" s="8" t="s">
-        <v>547</v>
+        <v>628</v>
       </c>
     </row>
     <row r="271" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A271" s="6" t="s">
-        <v>231</v>
+        <v>275</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>433</v>
+        <v>511</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>519</v>
+        <v>597</v>
       </c>
       <c r="D271" s="6" t="s">
-        <v>420</v>
+        <v>498</v>
       </c>
       <c r="E271" s="6" t="s">
-        <v>514</v>
+        <v>592</v>
       </c>
       <c r="F271" s="6"/>
       <c r="G271" s="8" t="s">
-        <v>546</v>
+        <v>627</v>
       </c>
     </row>
     <row r="272" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A272" s="6" t="s">
-        <v>230</v>
+        <v>274</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>472</v>
+        <v>550</v>
       </c>
       <c r="C272" s="11" t="s">
-        <v>409</v>
+        <v>487</v>
       </c>
       <c r="D272" s="6"/>
       <c r="E272" s="6"/>
       <c r="F272" s="6"/>
       <c r="G272" s="8" t="s">
-        <v>546</v>
+        <v>627</v>
       </c>
     </row>
     <row r="273" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A273" s="6" t="s">
-        <v>221</v>
+        <v>261</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>404</v>
+        <v>482</v>
       </c>
       <c r="C273" s="6"/>
       <c r="D273" s="6"/>
       <c r="E273" s="6"/>
       <c r="F273" s="6"/>
       <c r="G273" s="8" t="s">
-        <v>546</v>
+        <v>627</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="6" t="s">
-        <v>222</v>
+        <v>263</v>
       </c>
       <c r="B274" s="6" t="s">
         <v>0</v>
@@ -7636,1588 +7636,1588 @@
       <c r="E274" s="6"/>
       <c r="F274" s="6"/>
       <c r="G274" s="8" t="s">
-        <v>546</v>
+        <v>627</v>
       </c>
     </row>
     <row r="275" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A275" s="6" t="s">
-        <v>217</v>
+        <v>257</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>523</v>
+        <v>601</v>
       </c>
       <c r="C275" s="6"/>
       <c r="D275" s="6"/>
       <c r="E275" s="6"/>
       <c r="F275" s="6"/>
       <c r="G275" s="8" t="s">
-        <v>548</v>
+        <v>629</v>
       </c>
     </row>
     <row r="276" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A276" s="6" t="s">
-        <v>259</v>
+        <v>312</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>386</v>
+        <v>464</v>
       </c>
       <c r="C276" s="6" t="s">
-        <v>434</v>
+        <v>512</v>
       </c>
       <c r="D276" s="6"/>
       <c r="E276" s="6"/>
       <c r="F276" s="6"/>
       <c r="G276" s="8" t="s">
-        <v>548</v>
+        <v>629</v>
       </c>
     </row>
     <row r="277" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A277" s="6" t="s">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>412</v>
+        <v>490</v>
       </c>
       <c r="C277" s="6"/>
       <c r="D277" s="6"/>
       <c r="E277" s="6"/>
       <c r="F277" s="6"/>
       <c r="G277" s="8" t="s">
-        <v>548</v>
+        <v>629</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="6" t="s">
-        <v>616</v>
+        <v>273</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="C278" s="6" t="s">
-        <v>421</v>
+        <v>499</v>
       </c>
       <c r="D278" s="6"/>
       <c r="E278" s="6"/>
       <c r="F278" s="6"/>
       <c r="G278" s="8" t="s">
-        <v>548</v>
+        <v>629</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="6" t="s">
-        <v>229</v>
+        <v>272</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>435</v>
+        <v>513</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>406</v>
+        <v>484</v>
       </c>
       <c r="D279" s="6"/>
       <c r="E279" s="6"/>
       <c r="F279" s="6"/>
       <c r="G279" s="8" t="s">
-        <v>548</v>
+        <v>629</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="6" t="s">
-        <v>354</v>
+        <v>432</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>512</v>
+        <v>590</v>
       </c>
       <c r="C280" s="6"/>
       <c r="D280" s="6"/>
       <c r="E280" s="6"/>
       <c r="F280" s="6"/>
       <c r="G280" s="8" t="s">
-        <v>548</v>
+        <v>629</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="6" t="s">
-        <v>617</v>
+        <v>270</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>426</v>
+        <v>504</v>
       </c>
       <c r="C281" s="6" t="s">
-        <v>406</v>
+        <v>484</v>
       </c>
       <c r="D281" s="6"/>
       <c r="E281" s="6"/>
       <c r="F281" s="6"/>
       <c r="G281" s="8" t="s">
-        <v>549</v>
+        <v>630</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="6" t="s">
-        <v>618</v>
+        <v>271</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>406</v>
+        <v>484</v>
       </c>
       <c r="C282" s="6"/>
       <c r="D282" s="6"/>
       <c r="E282" s="6"/>
       <c r="F282" s="6"/>
       <c r="G282" s="8" t="s">
-        <v>549</v>
+        <v>630</v>
       </c>
     </row>
     <row r="283" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A283" s="6" t="s">
-        <v>228</v>
+        <v>269</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="C283" s="6" t="s">
-        <v>386</v>
+        <v>464</v>
       </c>
       <c r="D283" s="6"/>
       <c r="E283" s="6"/>
       <c r="F283" s="6"/>
       <c r="G283" s="8" t="s">
-        <v>549</v>
+        <v>630</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" s="6" t="s">
-        <v>227</v>
+        <v>268</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>365</v>
+        <v>443</v>
       </c>
       <c r="C284" s="6"/>
       <c r="D284" s="6"/>
       <c r="E284" s="6"/>
       <c r="F284" s="6"/>
       <c r="G284" s="8" t="s">
-        <v>549</v>
+        <v>630</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" s="6" t="s">
-        <v>226</v>
+        <v>267</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>374</v>
+        <v>452</v>
       </c>
       <c r="C285" s="6"/>
       <c r="D285" s="6"/>
       <c r="E285" s="6"/>
       <c r="F285" s="6"/>
       <c r="G285" s="8" t="s">
-        <v>549</v>
+        <v>630</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" s="6" t="s">
-        <v>225</v>
+        <v>266</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="C286" s="6"/>
       <c r="D286" s="6"/>
       <c r="E286" s="6"/>
       <c r="F286" s="6"/>
       <c r="G286" s="8" t="s">
-        <v>550</v>
+        <v>631</v>
       </c>
     </row>
     <row r="287" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A287" s="6" t="s">
-        <v>224</v>
+        <v>265</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>404</v>
+        <v>482</v>
       </c>
       <c r="C287" s="6" t="s">
-        <v>405</v>
+        <v>483</v>
       </c>
       <c r="D287" s="6" t="s">
-        <v>406</v>
+        <v>484</v>
       </c>
       <c r="E287" s="6"/>
       <c r="F287" s="6"/>
       <c r="G287" s="8" t="s">
-        <v>550</v>
+        <v>631</v>
       </c>
     </row>
     <row r="288" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A288" s="6" t="s">
-        <v>619</v>
+        <v>304</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>436</v>
+        <v>514</v>
       </c>
       <c r="C288" s="6"/>
       <c r="D288" s="6"/>
       <c r="E288" s="6"/>
       <c r="F288" s="6"/>
       <c r="G288" s="8" t="s">
-        <v>550</v>
+        <v>631</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" s="6" t="s">
-        <v>223</v>
+        <v>264</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>405</v>
+        <v>483</v>
       </c>
       <c r="C289" s="6"/>
       <c r="D289" s="6"/>
       <c r="E289" s="6"/>
       <c r="F289" s="6"/>
       <c r="G289" s="8" t="s">
-        <v>550</v>
+        <v>631</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>492</v>
+        <v>570</v>
       </c>
       <c r="C290" s="6" t="s">
-        <v>437</v>
+        <v>515</v>
       </c>
       <c r="D290" s="6"/>
       <c r="E290" s="6"/>
       <c r="F290" s="6"/>
       <c r="G290" s="8" t="s">
-        <v>551</v>
+        <v>632</v>
       </c>
     </row>
     <row r="291" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A291" s="6" t="s">
-        <v>620</v>
+        <v>225</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>492</v>
+        <v>570</v>
       </c>
       <c r="C291" s="6" t="s">
-        <v>437</v>
+        <v>515</v>
       </c>
       <c r="D291" s="6"/>
       <c r="E291" s="6"/>
       <c r="F291" s="6"/>
       <c r="G291" s="8" t="s">
-        <v>551</v>
+        <v>632</v>
       </c>
     </row>
     <row r="292" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A292" s="6" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>438</v>
+        <v>516</v>
       </c>
       <c r="C292" s="6"/>
       <c r="D292" s="6"/>
       <c r="E292" s="6"/>
       <c r="F292" s="6"/>
       <c r="G292" s="8" t="s">
-        <v>551</v>
+        <v>632</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" s="6" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>490</v>
+        <v>568</v>
       </c>
       <c r="C293" s="6" t="s">
-        <v>439</v>
+        <v>517</v>
       </c>
       <c r="D293" s="6"/>
       <c r="E293" s="6"/>
       <c r="F293" s="6"/>
       <c r="G293" s="8" t="s">
-        <v>551</v>
+        <v>632</v>
       </c>
     </row>
     <row r="294" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A294" s="6" t="s">
-        <v>621</v>
+        <v>142</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>490</v>
+        <v>568</v>
       </c>
       <c r="C294" s="6" t="s">
-        <v>439</v>
+        <v>517</v>
       </c>
       <c r="D294" s="6"/>
       <c r="E294" s="6"/>
       <c r="F294" s="6"/>
       <c r="G294" s="8" t="s">
-        <v>551</v>
+        <v>632</v>
       </c>
     </row>
     <row r="295" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A295" s="6" t="s">
-        <v>622</v>
+        <v>166</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>490</v>
+        <v>568</v>
       </c>
       <c r="C295" s="6" t="s">
-        <v>439</v>
+        <v>517</v>
       </c>
       <c r="D295" s="6"/>
       <c r="E295" s="6"/>
       <c r="F295" s="6"/>
       <c r="G295" s="8" t="s">
-        <v>551</v>
+        <v>632</v>
       </c>
     </row>
     <row r="296" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A296" s="6" t="s">
-        <v>623</v>
+        <v>323</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>491</v>
+        <v>569</v>
       </c>
       <c r="C296" s="6" t="s">
-        <v>395</v>
+        <v>473</v>
       </c>
       <c r="D296" s="6" t="s">
-        <v>440</v>
+        <v>518</v>
       </c>
       <c r="E296" s="6"/>
       <c r="F296" s="6"/>
       <c r="G296" s="8" t="s">
-        <v>551</v>
+        <v>632</v>
       </c>
     </row>
     <row r="297" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A297" s="6" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>441</v>
+        <v>519</v>
       </c>
       <c r="C297" s="6" t="s">
-        <v>416</v>
+        <v>494</v>
       </c>
       <c r="D297" s="6"/>
       <c r="E297" s="6"/>
       <c r="F297" s="6"/>
       <c r="G297" s="8" t="s">
-        <v>551</v>
+        <v>632</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" s="6" t="s">
-        <v>624</v>
+        <v>340</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>374</v>
+        <v>452</v>
       </c>
       <c r="C298" s="6" t="s">
-        <v>395</v>
+        <v>473</v>
       </c>
       <c r="D298" s="6" t="s">
-        <v>491</v>
+        <v>569</v>
       </c>
       <c r="E298" s="6" t="s">
-        <v>440</v>
+        <v>518</v>
       </c>
       <c r="F298" s="6"/>
       <c r="G298" s="8" t="s">
-        <v>551</v>
+        <v>632</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" s="6" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>492</v>
+        <v>570</v>
       </c>
       <c r="C299" s="6" t="s">
-        <v>381</v>
+        <v>459</v>
       </c>
       <c r="D299" s="6" t="s">
-        <v>437</v>
+        <v>515</v>
       </c>
       <c r="E299" s="6"/>
       <c r="F299" s="6"/>
       <c r="G299" s="8" t="s">
-        <v>551</v>
+        <v>632</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" s="6" t="s">
-        <v>233</v>
+        <v>277</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C300" s="6" t="s">
-        <v>373</v>
+        <v>451</v>
       </c>
       <c r="D300" s="6"/>
       <c r="E300" s="6"/>
       <c r="F300" s="6"/>
       <c r="G300" s="8" t="s">
-        <v>551</v>
+        <v>632</v>
       </c>
     </row>
     <row r="301" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A301" s="6" t="s">
-        <v>659</v>
+        <v>278</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C301" s="6" t="s">
-        <v>519</v>
+        <v>597</v>
       </c>
       <c r="D301" s="6"/>
       <c r="E301" s="6"/>
       <c r="F301" s="6"/>
       <c r="G301" s="8" t="s">
-        <v>551</v>
+        <v>632</v>
       </c>
     </row>
     <row r="302" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A302" s="6" t="s">
-        <v>625</v>
+        <v>292</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>479</v>
+        <v>557</v>
       </c>
       <c r="C302" s="6"/>
       <c r="D302" s="6"/>
       <c r="E302" s="6"/>
       <c r="F302" s="6"/>
       <c r="G302" s="8" t="s">
-        <v>551</v>
+        <v>632</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" s="10" t="s">
-        <v>245</v>
+        <v>293</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C303" s="6" t="s">
-        <v>367</v>
+        <v>445</v>
       </c>
       <c r="D303" s="6"/>
       <c r="E303" s="6"/>
       <c r="F303" s="6"/>
       <c r="G303" s="8" t="s">
-        <v>551</v>
+        <v>632</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" s="6" t="s">
-        <v>246</v>
+        <v>294</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>406</v>
+        <v>484</v>
       </c>
       <c r="C304" s="6" t="s">
-        <v>405</v>
+        <v>483</v>
       </c>
       <c r="D304" s="6"/>
       <c r="E304" s="6"/>
       <c r="F304" s="6"/>
       <c r="G304" s="8" t="s">
-        <v>551</v>
+        <v>632</v>
       </c>
     </row>
     <row r="305" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A305" s="6" t="s">
-        <v>247</v>
+        <v>295</v>
       </c>
       <c r="B305" s="11" t="s">
-        <v>469</v>
+        <v>547</v>
       </c>
       <c r="C305" s="11" t="s">
-        <v>402</v>
+        <v>480</v>
       </c>
       <c r="D305" s="6"/>
       <c r="E305" s="6"/>
       <c r="F305" s="6"/>
       <c r="G305" s="8" t="s">
-        <v>551</v>
+        <v>632</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" s="13" t="s">
-        <v>248</v>
+        <v>296</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>380</v>
+        <v>458</v>
       </c>
       <c r="C306" s="6"/>
       <c r="D306" s="6"/>
       <c r="E306" s="6"/>
       <c r="F306" s="6"/>
       <c r="G306" s="8" t="s">
-        <v>551</v>
+        <v>632</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" s="10" t="s">
-        <v>249</v>
+        <v>297</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>403</v>
+        <v>481</v>
       </c>
       <c r="C307" s="6"/>
       <c r="D307" s="6"/>
       <c r="E307" s="6"/>
       <c r="F307" s="6"/>
       <c r="G307" s="8" t="s">
-        <v>551</v>
+        <v>632</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" s="10" t="s">
-        <v>250</v>
+        <v>298</v>
       </c>
       <c r="B308" s="10" t="s">
-        <v>493</v>
+        <v>571</v>
       </c>
       <c r="C308" s="10" t="s">
-        <v>432</v>
+        <v>510</v>
       </c>
       <c r="D308" s="10"/>
       <c r="E308" s="6"/>
       <c r="F308" s="6"/>
       <c r="G308" s="8" t="s">
-        <v>551</v>
+        <v>632</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" s="6" t="s">
-        <v>251</v>
+        <v>299</v>
       </c>
       <c r="B309" s="10" t="s">
-        <v>432</v>
+        <v>510</v>
       </c>
       <c r="C309" s="10"/>
       <c r="D309" s="6"/>
       <c r="E309" s="6"/>
       <c r="F309" s="6"/>
       <c r="G309" s="8" t="s">
-        <v>551</v>
+        <v>632</v>
       </c>
     </row>
     <row r="310" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A310" s="10" t="s">
-        <v>252</v>
+        <v>300</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>478</v>
+        <v>556</v>
       </c>
       <c r="C310" s="6"/>
       <c r="D310" s="6"/>
       <c r="E310" s="6"/>
       <c r="F310" s="6"/>
       <c r="G310" s="8" t="s">
-        <v>551</v>
+        <v>632</v>
       </c>
     </row>
     <row r="311" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A311" s="6" t="s">
-        <v>253</v>
+        <v>301</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>462</v>
+        <v>540</v>
       </c>
       <c r="C311" s="6" t="s">
-        <v>442</v>
+        <v>520</v>
       </c>
       <c r="D311" s="6"/>
       <c r="E311" s="6"/>
       <c r="F311" s="6"/>
       <c r="G311" s="8" t="s">
-        <v>551</v>
+        <v>632</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" s="6" t="s">
-        <v>626</v>
+        <v>303</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>443</v>
+        <v>521</v>
       </c>
       <c r="C312" s="6"/>
       <c r="D312" s="6"/>
       <c r="E312" s="6"/>
       <c r="F312" s="6"/>
       <c r="G312" s="8" t="s">
-        <v>551</v>
+        <v>632</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" s="6" t="s">
-        <v>254</v>
+        <v>305</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>444</v>
+        <v>522</v>
       </c>
       <c r="C313" s="6"/>
       <c r="D313" s="6"/>
       <c r="E313" s="6"/>
       <c r="F313" s="6"/>
       <c r="G313" s="8" t="s">
-        <v>551</v>
+        <v>632</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" s="6" t="s">
-        <v>627</v>
+        <v>306</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>445</v>
+        <v>523</v>
       </c>
       <c r="C314" s="6"/>
       <c r="D314" s="6"/>
       <c r="E314" s="6"/>
       <c r="F314" s="6"/>
       <c r="G314" s="8" t="s">
-        <v>551</v>
+        <v>632</v>
       </c>
     </row>
     <row r="315" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A315" s="6" t="s">
-        <v>628</v>
+        <v>307</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>446</v>
+        <v>524</v>
       </c>
       <c r="C315" s="6"/>
       <c r="D315" s="6"/>
       <c r="E315" s="6"/>
       <c r="F315" s="6"/>
       <c r="G315" s="8" t="s">
-        <v>551</v>
+        <v>632</v>
       </c>
     </row>
     <row r="316" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A316" s="6" t="s">
-        <v>258</v>
+        <v>311</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>260</v>
+        <v>313</v>
       </c>
       <c r="C316" s="6" t="s">
-        <v>397</v>
+        <v>475</v>
       </c>
       <c r="D316" s="6"/>
       <c r="E316" s="6"/>
       <c r="F316" s="6"/>
       <c r="G316" s="8" t="s">
-        <v>552</v>
+        <v>633</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" s="6" t="s">
-        <v>279</v>
+        <v>339</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>464</v>
+        <v>542</v>
       </c>
       <c r="C317" s="6" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="D317" s="6"/>
       <c r="E317" s="6"/>
       <c r="F317" s="6"/>
       <c r="G317" s="8" t="s">
-        <v>553</v>
+        <v>634</v>
       </c>
     </row>
     <row r="318" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A318" s="6" t="s">
-        <v>629</v>
+        <v>359</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>471</v>
+        <v>549</v>
       </c>
       <c r="C318" s="6"/>
       <c r="D318" s="6"/>
       <c r="E318" s="6"/>
       <c r="F318" s="6"/>
       <c r="G318" s="8" t="s">
-        <v>553</v>
+        <v>634</v>
       </c>
     </row>
     <row r="319" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A319" s="6" t="s">
-        <v>261</v>
+        <v>314</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>472</v>
+        <v>550</v>
       </c>
       <c r="C319" s="11" t="s">
-        <v>409</v>
+        <v>487</v>
       </c>
       <c r="D319" s="6"/>
       <c r="E319" s="6"/>
       <c r="F319" s="6"/>
       <c r="G319" s="8" t="s">
-        <v>553</v>
+        <v>634</v>
       </c>
     </row>
     <row r="320" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A320" s="6" t="s">
-        <v>262</v>
+        <v>315</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C320" s="6"/>
       <c r="D320" s="6"/>
       <c r="E320" s="6"/>
       <c r="F320" s="6"/>
       <c r="G320" s="8" t="s">
-        <v>553</v>
+        <v>634</v>
       </c>
     </row>
     <row r="321" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A321" s="6" t="s">
-        <v>263</v>
+        <v>316</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>406</v>
+        <v>484</v>
       </c>
       <c r="C321" s="6" t="s">
-        <v>488</v>
+        <v>566</v>
       </c>
       <c r="D321" s="6" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="E321" s="6"/>
       <c r="F321" s="6"/>
       <c r="G321" s="8" t="s">
-        <v>545</v>
+        <v>626</v>
       </c>
     </row>
     <row r="322" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A322" s="6" t="s">
-        <v>355</v>
+        <v>433</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>397</v>
+        <v>475</v>
       </c>
       <c r="C322" s="6"/>
       <c r="D322" s="6"/>
       <c r="E322" s="6"/>
       <c r="F322" s="6"/>
       <c r="G322" s="8" t="s">
-        <v>554</v>
+        <v>635</v>
       </c>
     </row>
     <row r="323" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A323" s="6" t="s">
-        <v>264</v>
+        <v>317</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="C323" s="6" t="s">
-        <v>415</v>
+        <v>493</v>
       </c>
       <c r="D323" s="6" t="s">
-        <v>360</v>
+        <v>438</v>
       </c>
       <c r="E323" s="6"/>
       <c r="F323" s="6"/>
       <c r="G323" s="8" t="s">
-        <v>555</v>
+        <v>636</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324" s="6" t="s">
-        <v>265</v>
+        <v>318</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>374</v>
+        <v>452</v>
       </c>
       <c r="C324" s="6"/>
       <c r="D324" s="6"/>
       <c r="E324" s="6"/>
       <c r="F324" s="6"/>
       <c r="G324" s="8" t="s">
-        <v>555</v>
+        <v>636</v>
       </c>
     </row>
     <row r="325" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A325" s="6" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>494</v>
+        <v>572</v>
       </c>
       <c r="C325" s="6"/>
       <c r="D325" s="6"/>
       <c r="E325" s="6"/>
       <c r="F325" s="6"/>
       <c r="G325" s="8" t="s">
-        <v>555</v>
+        <v>636</v>
       </c>
     </row>
     <row r="326" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A326" s="6" t="s">
-        <v>267</v>
+        <v>320</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>520</v>
+        <v>598</v>
       </c>
       <c r="C326" s="6"/>
       <c r="D326" s="6"/>
       <c r="E326" s="6"/>
       <c r="F326" s="6"/>
       <c r="G326" s="8" t="s">
-        <v>555</v>
+        <v>636</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" s="6" t="s">
-        <v>630</v>
+        <v>321</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>464</v>
+        <v>542</v>
       </c>
       <c r="C327" s="6" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="D327" s="6"/>
       <c r="E327" s="6"/>
       <c r="F327" s="6"/>
       <c r="G327" s="8" t="s">
-        <v>555</v>
+        <v>636</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" s="6" t="s">
-        <v>268</v>
+        <v>322</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>514</v>
+        <v>592</v>
       </c>
       <c r="C328" s="6" t="s">
-        <v>420</v>
+        <v>498</v>
       </c>
       <c r="D328" s="6"/>
       <c r="E328" s="6"/>
       <c r="F328" s="6"/>
       <c r="G328" s="8" t="s">
-        <v>555</v>
+        <v>636</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329" s="6" t="s">
-        <v>269</v>
+        <v>324</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>382</v>
+        <v>460</v>
       </c>
       <c r="C329" s="6"/>
       <c r="D329" s="6"/>
       <c r="E329" s="6"/>
       <c r="F329" s="6"/>
       <c r="G329" s="8" t="s">
-        <v>556</v>
+        <v>637</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330" s="6" t="s">
-        <v>631</v>
+        <v>325</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>365</v>
+        <v>443</v>
       </c>
       <c r="C330" s="6"/>
       <c r="D330" s="6"/>
       <c r="E330" s="6"/>
       <c r="F330" s="6"/>
       <c r="G330" s="8" t="s">
-        <v>556</v>
+        <v>637</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331" s="6" t="s">
-        <v>270</v>
+        <v>326</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C331" s="6"/>
       <c r="D331" s="6"/>
       <c r="E331" s="6"/>
       <c r="F331" s="6"/>
       <c r="G331" s="8" t="s">
-        <v>556</v>
+        <v>637</v>
       </c>
     </row>
     <row r="332" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A332" s="6" t="s">
-        <v>271</v>
+        <v>327</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>523</v>
+        <v>601</v>
       </c>
       <c r="C332" s="6"/>
       <c r="D332" s="6"/>
       <c r="E332" s="6"/>
       <c r="F332" s="6"/>
       <c r="G332" s="8" t="s">
-        <v>556</v>
+        <v>637</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333" s="6" t="s">
-        <v>272</v>
+        <v>328</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>402</v>
+        <v>480</v>
       </c>
       <c r="C333" s="6"/>
       <c r="D333" s="6"/>
       <c r="E333" s="6"/>
       <c r="F333" s="6"/>
       <c r="G333" s="8" t="s">
-        <v>556</v>
+        <v>637</v>
       </c>
     </row>
     <row r="334" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A334" s="6" t="s">
-        <v>273</v>
+        <v>329</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>495</v>
+        <v>573</v>
       </c>
       <c r="C334" s="6"/>
       <c r="D334" s="6"/>
       <c r="E334" s="6"/>
       <c r="F334" s="6"/>
       <c r="G334" s="8" t="s">
-        <v>556</v>
+        <v>637</v>
       </c>
     </row>
     <row r="335" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A335" s="6" t="s">
-        <v>632</v>
+        <v>330</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>397</v>
+        <v>475</v>
       </c>
       <c r="C335" s="6"/>
       <c r="D335" s="6"/>
       <c r="E335" s="6"/>
       <c r="F335" s="6"/>
       <c r="G335" s="8" t="s">
-        <v>557</v>
+        <v>638</v>
       </c>
     </row>
     <row r="336" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A336" s="6" t="s">
-        <v>274</v>
+        <v>331</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>496</v>
+        <v>574</v>
       </c>
       <c r="C336" s="6" t="s">
-        <v>447</v>
+        <v>525</v>
       </c>
       <c r="D336" s="6"/>
       <c r="E336" s="6"/>
       <c r="F336" s="6"/>
       <c r="G336" s="8" t="s">
-        <v>557</v>
+        <v>638</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337" s="6" t="s">
-        <v>275</v>
+        <v>332</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C337" s="6"/>
       <c r="D337" s="6"/>
       <c r="E337" s="6"/>
       <c r="F337" s="6"/>
       <c r="G337" s="8" t="s">
-        <v>558</v>
+        <v>639</v>
       </c>
     </row>
     <row r="338" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A338" s="6" t="s">
-        <v>513</v>
+        <v>591</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>492</v>
+        <v>570</v>
       </c>
       <c r="C338" s="6" t="s">
-        <v>437</v>
+        <v>515</v>
       </c>
       <c r="D338" s="6"/>
       <c r="E338" s="6"/>
       <c r="F338" s="6"/>
       <c r="G338" s="8" t="s">
-        <v>558</v>
+        <v>639</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339" s="6" t="s">
-        <v>276</v>
+        <v>333</v>
       </c>
       <c r="B339" s="10" t="s">
-        <v>519</v>
+        <v>597</v>
       </c>
       <c r="C339" s="10" t="s">
-        <v>420</v>
+        <v>498</v>
       </c>
       <c r="D339" s="10"/>
       <c r="E339" s="6"/>
       <c r="F339" s="6"/>
       <c r="G339" s="8" t="s">
-        <v>558</v>
+        <v>639</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340" s="6" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C340" s="6" t="s">
-        <v>369</v>
+        <v>447</v>
       </c>
       <c r="D340" s="6" t="s">
-        <v>448</v>
+        <v>526</v>
       </c>
       <c r="E340" s="6" t="s">
-        <v>489</v>
+        <v>567</v>
       </c>
       <c r="F340" s="6"/>
       <c r="G340" s="8" t="s">
-        <v>559</v>
+        <v>640</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341" s="10" t="s">
-        <v>356</v>
+        <v>434</v>
       </c>
       <c r="B341" s="10" t="s">
-        <v>521</v>
+        <v>599</v>
       </c>
       <c r="C341" s="10" t="s">
-        <v>519</v>
+        <v>597</v>
       </c>
       <c r="D341" s="10" t="s">
-        <v>420</v>
+        <v>498</v>
       </c>
       <c r="E341" s="6"/>
       <c r="F341" s="6"/>
       <c r="G341" s="8" t="s">
-        <v>559</v>
+        <v>640</v>
       </c>
     </row>
     <row r="342" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A342" s="10" t="s">
-        <v>633</v>
+        <v>334</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>423</v>
+        <v>501</v>
       </c>
       <c r="C342" s="6" t="s">
-        <v>400</v>
+        <v>478</v>
       </c>
       <c r="D342" s="6"/>
       <c r="E342" s="6"/>
       <c r="F342" s="6"/>
       <c r="G342" s="8" t="s">
-        <v>559</v>
+        <v>640</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343" s="6" t="s">
-        <v>357</v>
+        <v>435</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>526</v>
+        <v>604</v>
       </c>
       <c r="C343" s="6" t="s">
-        <v>527</v>
+        <v>605</v>
       </c>
       <c r="D343" s="6"/>
       <c r="E343" s="6"/>
       <c r="F343" s="6"/>
       <c r="G343" s="8" t="s">
-        <v>559</v>
+        <v>640</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" s="6" t="s">
-        <v>660</v>
+        <v>335</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>497</v>
+        <v>575</v>
       </c>
       <c r="C344" s="6" t="s">
-        <v>449</v>
+        <v>527</v>
       </c>
       <c r="D344" s="6"/>
       <c r="E344" s="6"/>
       <c r="F344" s="6"/>
       <c r="G344" s="8" t="s">
-        <v>559</v>
+        <v>640</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345" s="6" t="s">
-        <v>277</v>
+        <v>336</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>278</v>
+        <v>337</v>
       </c>
       <c r="C345" s="6"/>
       <c r="D345" s="6"/>
       <c r="E345" s="6"/>
       <c r="F345" s="6"/>
       <c r="G345" s="8" t="s">
-        <v>559</v>
+        <v>640</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" s="6" t="s">
-        <v>634</v>
+        <v>338</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>498</v>
+        <v>576</v>
       </c>
       <c r="C346" s="6"/>
       <c r="D346" s="6"/>
       <c r="E346" s="6"/>
       <c r="F346" s="6"/>
       <c r="G346" s="8" t="s">
-        <v>559</v>
+        <v>640</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" s="6" t="s">
-        <v>280</v>
+        <v>341</v>
       </c>
       <c r="B347" s="14" t="s">
-        <v>406</v>
+        <v>484</v>
       </c>
       <c r="C347" s="6"/>
       <c r="D347" s="6"/>
       <c r="E347" s="6"/>
       <c r="F347" s="6"/>
       <c r="G347" s="8" t="s">
-        <v>560</v>
+        <v>641</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" s="6" t="s">
-        <v>281</v>
+        <v>342</v>
       </c>
       <c r="B348" s="14" t="s">
-        <v>406</v>
+        <v>484</v>
       </c>
       <c r="C348" s="6" t="s">
-        <v>499</v>
+        <v>577</v>
       </c>
       <c r="D348" s="6"/>
       <c r="E348" s="6"/>
       <c r="F348" s="6"/>
       <c r="G348" s="8" t="s">
-        <v>560</v>
+        <v>641</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" s="6" t="s">
-        <v>284</v>
+        <v>345</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="C349" s="9" t="s">
-        <v>464</v>
+        <v>542</v>
       </c>
       <c r="D349" s="6"/>
       <c r="E349" s="6"/>
       <c r="F349" s="6"/>
       <c r="G349" s="8" t="s">
-        <v>561</v>
+        <v>642</v>
       </c>
     </row>
     <row r="350" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A350" s="6" t="s">
-        <v>635</v>
+        <v>346</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>500</v>
+        <v>578</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>450</v>
+        <v>528</v>
       </c>
       <c r="D350" s="6"/>
       <c r="E350" s="6"/>
       <c r="F350" s="6"/>
       <c r="G350" s="8" t="s">
-        <v>562</v>
+        <v>643</v>
       </c>
     </row>
     <row r="351" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A351" s="6" t="s">
-        <v>286</v>
+        <v>349</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>523</v>
+        <v>601</v>
       </c>
       <c r="C351" s="6"/>
       <c r="D351" s="6"/>
       <c r="E351" s="6"/>
       <c r="F351" s="6"/>
       <c r="G351" s="8" t="s">
-        <v>562</v>
+        <v>643</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" s="6" t="s">
-        <v>358</v>
+        <v>436</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>278</v>
+        <v>337</v>
       </c>
       <c r="C352" s="6"/>
       <c r="D352" s="6"/>
       <c r="E352" s="6"/>
       <c r="F352" s="6"/>
       <c r="G352" s="8" t="s">
-        <v>562</v>
+        <v>643</v>
       </c>
     </row>
     <row r="353" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A353" s="6" t="s">
-        <v>287</v>
+        <v>350</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="C353" s="6" t="s">
-        <v>386</v>
+        <v>464</v>
       </c>
       <c r="D353" s="6" t="s">
-        <v>422</v>
+        <v>500</v>
       </c>
       <c r="E353" s="6"/>
       <c r="F353" s="6"/>
       <c r="G353" s="8" t="s">
-        <v>562</v>
+        <v>643</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354" s="6" t="s">
-        <v>288</v>
+        <v>351</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C354" s="6"/>
       <c r="D354" s="6"/>
       <c r="E354" s="6"/>
       <c r="F354" s="6"/>
       <c r="G354" s="8" t="s">
-        <v>562</v>
+        <v>643</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" s="6" t="s">
-        <v>636</v>
+        <v>353</v>
       </c>
       <c r="B355" s="6" t="s">
-        <v>365</v>
+        <v>443</v>
       </c>
       <c r="C355" s="6"/>
       <c r="D355" s="6"/>
       <c r="E355" s="6"/>
       <c r="F355" s="6"/>
       <c r="G355" s="8" t="s">
-        <v>563</v>
+        <v>644</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356" s="6" t="s">
-        <v>289</v>
+        <v>354</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>402</v>
+        <v>480</v>
       </c>
       <c r="C356" s="6"/>
       <c r="D356" s="6"/>
       <c r="E356" s="6"/>
       <c r="F356" s="6"/>
       <c r="G356" s="8" t="s">
-        <v>563</v>
+        <v>644</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357" s="6" t="s">
-        <v>290</v>
+        <v>355</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>374</v>
+        <v>452</v>
       </c>
       <c r="C357" s="6"/>
       <c r="D357" s="6"/>
       <c r="E357" s="6"/>
       <c r="F357" s="6"/>
       <c r="G357" s="8" t="s">
-        <v>564</v>
+        <v>645</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" s="6" t="s">
-        <v>359</v>
+        <v>437</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>419</v>
+        <v>497</v>
       </c>
       <c r="C358" s="6"/>
       <c r="D358" s="6"/>
       <c r="E358" s="6"/>
       <c r="F358" s="6"/>
       <c r="G358" s="8" t="s">
-        <v>565</v>
+        <v>646</v>
       </c>
     </row>
     <row r="359" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A359" s="6" t="s">
-        <v>291</v>
+        <v>356</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>451</v>
+        <v>529</v>
       </c>
       <c r="C359" s="6" t="s">
-        <v>472</v>
+        <v>550</v>
       </c>
       <c r="D359" s="11" t="s">
-        <v>409</v>
+        <v>487</v>
       </c>
       <c r="E359" s="6"/>
       <c r="F359" s="6"/>
       <c r="G359" s="8" t="s">
-        <v>565</v>
+        <v>646</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" s="6" t="s">
-        <v>293</v>
+        <v>358</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>361</v>
+        <v>439</v>
       </c>
       <c r="C360" s="6" t="s">
-        <v>460</v>
+        <v>538</v>
       </c>
       <c r="D360" s="6"/>
       <c r="E360" s="6"/>
       <c r="F360" s="6"/>
       <c r="G360" s="8" t="s">
-        <v>565</v>
+        <v>646</v>
       </c>
     </row>
     <row r="361" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A361" s="6" t="s">
-        <v>307</v>
+        <v>374</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>395</v>
+        <v>473</v>
       </c>
       <c r="C361" s="6" t="s">
-        <v>383</v>
+        <v>461</v>
       </c>
       <c r="D361" s="6"/>
       <c r="E361" s="6"/>
       <c r="F361" s="6"/>
       <c r="G361" s="8" t="s">
-        <v>566</v>
+        <v>647</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362" s="6" t="s">
-        <v>292</v>
+        <v>357</v>
       </c>
       <c r="B362" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="C362" s="6" t="s">
         <v>501</v>
-      </c>
-      <c r="C362" s="6" t="s">
-        <v>423</v>
       </c>
       <c r="D362" s="6"/>
       <c r="E362" s="6"/>
       <c r="F362" s="6"/>
       <c r="G362" s="8" t="s">
-        <v>566</v>
+        <v>647</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363" s="6" t="s">
-        <v>294</v>
+        <v>360</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="C363" s="6" t="s">
-        <v>464</v>
+        <v>542</v>
       </c>
       <c r="D363" s="6"/>
       <c r="E363" s="6"/>
       <c r="F363" s="6"/>
       <c r="G363" s="8" t="s">
-        <v>567</v>
+        <v>648</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" s="10" t="s">
-        <v>297</v>
+        <v>363</v>
       </c>
       <c r="B364" s="10" t="s">
-        <v>464</v>
+        <v>542</v>
       </c>
       <c r="C364" s="10" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="D364" s="6"/>
       <c r="E364" s="6"/>
       <c r="F364" s="6"/>
       <c r="G364" s="8" t="s">
-        <v>568</v>
+        <v>649</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" s="6" t="s">
-        <v>661</v>
+        <v>262</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>382</v>
+        <v>460</v>
       </c>
       <c r="C365" s="6"/>
       <c r="D365" s="6"/>
       <c r="E365" s="6"/>
       <c r="F365" s="6"/>
       <c r="G365" s="8" t="s">
-        <v>568</v>
+        <v>649</v>
       </c>
     </row>
     <row r="366" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="6" t="s">
-        <v>295</v>
+        <v>361</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>395</v>
+        <v>473</v>
       </c>
       <c r="C366" s="6"/>
       <c r="D366" s="6"/>
       <c r="E366" s="6"/>
       <c r="F366" s="6"/>
       <c r="G366" s="8" t="s">
-        <v>568</v>
+        <v>649</v>
       </c>
     </row>
     <row r="367" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A367" s="6" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>395</v>
+        <v>473</v>
       </c>
       <c r="C367" s="6" t="s">
-        <v>383</v>
+        <v>461</v>
       </c>
       <c r="D367" s="6"/>
       <c r="E367" s="6"/>
       <c r="F367" s="6"/>
       <c r="G367" s="8" t="s">
-        <v>569</v>
+        <v>650</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" s="6" t="s">
-        <v>296</v>
+        <v>362</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="C368" s="6" t="s">
-        <v>464</v>
+        <v>542</v>
       </c>
       <c r="D368" s="6"/>
       <c r="E368" s="6"/>
       <c r="F368" s="6"/>
       <c r="G368" s="8" t="s">
-        <v>569</v>
+        <v>650</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369" s="6" t="s">
-        <v>299</v>
+        <v>365</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>395</v>
+        <v>473</v>
       </c>
       <c r="C369" s="6" t="s">
-        <v>450</v>
+        <v>528</v>
       </c>
       <c r="D369" s="6"/>
       <c r="E369" s="6"/>
       <c r="F369" s="6"/>
       <c r="G369" s="8" t="s">
-        <v>569</v>
+        <v>650</v>
       </c>
     </row>
     <row r="370" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A370" s="6" t="s">
-        <v>300</v>
+        <v>366</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>483</v>
+        <v>561</v>
       </c>
       <c r="C370" s="6"/>
       <c r="D370" s="6"/>
       <c r="E370" s="6"/>
       <c r="F370" s="6"/>
       <c r="G370" s="8" t="s">
-        <v>569</v>
+        <v>650</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" s="10" t="s">
-        <v>301</v>
+        <v>367</v>
       </c>
       <c r="B371" s="10" t="s">
-        <v>502</v>
+        <v>580</v>
       </c>
       <c r="C371" s="10" t="s">
-        <v>452</v>
+        <v>530</v>
       </c>
       <c r="D371" s="6"/>
       <c r="E371" s="6"/>
       <c r="F371" s="6"/>
       <c r="G371" s="8" t="s">
-        <v>569</v>
+        <v>650</v>
       </c>
     </row>
     <row r="372" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -9225,900 +9225,900 @@
         <v>5</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>453</v>
+        <v>531</v>
       </c>
       <c r="C372" s="6"/>
       <c r="D372" s="6"/>
       <c r="E372" s="6"/>
       <c r="F372" s="6"/>
       <c r="G372" s="8" t="s">
-        <v>570</v>
+        <v>651</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373" s="6" t="s">
-        <v>302</v>
+        <v>368</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C373" s="6"/>
       <c r="D373" s="6"/>
       <c r="E373" s="6"/>
       <c r="F373" s="6"/>
       <c r="G373" s="8" t="s">
-        <v>570</v>
+        <v>651</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374" s="6" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C374" s="6"/>
       <c r="D374" s="6"/>
       <c r="E374" s="6"/>
       <c r="F374" s="6"/>
       <c r="G374" s="8" t="s">
-        <v>570</v>
+        <v>651</v>
       </c>
     </row>
     <row r="375" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A375" s="6" t="s">
-        <v>218</v>
+        <v>258</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>523</v>
+        <v>601</v>
       </c>
       <c r="C375" s="6"/>
       <c r="D375" s="6"/>
       <c r="E375" s="6"/>
       <c r="F375" s="6"/>
       <c r="G375" s="8" t="s">
-        <v>570</v>
+        <v>651</v>
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376" s="6" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="B376" s="10" t="s">
-        <v>464</v>
+        <v>542</v>
       </c>
       <c r="C376" s="10" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="D376" s="6"/>
       <c r="E376" s="6"/>
       <c r="F376" s="6"/>
       <c r="G376" s="8" t="s">
-        <v>570</v>
+        <v>651</v>
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377" s="6" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>503</v>
+        <v>581</v>
       </c>
       <c r="C377" s="6" t="s">
-        <v>360</v>
+        <v>438</v>
       </c>
       <c r="D377" s="6" t="s">
-        <v>394</v>
+        <v>472</v>
       </c>
       <c r="E377" s="6"/>
       <c r="F377" s="6"/>
       <c r="G377" s="8" t="s">
-        <v>570</v>
+        <v>651</v>
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378" s="6" t="s">
-        <v>306</v>
+        <v>373</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>454</v>
+        <v>532</v>
       </c>
       <c r="C378" s="6"/>
       <c r="D378" s="6"/>
       <c r="E378" s="6"/>
       <c r="F378" s="6"/>
       <c r="G378" s="8" t="s">
-        <v>570</v>
+        <v>651</v>
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379" s="6" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>430</v>
+        <v>508</v>
       </c>
       <c r="C379" s="6" t="s">
-        <v>424</v>
+        <v>502</v>
       </c>
       <c r="D379" s="6"/>
       <c r="E379" s="6"/>
       <c r="F379" s="6"/>
       <c r="G379" s="8" t="s">
-        <v>570</v>
+        <v>651</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380" s="6" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>424</v>
+        <v>502</v>
       </c>
       <c r="C380" s="6" t="s">
-        <v>452</v>
+        <v>530</v>
       </c>
       <c r="D380" s="6"/>
       <c r="E380" s="6"/>
       <c r="F380" s="6"/>
       <c r="G380" s="8" t="s">
-        <v>570</v>
+        <v>651</v>
       </c>
     </row>
     <row r="381" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A381" s="6" t="s">
-        <v>304</v>
+        <v>371</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>455</v>
+        <v>533</v>
       </c>
       <c r="C381" s="6"/>
       <c r="D381" s="6"/>
       <c r="E381" s="6"/>
       <c r="F381" s="6"/>
       <c r="G381" s="8" t="s">
-        <v>571</v>
+        <v>652</v>
       </c>
     </row>
     <row r="382" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A382" s="6" t="s">
-        <v>285</v>
+        <v>348</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>386</v>
+        <v>464</v>
       </c>
       <c r="C382" s="6"/>
       <c r="D382" s="6"/>
       <c r="E382" s="6"/>
       <c r="F382" s="6"/>
       <c r="G382" s="8" t="s">
-        <v>536</v>
+        <v>617</v>
       </c>
     </row>
     <row r="383" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A383" s="6" t="s">
-        <v>309</v>
+        <v>376</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>383</v>
+        <v>461</v>
       </c>
       <c r="C383" s="6"/>
       <c r="D383" s="6"/>
       <c r="E383" s="6"/>
       <c r="F383" s="6"/>
       <c r="G383" s="8" t="s">
-        <v>571</v>
+        <v>652</v>
       </c>
     </row>
     <row r="384" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A384" s="6" t="s">
-        <v>298</v>
+        <v>364</v>
       </c>
       <c r="B384" s="11" t="s">
-        <v>469</v>
+        <v>547</v>
       </c>
       <c r="C384" s="11" t="s">
-        <v>402</v>
+        <v>480</v>
       </c>
       <c r="D384" s="6"/>
       <c r="E384" s="6"/>
       <c r="F384" s="6"/>
       <c r="G384" s="8" t="s">
-        <v>571</v>
+        <v>652</v>
       </c>
     </row>
     <row r="385" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A385" s="15" t="s">
-        <v>310</v>
+        <v>377</v>
       </c>
       <c r="B385" s="15" t="s">
-        <v>486</v>
+        <v>564</v>
       </c>
       <c r="C385" s="15" t="s">
-        <v>388</v>
+        <v>466</v>
       </c>
       <c r="D385" s="15"/>
       <c r="E385" s="15"/>
       <c r="F385" s="6"/>
       <c r="G385" s="8" t="s">
-        <v>572</v>
+        <v>653</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A386" s="6" t="s">
-        <v>311</v>
+        <v>378</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C386" s="6"/>
       <c r="D386" s="6"/>
       <c r="E386" s="6"/>
       <c r="F386" s="6"/>
       <c r="G386" s="8" t="s">
-        <v>572</v>
+        <v>653</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387" s="6" t="s">
-        <v>637</v>
+        <v>379</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>365</v>
+        <v>443</v>
       </c>
       <c r="C387" s="6"/>
       <c r="D387" s="6"/>
       <c r="E387" s="6"/>
       <c r="F387" s="6"/>
       <c r="G387" s="8" t="s">
-        <v>572</v>
+        <v>653</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388" s="6" t="s">
-        <v>312</v>
+        <v>380</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>201</v>
+        <v>238</v>
       </c>
       <c r="C388" s="6" t="s">
-        <v>431</v>
+        <v>509</v>
       </c>
       <c r="D388" s="6"/>
       <c r="E388" s="6"/>
       <c r="F388" s="6"/>
       <c r="G388" s="8" t="s">
-        <v>572</v>
+        <v>653</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A389" s="6" t="s">
-        <v>314</v>
+        <v>384</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="C389" s="6" t="s">
-        <v>464</v>
+        <v>542</v>
       </c>
       <c r="D389" s="6"/>
       <c r="E389" s="6"/>
       <c r="F389" s="6"/>
       <c r="G389" s="8" t="s">
-        <v>573</v>
+        <v>654</v>
       </c>
     </row>
     <row r="390" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A390" s="6" t="s">
-        <v>313</v>
+        <v>383</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>488</v>
+        <v>566</v>
       </c>
       <c r="C390" s="6" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="D390" s="6"/>
       <c r="E390" s="6"/>
       <c r="F390" s="6"/>
       <c r="G390" s="8" t="s">
-        <v>545</v>
+        <v>626</v>
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391" s="6" t="s">
-        <v>315</v>
+        <v>385</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>406</v>
+        <v>484</v>
       </c>
       <c r="C391" s="6" t="s">
-        <v>499</v>
+        <v>577</v>
       </c>
       <c r="D391" s="6"/>
       <c r="E391" s="6"/>
       <c r="F391" s="6"/>
       <c r="G391" s="8" t="s">
-        <v>545</v>
+        <v>626</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392" s="16" t="s">
-        <v>316</v>
+        <v>386</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>370</v>
+        <v>448</v>
       </c>
       <c r="C392" s="6" t="s">
-        <v>374</v>
+        <v>452</v>
       </c>
       <c r="D392" s="6"/>
       <c r="E392" s="6"/>
       <c r="F392" s="6"/>
       <c r="G392" s="8" t="s">
-        <v>574</v>
+        <v>655</v>
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A393" s="6" t="s">
-        <v>317</v>
+        <v>387</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>370</v>
+        <v>448</v>
       </c>
       <c r="C393" s="6"/>
       <c r="D393" s="6"/>
       <c r="E393" s="6"/>
       <c r="F393" s="6"/>
       <c r="G393" s="8" t="s">
-        <v>574</v>
+        <v>655</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A394" s="15" t="s">
-        <v>318</v>
+        <v>388</v>
       </c>
       <c r="B394" s="15" t="s">
-        <v>504</v>
+        <v>582</v>
       </c>
       <c r="C394" s="6"/>
       <c r="D394" s="6"/>
       <c r="E394" s="6"/>
       <c r="F394" s="6"/>
       <c r="G394" s="8" t="s">
-        <v>575</v>
+        <v>656</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395" s="6" t="s">
-        <v>319</v>
+        <v>389</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>402</v>
+        <v>480</v>
       </c>
       <c r="C395" s="6"/>
       <c r="D395" s="6"/>
       <c r="E395" s="6"/>
       <c r="F395" s="6"/>
       <c r="G395" s="8" t="s">
-        <v>576</v>
+        <v>657</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396" s="6" t="s">
-        <v>320</v>
+        <v>390</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>365</v>
+        <v>443</v>
       </c>
       <c r="C396" s="6"/>
       <c r="D396" s="6"/>
       <c r="E396" s="6"/>
       <c r="F396" s="6"/>
       <c r="G396" s="8" t="s">
-        <v>576</v>
+        <v>657</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397" s="6" t="s">
-        <v>321</v>
+        <v>391</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C397" s="6"/>
       <c r="D397" s="6"/>
       <c r="E397" s="6"/>
       <c r="F397" s="6"/>
       <c r="G397" s="8" t="s">
-        <v>576</v>
+        <v>657</v>
       </c>
     </row>
     <row r="398" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A398" s="6" t="s">
-        <v>638</v>
+        <v>392</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>375</v>
+        <v>453</v>
       </c>
       <c r="C398" s="6"/>
       <c r="D398" s="6"/>
       <c r="E398" s="6"/>
       <c r="F398" s="6"/>
       <c r="G398" s="8" t="s">
-        <v>576</v>
+        <v>657</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399" s="6" t="s">
-        <v>322</v>
+        <v>393</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>418</v>
+        <v>496</v>
       </c>
       <c r="C399" s="6" t="s">
-        <v>432</v>
+        <v>510</v>
       </c>
       <c r="D399" s="6"/>
       <c r="E399" s="6"/>
       <c r="F399" s="6"/>
       <c r="G399" s="8" t="s">
-        <v>577</v>
+        <v>658</v>
       </c>
     </row>
     <row r="400" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A400" s="6" t="s">
-        <v>639</v>
+        <v>394</v>
       </c>
       <c r="B400" s="6" t="s">
-        <v>473</v>
+        <v>551</v>
       </c>
       <c r="C400" s="6"/>
       <c r="D400" s="6"/>
       <c r="E400" s="6"/>
       <c r="F400" s="6"/>
       <c r="G400" s="8" t="s">
-        <v>578</v>
+        <v>659</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401" s="17" t="s">
-        <v>323</v>
+        <v>395</v>
       </c>
       <c r="B401" s="17" t="s">
-        <v>324</v>
+        <v>396</v>
       </c>
       <c r="C401" s="17" t="s">
-        <v>398</v>
+        <v>476</v>
       </c>
       <c r="D401" s="6"/>
       <c r="E401" s="6"/>
       <c r="F401" s="18"/>
       <c r="G401" s="8" t="s">
-        <v>579</v>
+        <v>660</v>
       </c>
     </row>
     <row r="402" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A402" s="19" t="s">
-        <v>325</v>
+        <v>397</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>466</v>
+        <v>544</v>
       </c>
       <c r="C402" s="6"/>
       <c r="D402" s="6"/>
       <c r="E402" s="6"/>
       <c r="F402" s="6"/>
       <c r="G402" s="8" t="s">
-        <v>579</v>
+        <v>660</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A403" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B403" s="11" t="s">
-        <v>456</v>
+        <v>534</v>
       </c>
       <c r="C403" s="6"/>
       <c r="D403" s="6"/>
       <c r="E403" s="6"/>
       <c r="F403" s="6"/>
       <c r="G403" s="8" t="s">
-        <v>580</v>
+        <v>661</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A404" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B404" s="11" t="s">
-        <v>456</v>
+        <v>534</v>
       </c>
       <c r="C404" s="6"/>
       <c r="D404" s="6"/>
       <c r="E404" s="6"/>
       <c r="F404" s="6"/>
       <c r="G404" s="8" t="s">
-        <v>580</v>
+        <v>661</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A405" s="6" t="s">
-        <v>328</v>
+        <v>400</v>
       </c>
       <c r="B405" s="11" t="s">
-        <v>456</v>
+        <v>534</v>
       </c>
       <c r="C405" s="11"/>
       <c r="D405" s="6"/>
       <c r="E405" s="6"/>
       <c r="F405" s="6"/>
       <c r="G405" s="8" t="s">
-        <v>580</v>
+        <v>661</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A406" s="6" t="s">
-        <v>326</v>
+        <v>398</v>
       </c>
       <c r="B406" s="11" t="s">
-        <v>456</v>
+        <v>534</v>
       </c>
       <c r="C406" s="6" t="s">
-        <v>327</v>
+        <v>399</v>
       </c>
       <c r="D406" s="6"/>
       <c r="E406" s="6"/>
       <c r="F406" s="6"/>
       <c r="G406" s="8" t="s">
-        <v>580</v>
+        <v>661</v>
       </c>
     </row>
     <row r="407" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A407" s="6" t="s">
-        <v>329</v>
+        <v>401</v>
       </c>
       <c r="B407" s="11" t="s">
-        <v>478</v>
+        <v>556</v>
       </c>
       <c r="C407" s="6"/>
       <c r="D407" s="6"/>
       <c r="E407" s="6"/>
       <c r="F407" s="6"/>
       <c r="G407" s="8" t="s">
-        <v>580</v>
+        <v>661</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A408" s="15" t="s">
-        <v>330</v>
+        <v>402</v>
       </c>
       <c r="B408" s="15" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C408" s="6"/>
       <c r="D408" s="6"/>
       <c r="E408" s="6"/>
       <c r="F408" s="6"/>
       <c r="G408" s="8" t="s">
-        <v>580</v>
+        <v>661</v>
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A409" s="15" t="s">
-        <v>331</v>
+        <v>403</v>
       </c>
       <c r="B409" s="15" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C409" s="6"/>
       <c r="D409" s="6"/>
       <c r="E409" s="6"/>
       <c r="F409" s="6"/>
       <c r="G409" s="8" t="s">
-        <v>580</v>
+        <v>661</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A410" s="6" t="s">
-        <v>662</v>
+        <v>404</v>
       </c>
       <c r="B410" s="6" t="s">
-        <v>457</v>
+        <v>535</v>
       </c>
       <c r="C410" s="6"/>
       <c r="D410" s="6"/>
       <c r="E410" s="6"/>
       <c r="F410" s="6"/>
       <c r="G410" s="8" t="s">
-        <v>547</v>
+        <v>628</v>
       </c>
     </row>
     <row r="411" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A411" s="6" t="s">
-        <v>332</v>
+        <v>405</v>
       </c>
       <c r="B411" s="6" t="s">
-        <v>505</v>
+        <v>583</v>
       </c>
       <c r="C411" s="6"/>
       <c r="D411" s="6"/>
       <c r="E411" s="6"/>
       <c r="F411" s="6"/>
       <c r="G411" s="8" t="s">
-        <v>547</v>
+        <v>628</v>
       </c>
     </row>
     <row r="412" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="15" t="s">
-        <v>333</v>
+        <v>406</v>
       </c>
       <c r="B412" s="6" t="s">
-        <v>492</v>
+        <v>570</v>
       </c>
       <c r="C412" s="11" t="s">
-        <v>437</v>
+        <v>515</v>
       </c>
       <c r="D412" s="6"/>
       <c r="E412" s="6"/>
       <c r="F412" s="6"/>
       <c r="G412" s="8" t="s">
-        <v>547</v>
+        <v>628</v>
       </c>
     </row>
     <row r="413" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A413" s="6" t="s">
-        <v>334</v>
+        <v>407</v>
       </c>
       <c r="B413" s="11" t="s">
-        <v>478</v>
+        <v>556</v>
       </c>
       <c r="C413" s="6"/>
       <c r="D413" s="6"/>
       <c r="E413" s="6"/>
       <c r="F413" s="6"/>
       <c r="G413" s="8" t="s">
-        <v>547</v>
+        <v>628</v>
       </c>
     </row>
     <row r="414" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A414" s="6" t="s">
-        <v>335</v>
+        <v>408</v>
       </c>
       <c r="B414" s="11" t="s">
-        <v>469</v>
+        <v>547</v>
       </c>
       <c r="C414" s="11" t="s">
-        <v>402</v>
+        <v>480</v>
       </c>
       <c r="D414" s="6"/>
       <c r="E414" s="6"/>
       <c r="F414" s="6"/>
       <c r="G414" s="8" t="s">
-        <v>547</v>
+        <v>628</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A415" s="6" t="s">
-        <v>336</v>
+        <v>409</v>
       </c>
       <c r="B415" s="11" t="s">
-        <v>458</v>
+        <v>536</v>
       </c>
       <c r="C415" s="6" t="s">
-        <v>327</v>
+        <v>399</v>
       </c>
       <c r="D415" s="6"/>
       <c r="E415" s="6"/>
       <c r="F415" s="6"/>
       <c r="G415" s="8" t="s">
-        <v>547</v>
+        <v>628</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A416" s="6" t="s">
-        <v>337</v>
+        <v>410</v>
       </c>
       <c r="B416" s="6" t="s">
-        <v>327</v>
+        <v>399</v>
       </c>
       <c r="C416" s="6" t="s">
-        <v>395</v>
+        <v>473</v>
       </c>
       <c r="D416" s="6"/>
       <c r="E416" s="6"/>
       <c r="F416" s="6"/>
       <c r="G416" s="8" t="s">
-        <v>547</v>
+        <v>628</v>
       </c>
     </row>
     <row r="417" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A417" s="6" t="s">
-        <v>338</v>
+        <v>411</v>
       </c>
       <c r="B417" s="11" t="s">
-        <v>450</v>
+        <v>528</v>
       </c>
       <c r="C417" s="11" t="s">
-        <v>473</v>
+        <v>551</v>
       </c>
       <c r="D417" s="6"/>
       <c r="E417" s="6"/>
       <c r="F417" s="6"/>
       <c r="G417" s="8" t="s">
-        <v>547</v>
+        <v>628</v>
       </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A418" s="6" t="s">
-        <v>640</v>
+        <v>412</v>
       </c>
       <c r="B418" s="6" t="s">
-        <v>433</v>
+        <v>511</v>
       </c>
       <c r="C418" s="11" t="s">
-        <v>402</v>
+        <v>480</v>
       </c>
       <c r="D418" s="6"/>
       <c r="E418" s="6"/>
       <c r="F418" s="6"/>
       <c r="G418" s="8" t="s">
-        <v>547</v>
+        <v>628</v>
       </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A419" s="6" t="s">
-        <v>339</v>
+        <v>413</v>
       </c>
       <c r="B419" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C419" s="6"/>
       <c r="D419" s="6"/>
       <c r="E419" s="6"/>
       <c r="F419" s="6"/>
       <c r="G419" s="8" t="s">
-        <v>581</v>
+        <v>662</v>
       </c>
     </row>
     <row r="420" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A420" s="6" t="s">
-        <v>340</v>
+        <v>414</v>
       </c>
       <c r="B420" s="6" t="s">
-        <v>492</v>
+        <v>570</v>
       </c>
       <c r="C420" s="6" t="s">
-        <v>437</v>
+        <v>515</v>
       </c>
       <c r="D420" s="6"/>
       <c r="E420" s="6"/>
       <c r="F420" s="6"/>
       <c r="G420" s="8" t="s">
-        <v>581</v>
+        <v>662</v>
       </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A421" s="6" t="s">
-        <v>341</v>
+        <v>415</v>
       </c>
       <c r="B421" s="6" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="C421" s="6"/>
       <c r="D421" s="6"/>
       <c r="E421" s="6"/>
       <c r="F421" s="6"/>
       <c r="G421" s="8" t="s">
-        <v>581</v>
+        <v>662</v>
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A422" s="15" t="s">
-        <v>529</v>
+        <v>607</v>
       </c>
       <c r="B422" s="6" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C422" s="6" t="s">
-        <v>394</v>
+        <v>472</v>
       </c>
       <c r="D422" s="6" t="s">
-        <v>459</v>
+        <v>537</v>
       </c>
       <c r="E422" s="20"/>
       <c r="F422" s="20"/>
       <c r="G422" s="8" t="s">
-        <v>582</v>
+        <v>663</v>
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A423" s="15" t="s">
-        <v>530</v>
+        <v>608</v>
       </c>
       <c r="B423" s="6" t="s">
-        <v>365</v>
+        <v>443</v>
       </c>
       <c r="C423" s="20"/>
       <c r="D423" s="20"/>
       <c r="E423" s="20"/>
       <c r="F423" s="20"/>
       <c r="G423" s="8" t="s">
-        <v>582</v>
+        <v>663</v>
       </c>
     </row>
     <row r="424" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A424" s="15" t="s">
-        <v>531</v>
+        <v>609</v>
       </c>
       <c r="B424" s="15" t="s">
-        <v>532</v>
+        <v>610</v>
       </c>
       <c r="C424" s="6" t="s">
-        <v>366</v>
+        <v>444</v>
       </c>
       <c r="D424" s="20"/>
       <c r="E424" s="20"/>
       <c r="F424" s="20"/>
       <c r="G424" s="8" t="s">
-        <v>582</v>
+        <v>663</v>
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A425" s="20" t="s">
-        <v>641</v>
+        <v>611</v>
       </c>
       <c r="B425" s="6" t="s">
-        <v>365</v>
+        <v>443</v>
       </c>
       <c r="C425" s="20"/>
       <c r="D425" s="20"/>
       <c r="E425" s="20"/>
       <c r="F425" s="20"/>
       <c r="G425" s="8" t="s">
-        <v>582</v>
+        <v>663</v>
       </c>
     </row>
     <row r="426" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A426" s="20" t="s">
-        <v>651</v>
+        <v>612</v>
       </c>
       <c r="B426" s="11" t="s">
-        <v>402</v>
+        <v>480</v>
       </c>
       <c r="C426" s="20"/>
       <c r="D426" s="20"/>
       <c r="E426" s="20"/>
       <c r="F426" s="20"/>
       <c r="G426" s="8" t="s">
-        <v>582</v>
+        <v>663</v>
       </c>
     </row>
     <row r="427" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A427" s="20" t="s">
-        <v>652</v>
+        <v>613</v>
       </c>
       <c r="B427" s="20" t="s">
-        <v>533</v>
+        <v>614</v>
       </c>
       <c r="C427" s="20"/>
       <c r="D427" s="20"/>
       <c r="E427" s="20"/>
       <c r="F427" s="20"/>
       <c r="G427" s="8" t="s">
-        <v>582</v>
+        <v>663</v>
       </c>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
-        <v>583</v>
+        <v>664</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>393</v>
+        <v>471</v>
       </c>
       <c r="G428" s="21" t="s">
-        <v>584</v>
+        <v>665</v>
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.3">
@@ -10127,12 +10127,12 @@
   </sheetData>
   <autoFilter ref="B1:B421" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <customSheetViews>
-    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
+    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
+    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
